--- a/Data/PFTF-Current.xlsx
+++ b/Data/PFTF-Current.xlsx
@@ -5,16 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PFTF0301 " sheetId="1" r:id="rId2"/>
+    <sheet name="PFTF0309 " sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
-  <si>
-    <t xml:space="preserve">PFTF for 03/01/2023  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+  <si>
+    <t xml:space="preserve">PFTF for 03/09/2023  </t>
   </si>
   <si>
     <t>Cusip</t>
@@ -317,6 +317,18 @@
     <t>Junior subordinated</t>
   </si>
   <si>
+    <t>CASHUSD0</t>
+  </si>
+  <si>
+    <t>CASHUSD00000</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
     <t>17461020</t>
   </si>
   <si>
@@ -807,9 +819,6 @@
   </si>
   <si>
     <t>TVA</t>
-  </si>
-  <si>
-    <t>AAA</t>
   </si>
   <si>
     <t>Pfd-Quasi Government</t>
@@ -1009,7 +1018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AI75"/>
+  <dimension ref="A1:AI76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1208,13 +1217,13 @@
         <v>293.2</v>
       </c>
       <c r="O3" s="0">
-        <v>83.64</v>
+        <v>75.68</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.80128</v>
+        <v>0.73858</v>
       </c>
       <c r="R3" s="0">
         <v>0.81408</v>
@@ -1223,43 +1232,43 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>505</v>
+        <v>642</v>
       </c>
       <c r="U3" s="0">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="V3" s="0">
-        <v>526</v>
+        <v>581</v>
       </c>
       <c r="W3" s="0">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="X3" s="0">
-        <v>9.85</v>
+        <v>11.36</v>
       </c>
       <c r="Y3" s="0">
-        <v>12.21</v>
+        <v>15.64</v>
       </c>
       <c r="Z3" s="0">
-        <v>12.21</v>
+        <v>15.64</v>
       </c>
       <c r="AA3" s="0">
-        <v>-2.015</v>
+        <v>-11.34</v>
       </c>
       <c r="AB3" s="0">
-        <v>-1.771</v>
+        <v>-11.156</v>
       </c>
       <c r="AC3" s="0">
-        <v>2.08</v>
+        <v>1.48</v>
       </c>
       <c r="AD3" s="0">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AE3" s="0">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AF3" s="0">
-        <v>-0.13</v>
+        <v>-0.25</v>
       </c>
       <c r="AG3" s="0">
         <v>0.12</v>
@@ -1315,13 +1324,13 @@
         <v>413.613</v>
       </c>
       <c r="O4" s="0">
-        <v>89</v>
+        <v>86.68</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>1.20279</v>
+        <v>1.19335</v>
       </c>
       <c r="R4" s="0">
         <v>1.20168</v>
@@ -1330,49 +1339,49 @@
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="U4" s="0">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V4" s="0">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="W4" s="0">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="X4" s="0">
-        <v>9</v>
+        <v>9.24</v>
       </c>
       <c r="Y4" s="0">
-        <v>13.32</v>
+        <v>15.23</v>
       </c>
       <c r="Z4" s="0">
-        <v>13.32</v>
+        <v>15.23</v>
       </c>
       <c r="AA4" s="0">
-        <v>-0.358</v>
+        <v>-2.956</v>
       </c>
       <c r="AB4" s="0">
-        <v>-0.472</v>
+        <v>-3.113</v>
       </c>
       <c r="AC4" s="0">
-        <v>0.92</v>
+        <v>0.66</v>
       </c>
       <c r="AD4" s="0">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AE4" s="0">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AF4" s="0">
-        <v>-0.13</v>
+        <v>-0.18</v>
       </c>
       <c r="AG4" s="0">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AH4" s="0">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AI4" s="0" t="s">
         <v>47</v>
@@ -1422,13 +1431,13 @@
         <v>310.209</v>
       </c>
       <c r="O5" s="0">
-        <v>96.12</v>
+        <v>95.24</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.97425</v>
+        <v>0.98339</v>
       </c>
       <c r="R5" s="0">
         <v>0.98198</v>
@@ -1437,40 +1446,40 @@
         <v>0</v>
       </c>
       <c r="T5" s="0">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="U5" s="0">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="V5" s="0">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="W5" s="0">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X5" s="0">
-        <v>7.95</v>
+        <v>8.42</v>
       </c>
       <c r="Y5" s="0">
-        <v>8.46</v>
+        <v>8.96</v>
       </c>
       <c r="Z5" s="0">
-        <v>8.46</v>
+        <v>8.96</v>
       </c>
       <c r="AA5" s="0">
-        <v>-1.233</v>
+        <v>-2.137</v>
       </c>
       <c r="AB5" s="0">
-        <v>-1.019</v>
+        <v>-2.004</v>
       </c>
       <c r="AC5" s="0">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="AD5" s="0">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AE5" s="0">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AF5" s="0">
         <v>0.06</v>
@@ -1529,13 +1538,13 @@
         <v>543.018</v>
       </c>
       <c r="O6" s="0">
-        <v>85.36</v>
+        <v>82.72</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>1.51451</v>
+        <v>1.49513</v>
       </c>
       <c r="R6" s="0">
         <v>1.52819</v>
@@ -1544,43 +1553,43 @@
         <v>0</v>
       </c>
       <c r="T6" s="0">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="U6" s="0">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="V6" s="0">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="W6" s="0">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="X6" s="0">
-        <v>9.82</v>
+        <v>10.48</v>
       </c>
       <c r="Y6" s="0">
-        <v>15.01</v>
+        <v>16.92</v>
       </c>
       <c r="Z6" s="0">
-        <v>15.01</v>
+        <v>16.92</v>
       </c>
       <c r="AA6" s="0">
-        <v>-1.341</v>
+        <v>-4.392</v>
       </c>
       <c r="AB6" s="0">
-        <v>-1.261</v>
+        <v>-4.24</v>
       </c>
       <c r="AC6" s="0">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
       <c r="AD6" s="0">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AE6" s="0">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AF6" s="0">
-        <v>-0.27</v>
+        <v>-0.32</v>
       </c>
       <c r="AG6" s="0">
         <v>0.05</v>
@@ -1636,13 +1645,13 @@
         <v>380.112</v>
       </c>
       <c r="O7" s="0">
-        <v>89.3</v>
+        <v>87.68</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>1.10909</v>
+        <v>1.10934</v>
       </c>
       <c r="R7" s="0">
         <v>1.11127</v>
@@ -1651,43 +1660,43 @@
         <v>0</v>
       </c>
       <c r="T7" s="0">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="U7" s="0">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="V7" s="0">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="W7" s="0">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="X7" s="0">
-        <v>9.72</v>
+        <v>10.2</v>
       </c>
       <c r="Y7" s="0">
-        <v>14.9</v>
+        <v>16.44</v>
       </c>
       <c r="Z7" s="0">
-        <v>14.9</v>
+        <v>16.44</v>
       </c>
       <c r="AA7" s="0">
-        <v>-0.645</v>
+        <v>-2.448</v>
       </c>
       <c r="AB7" s="0">
-        <v>-0.625</v>
+        <v>-2.348</v>
       </c>
       <c r="AC7" s="0">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="AD7" s="0">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AE7" s="0">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AF7" s="0">
-        <v>-0.23</v>
+        <v>-0.26</v>
       </c>
       <c r="AG7" s="0">
         <v>0.03</v>
@@ -1749,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.65697</v>
+        <v>0.66926</v>
       </c>
       <c r="R8" s="0">
         <v>0.65402</v>
@@ -1758,43 +1767,43 @@
         <v>0</v>
       </c>
       <c r="T8" s="0">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U8" s="0">
+        <v>-7</v>
+      </c>
+      <c r="V8" s="0">
+        <v>410</v>
+      </c>
+      <c r="W8" s="0">
         <v>-6</v>
       </c>
-      <c r="V8" s="0">
-        <v>411</v>
-      </c>
-      <c r="W8" s="0">
-        <v>-5</v>
-      </c>
       <c r="X8" s="0">
-        <v>9.07</v>
+        <v>9.2</v>
       </c>
       <c r="Y8" s="0">
-        <v>17.54</v>
+        <v>17.93</v>
       </c>
       <c r="Z8" s="0">
-        <v>17.54</v>
+        <v>17.93</v>
       </c>
       <c r="AA8" s="0">
         <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>-0.067</v>
+        <v>0.052</v>
       </c>
       <c r="AC8" s="0">
-        <v>-0.31</v>
+        <v>-0.36</v>
       </c>
       <c r="AD8" s="0">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="AE8" s="0">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="AF8" s="0">
-        <v>-0.29</v>
+        <v>-0.3</v>
       </c>
       <c r="AG8" s="0">
         <v>0.02</v>
@@ -1850,13 +1859,13 @@
         <v>306.923</v>
       </c>
       <c r="O9" s="0">
-        <v>101.88</v>
+        <v>100.92</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>1.0217</v>
+        <v>1.031</v>
       </c>
       <c r="R9" s="0">
         <v>1.0171</v>
@@ -1886,10 +1895,10 @@
         <v>99.99</v>
       </c>
       <c r="AA9" s="0">
-        <v>0</v>
+        <v>-0.942</v>
       </c>
       <c r="AB9" s="0">
-        <v>-0.105</v>
+        <v>-1.046</v>
       </c>
       <c r="AC9" s="0">
         <v>-1.09</v>
@@ -1957,13 +1966,13 @@
         <v>141.657</v>
       </c>
       <c r="O10" s="0">
-        <v>90.68</v>
+        <v>90.32</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.41971</v>
+        <v>0.42587</v>
       </c>
       <c r="R10" s="0">
         <v>0.42151</v>
@@ -1972,49 +1981,49 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="U10" s="0">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="V10" s="0">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="W10" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="X10" s="0">
-        <v>8.24</v>
+        <v>8.27</v>
       </c>
       <c r="Y10" s="0">
-        <v>10.75</v>
+        <v>10.92</v>
       </c>
       <c r="Z10" s="0">
-        <v>10.75</v>
+        <v>10.92</v>
       </c>
       <c r="AA10" s="0">
-        <v>-0.875</v>
+        <v>-1.268</v>
       </c>
       <c r="AB10" s="0">
-        <v>-0.716</v>
+        <v>-1.131</v>
       </c>
       <c r="AC10" s="0">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="AD10" s="0">
-        <v>3.64</v>
+        <v>3.62</v>
       </c>
       <c r="AE10" s="0">
-        <v>3.64</v>
+        <v>3.62</v>
       </c>
       <c r="AF10" s="0">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="AG10" s="0">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AH10" s="0">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AI10" s="0" t="s">
         <v>47</v>
@@ -2064,13 +2073,13 @@
         <v>258.508</v>
       </c>
       <c r="O11" s="0">
-        <v>97.52</v>
+        <v>88.88</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.82371</v>
+        <v>0.76477</v>
       </c>
       <c r="R11" s="0">
         <v>0.82605</v>
@@ -2079,49 +2088,49 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>264</v>
+        <v>378</v>
       </c>
       <c r="U11" s="0">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="V11" s="0">
-        <v>313</v>
+        <v>390</v>
       </c>
       <c r="W11" s="0">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="X11" s="0">
-        <v>8.09</v>
+        <v>9.66</v>
       </c>
       <c r="Y11" s="0">
-        <v>8.54</v>
+        <v>18.74</v>
       </c>
       <c r="Z11" s="0">
-        <v>8.54</v>
+        <v>18.74</v>
       </c>
       <c r="AA11" s="0">
-        <v>-0.733</v>
+        <v>-9.528</v>
       </c>
       <c r="AB11" s="0">
-        <v>-0.704</v>
+        <v>-9.513</v>
       </c>
       <c r="AC11" s="0">
-        <v>0.77</v>
+        <v>-0.35</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="AF11" s="0">
-        <v>-0.06</v>
+        <v>-0.31</v>
       </c>
       <c r="AG11" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH11" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI11" s="0" t="s">
         <v>47</v>
@@ -2171,13 +2180,13 @@
         <v>361.911</v>
       </c>
       <c r="O12" s="0">
-        <v>92.96</v>
+        <v>92.64</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>1.09926</v>
+        <v>1.11597</v>
       </c>
       <c r="R12" s="0">
         <v>1.09055</v>
@@ -2186,43 +2195,43 @@
         <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="U12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="V12" s="0">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="W12" s="0">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="X12" s="0">
-        <v>9.25</v>
+        <v>9.47</v>
       </c>
       <c r="Y12" s="0">
-        <v>13.12</v>
+        <v>13.65</v>
       </c>
       <c r="Z12" s="0">
-        <v>13.12</v>
+        <v>13.65</v>
       </c>
       <c r="AA12" s="0">
-        <v>0.345</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0.377</v>
+        <v>0.035</v>
       </c>
       <c r="AC12" s="0">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="AD12" s="0">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AE12" s="0">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AF12" s="0">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="AG12" s="0">
         <v>0.02</v>
@@ -2278,13 +2287,13 @@
         <v>873.751</v>
       </c>
       <c r="O13" s="0">
-        <v>99</v>
+        <v>95.28</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>2.82636</v>
+        <v>2.77104</v>
       </c>
       <c r="R13" s="0">
         <v>2.81137</v>
@@ -2293,43 +2302,43 @@
         <v>0</v>
       </c>
       <c r="T13" s="0">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="U13" s="0">
-        <v>-11</v>
+        <v>60</v>
       </c>
       <c r="V13" s="0">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="W13" s="0">
-        <v>-7</v>
+        <v>46</v>
       </c>
       <c r="X13" s="0">
-        <v>7.52</v>
+        <v>8.35</v>
       </c>
       <c r="Y13" s="0">
-        <v>6.82</v>
+        <v>7.62</v>
       </c>
       <c r="Z13" s="0">
-        <v>6.82</v>
+        <v>7.62</v>
       </c>
       <c r="AA13" s="0">
-        <v>0.081</v>
+        <v>-3.68</v>
       </c>
       <c r="AB13" s="0">
-        <v>0.6</v>
+        <v>-3.576</v>
       </c>
       <c r="AC13" s="0">
-        <v>4.97</v>
+        <v>4.81</v>
       </c>
       <c r="AD13" s="0">
-        <v>5.02</v>
+        <v>4.95</v>
       </c>
       <c r="AE13" s="0">
-        <v>5.02</v>
+        <v>4.95</v>
       </c>
       <c r="AF13" s="0">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="AG13" s="0">
         <v>0.32</v>
@@ -2385,13 +2394,13 @@
         <v>607.827</v>
       </c>
       <c r="O14" s="0">
-        <v>100.72</v>
+        <v>100.04</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>2.00032</v>
+        <v>2.02399</v>
       </c>
       <c r="R14" s="0">
         <v>1.9937</v>
@@ -2400,43 +2409,43 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="U14" s="0">
-        <v>-4</v>
+        <v>33</v>
       </c>
       <c r="V14" s="0">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="W14" s="0">
-        <v>-1</v>
+        <v>51</v>
       </c>
       <c r="X14" s="0">
-        <v>5.91</v>
+        <v>6.24</v>
       </c>
       <c r="Y14" s="0">
-        <v>6.59</v>
+        <v>6.95</v>
       </c>
       <c r="Z14" s="0">
-        <v>6.59</v>
+        <v>6.95</v>
       </c>
       <c r="AA14" s="0">
-        <v>-0.119</v>
+        <v>-0.793</v>
       </c>
       <c r="AB14" s="0">
-        <v>0.091</v>
+        <v>-0.664</v>
       </c>
       <c r="AC14" s="0">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="AD14" s="0">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AE14" s="0">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AF14" s="0">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AG14" s="0">
         <v>0.07</v>
@@ -2492,13 +2501,13 @@
         <v>409.131</v>
       </c>
       <c r="O15" s="0">
-        <v>83.72</v>
+        <v>83.88</v>
       </c>
       <c r="P15" s="0">
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1.11917</v>
+        <v>1.14229</v>
       </c>
       <c r="R15" s="0">
         <v>1.11147</v>
@@ -2507,43 +2516,43 @@
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="U15" s="0">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="V15" s="0">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="W15" s="0">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="X15" s="0">
-        <v>6.13</v>
+        <v>6.29</v>
       </c>
       <c r="Y15" s="0">
-        <v>6.63</v>
+        <v>6.82</v>
       </c>
       <c r="Z15" s="0">
-        <v>6.63</v>
+        <v>6.82</v>
       </c>
       <c r="AA15" s="0">
-        <v>0.239</v>
+        <v>0.431</v>
       </c>
       <c r="AB15" s="0">
-        <v>0.511</v>
+        <v>0.009</v>
       </c>
       <c r="AC15" s="0">
-        <v>4.22</v>
+        <v>4.27</v>
       </c>
       <c r="AD15" s="0">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AE15" s="0">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AF15" s="0">
-        <v>28.26</v>
+        <v>28.44</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -2599,13 +2608,13 @@
         <v>1028.517</v>
       </c>
       <c r="O16" s="0">
-        <v>101.52</v>
+        <v>100.76</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>3.41167</v>
+        <v>3.44948</v>
       </c>
       <c r="R16" s="0">
         <v>3.40971</v>
@@ -2614,49 +2623,49 @@
         <v>0</v>
       </c>
       <c r="T16" s="0">
-        <v>-156</v>
+        <v>-68</v>
       </c>
       <c r="U16" s="0">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="V16" s="0">
-        <v>-78</v>
+        <v>-22</v>
       </c>
       <c r="W16" s="0">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="X16" s="0">
-        <v>2.33</v>
+        <v>3.13</v>
       </c>
       <c r="Y16" s="0">
-        <v>4.72</v>
+        <v>6.56</v>
       </c>
       <c r="Z16" s="0">
-        <v>6.49</v>
+        <v>6.56</v>
       </c>
       <c r="AA16" s="0">
-        <v>-0.392</v>
+        <v>-1.138</v>
       </c>
       <c r="AB16" s="0">
-        <v>-0.388</v>
+        <v>-1.234</v>
       </c>
       <c r="AC16" s="0">
-        <v>0.74</v>
+        <v>2.2</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.27</v>
+        <v>14.03</v>
       </c>
       <c r="AE16" s="0">
-        <v>14.15</v>
+        <v>14.03</v>
       </c>
       <c r="AF16" s="0">
-        <v>-1.77</v>
+        <v>-2.6</v>
       </c>
       <c r="AG16" s="0">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="AH16" s="0">
-        <v>3.61</v>
+        <v>3.57</v>
       </c>
       <c r="AI16" s="0" t="s">
         <v>100</v>
@@ -2673,100 +2682,100 @@
         <v>103</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="0">
+        <v>4.537</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44994</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="E17" s="0">
-        <v>6.35</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45388</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>41</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N17" s="0">
-        <v>310.209</v>
+        <v>28.073</v>
       </c>
       <c r="O17" s="0">
-        <v>102.08</v>
+        <v>100</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
       </c>
       <c r="Q17" s="0">
-        <v>1.03466</v>
+        <v>0.09344</v>
       </c>
       <c r="R17" s="0">
-        <v>1.02517</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U17" s="0">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="V17" s="0">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="W17" s="0">
-        <v>-86</v>
+        <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>4.96</v>
+        <v>4.54</v>
       </c>
       <c r="Y17" s="0">
-        <v>5.35</v>
+        <v>4.54</v>
       </c>
       <c r="Z17" s="0">
-        <v>5.35</v>
+        <v>4.54</v>
       </c>
       <c r="AA17" s="0">
-        <v>0.472</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="0">
-        <v>0.515</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="0">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="0">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="0">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="0">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="0">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="0" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -2783,13 +2792,13 @@
         <v>108</v>
       </c>
       <c r="E18" s="0">
-        <v>6.75</v>
+        <v>6.35</v>
       </c>
       <c r="F18" s="2">
-        <v>45565</v>
+        <v>45388</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>41</v>
@@ -2801,76 +2810,76 @@
         <v>43</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="N18" s="0">
-        <v>509.26</v>
+        <v>310.209</v>
       </c>
       <c r="O18" s="0">
-        <v>101.8</v>
+        <v>100.12</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1.69391</v>
+        <v>1.03379</v>
       </c>
       <c r="R18" s="0">
-        <v>1.70286</v>
+        <v>1.02517</v>
       </c>
       <c r="S18" s="0">
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="U18" s="0">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="V18" s="0">
-        <v>-25</v>
+        <v>231</v>
       </c>
       <c r="W18" s="0">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="X18" s="0">
-        <v>4.96</v>
+        <v>7.41</v>
       </c>
       <c r="Y18" s="0">
-        <v>6.37</v>
+        <v>7.4</v>
       </c>
       <c r="Z18" s="0">
-        <v>6.37</v>
+        <v>7.4</v>
       </c>
       <c r="AA18" s="0">
-        <v>-0.973</v>
+        <v>-1.456</v>
       </c>
       <c r="AB18" s="0">
-        <v>-0.875</v>
+        <v>-1.437</v>
       </c>
       <c r="AC18" s="0">
-        <v>1.33</v>
+        <v>0.98</v>
       </c>
       <c r="AD18" s="0">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="0">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="0">
         <v>0.01</v>
       </c>
       <c r="AG18" s="0">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AH18" s="0">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AI18" s="0" t="s">
         <v>47</v>
@@ -2878,22 +2887,22 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="E19" s="0">
-        <v>7.1</v>
+        <v>6.75</v>
       </c>
       <c r="F19" s="2">
-        <v>45382</v>
+        <v>45565</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>40</v>
@@ -2911,73 +2920,73 @@
         <v>44</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N19" s="0">
-        <v>434.293</v>
+        <v>509.26</v>
       </c>
       <c r="O19" s="0">
-        <v>101.76</v>
+        <v>101.84</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1.44399</v>
+        <v>1.72628</v>
       </c>
       <c r="R19" s="0">
-        <v>1.45219</v>
+        <v>1.70286</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="U19" s="0">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="V19" s="0">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="W19" s="0">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="X19" s="0">
-        <v>5.16</v>
+        <v>5.01</v>
       </c>
       <c r="Y19" s="0">
-        <v>6.63</v>
+        <v>6.44</v>
       </c>
       <c r="Z19" s="0">
-        <v>6.63</v>
+        <v>6.44</v>
       </c>
       <c r="AA19" s="0">
-        <v>-1.012</v>
+        <v>-0.934</v>
       </c>
       <c r="AB19" s="0">
-        <v>-0.973</v>
+        <v>-0.861</v>
       </c>
       <c r="AC19" s="0">
-        <v>0.93</v>
+        <v>1.31</v>
       </c>
       <c r="AD19" s="0">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AE19" s="0">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AF19" s="0">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="0">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AH19" s="0">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AI19" s="0" t="s">
         <v>47</v>
@@ -2985,22 +2994,22 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E20" s="0">
-        <v>7.75</v>
+        <v>7.1</v>
       </c>
       <c r="F20" s="2">
-        <v>45930</v>
+        <v>45382</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>40</v>
@@ -3018,73 +3027,73 @@
         <v>44</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="N20" s="0">
-        <v>268.848</v>
+        <v>434.293</v>
       </c>
       <c r="O20" s="0">
-        <v>78.56</v>
+        <v>101.28</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.6901</v>
+        <v>1.46407</v>
       </c>
       <c r="R20" s="0">
-        <v>0.70099</v>
+        <v>1.45219</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
       </c>
       <c r="T20" s="0">
-        <v>597</v>
+        <v>125</v>
       </c>
       <c r="U20" s="0">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="V20" s="0">
-        <v>527</v>
+        <v>94</v>
       </c>
       <c r="W20" s="0">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="X20" s="0">
-        <v>11.48</v>
+        <v>5.73</v>
       </c>
       <c r="Y20" s="0">
-        <v>18.45</v>
+        <v>7.26</v>
       </c>
       <c r="Z20" s="0">
-        <v>18.45</v>
+        <v>7.26</v>
       </c>
       <c r="AA20" s="0">
-        <v>-1.996</v>
+        <v>-1.479</v>
       </c>
       <c r="AB20" s="0">
-        <v>-1.928</v>
+        <v>-1.46</v>
       </c>
       <c r="AC20" s="0">
-        <v>0.31</v>
+        <v>0.86</v>
       </c>
       <c r="AD20" s="0">
-        <v>2.15</v>
+        <v>0.98</v>
       </c>
       <c r="AE20" s="0">
-        <v>2.15</v>
+        <v>0.98</v>
       </c>
       <c r="AF20" s="0">
-        <v>-0.35</v>
+        <v>-0.02</v>
       </c>
       <c r="AG20" s="0">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AH20" s="0">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AI20" s="0" t="s">
         <v>47</v>
@@ -3098,16 +3107,16 @@
         <v>118</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E21" s="0">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="F21" s="2">
-        <v>45381</v>
+        <v>45930</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>40</v>
@@ -3131,67 +3140,67 @@
         <v>46</v>
       </c>
       <c r="N21" s="0">
-        <v>206.806</v>
+        <v>268.848</v>
       </c>
       <c r="O21" s="0">
-        <v>84.8</v>
+        <v>78.36</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.57301</v>
+        <v>0.70122</v>
       </c>
       <c r="R21" s="0">
-        <v>0.57043</v>
+        <v>0.70099</v>
       </c>
       <c r="S21" s="0">
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="U21" s="0">
-        <v>-4</v>
+        <v>25</v>
       </c>
       <c r="V21" s="0">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="W21" s="0">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X21" s="0">
-        <v>11.58</v>
+        <v>11.67</v>
       </c>
       <c r="Y21" s="0">
-        <v>24.46</v>
+        <v>18.76</v>
       </c>
       <c r="Z21" s="0">
-        <v>24.46</v>
+        <v>18.76</v>
       </c>
       <c r="AA21" s="0">
-        <v>0</v>
+        <v>-2.246</v>
       </c>
       <c r="AB21" s="0">
-        <v>-0.099</v>
+        <v>-2.054</v>
       </c>
       <c r="AC21" s="0">
-        <v>-0.57</v>
+        <v>0.22</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.93</v>
+        <v>2.12</v>
       </c>
       <c r="AE21" s="0">
-        <v>0.93</v>
+        <v>2.12</v>
       </c>
       <c r="AF21" s="0">
-        <v>-0.3</v>
+        <v>-0.37</v>
       </c>
       <c r="AG21" s="0">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AH21" s="0">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AI21" s="0" t="s">
         <v>47</v>
@@ -3199,16 +3208,16 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="E22" s="0">
         <v>8</v>
@@ -3238,67 +3247,67 @@
         <v>46</v>
       </c>
       <c r="N22" s="0">
-        <v>336.06</v>
+        <v>206.806</v>
       </c>
       <c r="O22" s="0">
-        <v>88.44</v>
+        <v>82.68</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.97111</v>
+        <v>0.56914</v>
       </c>
       <c r="R22" s="0">
-        <v>0.97636</v>
+        <v>0.57043</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>582</v>
+        <v>632</v>
       </c>
       <c r="U22" s="0">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="V22" s="0">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="W22" s="0">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="X22" s="0">
-        <v>11.32</v>
+        <v>12.17</v>
       </c>
       <c r="Y22" s="0">
-        <v>19.99</v>
+        <v>27.82</v>
       </c>
       <c r="Z22" s="0">
-        <v>19.99</v>
+        <v>27.82</v>
       </c>
       <c r="AA22" s="0">
-        <v>-0.985</v>
+        <v>-2.5</v>
       </c>
       <c r="AB22" s="0">
-        <v>-1.041</v>
+        <v>-2.457</v>
       </c>
       <c r="AC22" s="0">
-        <v>-0.18</v>
+        <v>-0.81</v>
       </c>
       <c r="AD22" s="0">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AE22" s="0">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AF22" s="0">
-        <v>-0.23</v>
+        <v>-0.34</v>
       </c>
       <c r="AG22" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH22" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI22" s="0" t="s">
         <v>47</v>
@@ -3306,25 +3315,25 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E23" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" s="2">
-        <v>46997</v>
+        <v>45381</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>41</v>
@@ -3336,76 +3345,76 @@
         <v>43</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="N23" s="0">
-        <v>413.613</v>
+        <v>336.06</v>
       </c>
       <c r="O23" s="0">
-        <v>94.24</v>
+        <v>85.04</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
       </c>
       <c r="Q23" s="0">
-        <v>1.2736</v>
+        <v>0.95125</v>
       </c>
       <c r="R23" s="0">
-        <v>1.26787</v>
+        <v>0.97636</v>
       </c>
       <c r="S23" s="0">
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>339</v>
+        <v>640</v>
       </c>
       <c r="U23" s="0">
-        <v>-4</v>
+        <v>68</v>
       </c>
       <c r="V23" s="0">
-        <v>385</v>
+        <v>605</v>
       </c>
       <c r="W23" s="0">
-        <v>-2</v>
+        <v>27</v>
       </c>
       <c r="X23" s="0">
-        <v>8.55</v>
+        <v>12.18</v>
       </c>
       <c r="Y23" s="0">
-        <v>8.41</v>
+        <v>24.71</v>
       </c>
       <c r="Z23" s="0">
-        <v>8.41</v>
+        <v>24.71</v>
       </c>
       <c r="AA23" s="0">
-        <v>0</v>
+        <v>-4.792</v>
       </c>
       <c r="AB23" s="0">
-        <v>0.421</v>
+        <v>-4.755</v>
       </c>
       <c r="AC23" s="0">
-        <v>3.97</v>
+        <v>-0.51</v>
       </c>
       <c r="AD23" s="0">
-        <v>4.39</v>
+        <v>0.91</v>
       </c>
       <c r="AE23" s="0">
-        <v>4.39</v>
+        <v>0.91</v>
       </c>
       <c r="AF23" s="0">
-        <v>0.1</v>
+        <v>-0.27</v>
       </c>
       <c r="AG23" s="0">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="AH23" s="0">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="AI23" s="0" t="s">
         <v>47</v>
@@ -3413,25 +3422,25 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>129</v>
-      </c>
       <c r="E24" s="0">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2">
-        <v>45427</v>
+        <v>46997</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>41</v>
@@ -3443,76 +3452,76 @@
         <v>43</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N24" s="0">
-        <v>827.225</v>
+        <v>413.613</v>
       </c>
       <c r="O24" s="0">
-        <v>97.68</v>
+        <v>93.32</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>2.64018</v>
+        <v>1.28476</v>
       </c>
       <c r="R24" s="0">
-        <v>2.61862</v>
+        <v>1.26787</v>
       </c>
       <c r="S24" s="0">
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>430</v>
+        <v>354</v>
       </c>
       <c r="U24" s="0">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="V24" s="0">
-        <v>480</v>
+        <v>394</v>
       </c>
       <c r="W24" s="0">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="X24" s="0">
-        <v>9.75</v>
+        <v>8.79</v>
       </c>
       <c r="Y24" s="0">
-        <v>10.11</v>
+        <v>8.67</v>
       </c>
       <c r="Z24" s="0">
-        <v>10.11</v>
+        <v>8.67</v>
       </c>
       <c r="AA24" s="0">
-        <v>0.37</v>
+        <v>-0.976</v>
       </c>
       <c r="AB24" s="0">
-        <v>0.401</v>
+        <v>-0.852</v>
       </c>
       <c r="AC24" s="0">
-        <v>0.92</v>
+        <v>3.85</v>
       </c>
       <c r="AD24" s="0">
-        <v>1.1</v>
+        <v>4.36</v>
       </c>
       <c r="AE24" s="0">
-        <v>1.1</v>
+        <v>4.36</v>
       </c>
       <c r="AF24" s="0">
-        <v>-0.04</v>
+        <v>0.07</v>
       </c>
       <c r="AG24" s="0">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="AH24" s="0">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="AI24" s="0" t="s">
         <v>47</v>
@@ -3520,25 +3529,25 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="D25" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="E25" s="0">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="F25" s="2">
-        <v>45550</v>
+        <v>45427</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>41</v>
@@ -3550,76 +3559,76 @@
         <v>43</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="N25" s="0">
-        <v>108.056</v>
+        <v>827.225</v>
       </c>
       <c r="O25" s="0">
-        <v>97.28</v>
+        <v>97.08</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>0.34346</v>
+        <v>2.67305</v>
       </c>
       <c r="R25" s="0">
-        <v>0.33939</v>
+        <v>2.61862</v>
       </c>
       <c r="S25" s="0">
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>575</v>
+        <v>446</v>
       </c>
       <c r="U25" s="0">
-        <v>-22</v>
+        <v>6</v>
       </c>
       <c r="V25" s="0">
-        <v>640</v>
+        <v>493</v>
       </c>
       <c r="W25" s="0">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="X25" s="0">
-        <v>10.96</v>
+        <v>10.08</v>
       </c>
       <c r="Y25" s="0">
-        <v>11.64</v>
+        <v>10.89</v>
       </c>
       <c r="Z25" s="0">
-        <v>11.64</v>
+        <v>10.89</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.746</v>
+        <v>-0.247</v>
       </c>
       <c r="AB25" s="0">
-        <v>0.813</v>
+        <v>-0.215</v>
       </c>
       <c r="AC25" s="0">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="AD25" s="0">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="AE25" s="0">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="AF25" s="0">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="AG25" s="0">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AH25" s="0">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AI25" s="0" t="s">
         <v>47</v>
@@ -3627,25 +3636,25 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="E26" s="0">
+        <v>8.25</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45550</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="E26" s="0">
-        <v>7</v>
-      </c>
-      <c r="F26" s="2">
-        <v>46402</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>41</v>
@@ -3657,76 +3666,76 @@
         <v>43</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="N26" s="0">
-        <v>212.74</v>
+        <v>108.056</v>
       </c>
       <c r="O26" s="0">
-        <v>75.32</v>
+        <v>91.6</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.52356</v>
+        <v>0.32946</v>
       </c>
       <c r="R26" s="0">
-        <v>0.52286</v>
+        <v>0.33939</v>
       </c>
       <c r="S26" s="0">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T26" s="0">
-        <v>714</v>
+        <v>661</v>
       </c>
       <c r="U26" s="0">
-        <v>-1</v>
+        <v>64</v>
       </c>
       <c r="V26" s="0">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="W26" s="0">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X26" s="0">
-        <v>12.08</v>
+        <v>12.29</v>
       </c>
       <c r="Y26" s="0">
-        <v>16.32</v>
+        <v>14.7</v>
       </c>
       <c r="Z26" s="0">
-        <v>16.32</v>
+        <v>14.7</v>
       </c>
       <c r="AA26" s="0">
-        <v>-0.318</v>
+        <v>-3.001</v>
       </c>
       <c r="AB26" s="0">
-        <v>-0.12</v>
+        <v>-2.938</v>
       </c>
       <c r="AC26" s="0">
-        <v>1.66</v>
+        <v>0.81</v>
       </c>
       <c r="AD26" s="0">
-        <v>3.05</v>
+        <v>1.34</v>
       </c>
       <c r="AE26" s="0">
-        <v>3.05</v>
+        <v>1.34</v>
       </c>
       <c r="AF26" s="0">
-        <v>-0.22</v>
+        <v>-0.09</v>
       </c>
       <c r="AG26" s="0">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AH26" s="0">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AI26" s="0" t="s">
         <v>47</v>
@@ -3746,13 +3755,13 @@
         <v>144</v>
       </c>
       <c r="E27" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F27" s="2">
-        <v>109939</v>
+        <v>46402</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>41</v>
@@ -3764,76 +3773,76 @@
         <v>43</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="N27" s="0">
-        <v>767.684</v>
+        <v>212.74</v>
       </c>
       <c r="O27" s="0">
-        <v>83.56</v>
+        <v>72.68</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>2.09597</v>
+        <v>0.51466</v>
       </c>
       <c r="R27" s="0">
-        <v>2.09753</v>
+        <v>0.52286</v>
       </c>
       <c r="S27" s="0">
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>67</v>
+        <v>763</v>
       </c>
       <c r="U27" s="0">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="V27" s="0">
-        <v>65</v>
+        <v>643</v>
       </c>
       <c r="W27" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X27" s="0">
-        <v>5.56</v>
+        <v>12.58</v>
       </c>
       <c r="Y27" s="0">
-        <v>6.94</v>
+        <v>17.62</v>
       </c>
       <c r="Z27" s="0">
-        <v>6.94</v>
+        <v>17.62</v>
       </c>
       <c r="AA27" s="0">
-        <v>-0.524</v>
+        <v>-3.812</v>
       </c>
       <c r="AB27" s="0">
-        <v>-0.386</v>
+        <v>-3.616</v>
       </c>
       <c r="AC27" s="0">
-        <v>-0.74</v>
+        <v>1.43</v>
       </c>
       <c r="AD27" s="0">
-        <v>0.15</v>
+        <v>3</v>
       </c>
       <c r="AE27" s="0">
-        <v>0.15</v>
+        <v>3</v>
       </c>
       <c r="AF27" s="0">
-        <v>9.81</v>
+        <v>-0.26</v>
       </c>
       <c r="AG27" s="0">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AH27" s="0">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AI27" s="0" t="s">
         <v>47</v>
@@ -3841,16 +3850,16 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="D28" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
@@ -3877,64 +3886,64 @@
         <v>75</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N28" s="0">
-        <v>1381.834</v>
+        <v>767.684</v>
       </c>
       <c r="O28" s="0">
-        <v>82.58</v>
+        <v>83.52</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>3.72836</v>
+        <v>2.13416</v>
       </c>
       <c r="R28" s="0">
-        <v>3.72342</v>
+        <v>2.09753</v>
       </c>
       <c r="S28" s="0">
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="U28" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V28" s="0">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="W28" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="X28" s="0">
-        <v>5.59</v>
+        <v>5.68</v>
       </c>
       <c r="Y28" s="0">
-        <v>6.92</v>
+        <v>7.15</v>
       </c>
       <c r="Z28" s="0">
-        <v>6.92</v>
+        <v>7.15</v>
       </c>
       <c r="AA28" s="0">
-        <v>-0.318</v>
+        <v>-0.571</v>
       </c>
       <c r="AB28" s="0">
-        <v>-0.149</v>
+        <v>-0.744</v>
       </c>
       <c r="AC28" s="0">
-        <v>2.34</v>
+        <v>0.29</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AE28" s="0">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AF28" s="0">
-        <v>22.53</v>
+        <v>14.15</v>
       </c>
       <c r="AG28" s="0">
         <v>0</v>
@@ -3948,16 +3957,16 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
@@ -3984,64 +3993,64 @@
         <v>75</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N29" s="0">
-        <v>204.72</v>
+        <v>1381.834</v>
       </c>
       <c r="O29" s="0">
-        <v>84.4</v>
+        <v>83.56</v>
       </c>
       <c r="P29" s="0">
         <v>0</v>
       </c>
       <c r="Q29" s="0">
-        <v>0.56456</v>
+        <v>3.84333</v>
       </c>
       <c r="R29" s="0">
-        <v>0.56282</v>
+        <v>3.72342</v>
       </c>
       <c r="S29" s="0">
         <v>0</v>
       </c>
       <c r="T29" s="0">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="U29" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="V29" s="0">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="W29" s="0">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X29" s="0">
-        <v>5.45</v>
+        <v>5.59</v>
       </c>
       <c r="Y29" s="0">
-        <v>6.87</v>
+        <v>7.05</v>
       </c>
       <c r="Z29" s="0">
-        <v>6.87</v>
+        <v>7.05</v>
       </c>
       <c r="AA29" s="0">
-        <v>-0.142</v>
+        <v>0.869</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.027</v>
+        <v>0.581</v>
       </c>
       <c r="AC29" s="0">
-        <v>1.79</v>
+        <v>2.72</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AF29" s="0">
-        <v>19.18</v>
+        <v>23.54</v>
       </c>
       <c r="AG29" s="0">
         <v>0</v>
@@ -4055,22 +4064,22 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E30" s="0">
-        <v>6.375</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>45422</v>
+        <v>109939</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>74</v>
@@ -4091,70 +4100,70 @@
         <v>75</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N30" s="0">
-        <v>716.52</v>
+        <v>204.72</v>
       </c>
       <c r="O30" s="0">
-        <v>100.92</v>
+        <v>85.64</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
       </c>
       <c r="Q30" s="0">
-        <v>2.36271</v>
+        <v>0.58357</v>
       </c>
       <c r="R30" s="0">
-        <v>2.36047</v>
+        <v>0.56282</v>
       </c>
       <c r="S30" s="0">
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="U30" s="0">
-        <v>27</v>
+        <v>-9</v>
       </c>
       <c r="V30" s="0">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="W30" s="0">
-        <v>47</v>
+        <v>-7</v>
       </c>
       <c r="X30" s="0">
-        <v>5.77</v>
+        <v>5.38</v>
       </c>
       <c r="Y30" s="0">
-        <v>5.95</v>
+        <v>6.97</v>
       </c>
       <c r="Z30" s="0">
-        <v>5.95</v>
+        <v>6.97</v>
       </c>
       <c r="AA30" s="0">
-        <v>-0.355</v>
+        <v>1.325</v>
       </c>
       <c r="AB30" s="0">
-        <v>-0.302</v>
+        <v>1.074</v>
       </c>
       <c r="AC30" s="0">
-        <v>1.11</v>
+        <v>2.43</v>
       </c>
       <c r="AD30" s="0">
-        <v>1.11</v>
+        <v>0.13</v>
       </c>
       <c r="AE30" s="0">
-        <v>1.11</v>
+        <v>0.13</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.02</v>
+        <v>21.19</v>
       </c>
       <c r="AG30" s="0">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="0">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="0" t="s">
         <v>47</v>
@@ -4162,25 +4171,25 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E31" s="0">
-        <v>7.5</v>
+        <v>6.375</v>
       </c>
       <c r="F31" s="2">
-        <v>46657</v>
+        <v>45422</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>41</v>
@@ -4192,76 +4201,76 @@
         <v>43</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="N31" s="0">
-        <v>202.062</v>
+        <v>716.52</v>
       </c>
       <c r="O31" s="0">
-        <v>90.4</v>
+        <v>100.56</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>0.59684</v>
+        <v>2.39832</v>
       </c>
       <c r="R31" s="0">
-        <v>0.59836</v>
+        <v>2.36047</v>
       </c>
       <c r="S31" s="0">
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>447</v>
+        <v>111</v>
       </c>
       <c r="U31" s="0">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="V31" s="0">
-        <v>489</v>
+        <v>121</v>
       </c>
       <c r="W31" s="0">
-        <v>-2</v>
+        <v>100</v>
       </c>
       <c r="X31" s="0">
-        <v>9.32</v>
+        <v>6.3</v>
       </c>
       <c r="Y31" s="0">
-        <v>10.69</v>
+        <v>6.4</v>
       </c>
       <c r="Z31" s="0">
-        <v>10.69</v>
+        <v>6.4</v>
       </c>
       <c r="AA31" s="0">
-        <v>-0.703</v>
+        <v>-0.711</v>
       </c>
       <c r="AB31" s="0">
-        <v>-0.387</v>
+        <v>-0.681</v>
       </c>
       <c r="AC31" s="0">
-        <v>2.81</v>
+        <v>1.09</v>
       </c>
       <c r="AD31" s="0">
-        <v>3.61</v>
+        <v>1.09</v>
       </c>
       <c r="AE31" s="0">
-        <v>3.61</v>
+        <v>1.09</v>
       </c>
       <c r="AF31" s="0">
-        <v>-0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AH31" s="0">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AI31" s="0" t="s">
         <v>47</v>
@@ -4281,13 +4290,13 @@
         <v>159</v>
       </c>
       <c r="E32" s="0">
-        <v>6.125</v>
+        <v>7.5</v>
       </c>
       <c r="F32" s="2">
-        <v>46371</v>
+        <v>46657</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>41</v>
@@ -4299,76 +4308,76 @@
         <v>43</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="N32" s="0">
-        <v>517.016</v>
+        <v>202.062</v>
       </c>
       <c r="O32" s="0">
-        <v>100.68</v>
+        <v>76.48</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>1.70079</v>
+        <v>0.51438</v>
       </c>
       <c r="R32" s="0">
-        <v>1.68843</v>
+        <v>0.59836</v>
       </c>
       <c r="S32" s="0">
-        <v>-0</v>
+        <v>1.88</v>
       </c>
       <c r="T32" s="0">
-        <v>130</v>
+        <v>648</v>
       </c>
       <c r="U32" s="0">
-        <v>-18</v>
+        <v>201</v>
       </c>
       <c r="V32" s="0">
-        <v>197</v>
+        <v>575</v>
       </c>
       <c r="W32" s="0">
-        <v>-17</v>
+        <v>84</v>
       </c>
       <c r="X32" s="0">
-        <v>6.3</v>
+        <v>11.9</v>
       </c>
       <c r="Y32" s="0">
-        <v>5.9</v>
+        <v>14.82</v>
       </c>
       <c r="Z32" s="0">
-        <v>5.9</v>
+        <v>14.82</v>
       </c>
       <c r="AA32" s="0">
-        <v>0.279</v>
+        <v>-13.933</v>
       </c>
       <c r="AB32" s="0">
-        <v>0.611</v>
+        <v>-13.778</v>
       </c>
       <c r="AC32" s="0">
-        <v>3.29</v>
+        <v>2.09</v>
       </c>
       <c r="AD32" s="0">
-        <v>3.32</v>
+        <v>3.53</v>
       </c>
       <c r="AE32" s="0">
-        <v>3.32</v>
+        <v>3.53</v>
       </c>
       <c r="AF32" s="0">
-        <v>0.13</v>
+        <v>-0.2</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="AI32" s="0" t="s">
         <v>47</v>
@@ -4382,16 +4391,16 @@
         <v>161</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E33" s="0">
-        <v>6.2</v>
+        <v>6.125</v>
       </c>
       <c r="F33" s="2">
-        <v>46736</v>
+        <v>46371</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>74</v>
@@ -4415,37 +4424,37 @@
         <v>96</v>
       </c>
       <c r="N33" s="0">
-        <v>620.419</v>
+        <v>517.016</v>
       </c>
       <c r="O33" s="0">
-        <v>98.96</v>
+        <v>99</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>2.00608</v>
+        <v>1.7037</v>
       </c>
       <c r="R33" s="0">
-        <v>2.00594</v>
+        <v>1.68843</v>
       </c>
       <c r="S33" s="0">
         <v>0</v>
       </c>
       <c r="T33" s="0">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U33" s="0">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="V33" s="0">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="W33" s="0">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="X33" s="0">
-        <v>6.27</v>
+        <v>7.04</v>
       </c>
       <c r="Y33" s="0">
         <v>6.45</v>
@@ -4454,28 +4463,28 @@
         <v>6.45</v>
       </c>
       <c r="AA33" s="0">
-        <v>-0.443</v>
+        <v>-1.394</v>
       </c>
       <c r="AB33" s="0">
-        <v>-0.192</v>
+        <v>-1.238</v>
       </c>
       <c r="AC33" s="0">
-        <v>3.92</v>
+        <v>3.23</v>
       </c>
       <c r="AD33" s="0">
-        <v>4.05</v>
+        <v>3.28</v>
       </c>
       <c r="AE33" s="0">
-        <v>4.05</v>
+        <v>3.28</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="AG33" s="0">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="AI33" s="0" t="s">
         <v>47</v>
@@ -4483,22 +4492,22 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="D34" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>165</v>
-      </c>
       <c r="E34" s="0">
-        <v>5.875</v>
+        <v>6.2</v>
       </c>
       <c r="F34" s="2">
-        <v>46461</v>
+        <v>46736</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>74</v>
@@ -4516,99 +4525,99 @@
         <v>53</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="N34" s="0">
-        <v>155.105</v>
+        <v>620.419</v>
       </c>
       <c r="O34" s="0">
-        <v>82.08</v>
+        <v>96.96</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.41597</v>
+        <v>2.00231</v>
       </c>
       <c r="R34" s="0">
-        <v>0.41854</v>
+        <v>2.00594</v>
       </c>
       <c r="S34" s="0">
         <v>0</v>
       </c>
       <c r="T34" s="0">
-        <v>445</v>
+        <v>225</v>
       </c>
       <c r="U34" s="0">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="V34" s="0">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="W34" s="0">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="X34" s="0">
-        <v>8.8</v>
+        <v>6.64</v>
       </c>
       <c r="Y34" s="0">
-        <v>11.58</v>
+        <v>6.99</v>
       </c>
       <c r="Z34" s="0">
-        <v>11.58</v>
+        <v>6.99</v>
       </c>
       <c r="AA34" s="0">
-        <v>-1.061</v>
+        <v>-2.455</v>
       </c>
       <c r="AB34" s="0">
-        <v>-0.754</v>
+        <v>-2.357</v>
       </c>
       <c r="AC34" s="0">
-        <v>2.41</v>
+        <v>3.77</v>
       </c>
       <c r="AD34" s="0">
-        <v>3.38</v>
+        <v>4.01</v>
       </c>
       <c r="AE34" s="0">
-        <v>3.38</v>
+        <v>4.01</v>
       </c>
       <c r="AF34" s="0">
-        <v>-0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AH34" s="0">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AI34" s="0" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>170</v>
-      </c>
       <c r="E35" s="0">
-        <v>8.25</v>
+        <v>5.875</v>
       </c>
       <c r="F35" s="2">
-        <v>46661</v>
+        <v>46461</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>41</v>
@@ -4623,99 +4632,99 @@
         <v>53</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="N35" s="0">
-        <v>147.349</v>
+        <v>155.105</v>
       </c>
       <c r="O35" s="0">
-        <v>108.6</v>
+        <v>79.92</v>
       </c>
       <c r="P35" s="0">
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>0.52285</v>
+        <v>0.41261</v>
       </c>
       <c r="R35" s="0">
-        <v>0.5205</v>
+        <v>0.41854</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>198</v>
+        <v>481</v>
       </c>
       <c r="U35" s="0">
-        <v>-10</v>
+        <v>47</v>
       </c>
       <c r="V35" s="0">
-        <v>288</v>
+        <v>435</v>
       </c>
       <c r="W35" s="0">
-        <v>-6</v>
+        <v>24</v>
       </c>
       <c r="X35" s="0">
-        <v>6.26</v>
+        <v>9.1</v>
       </c>
       <c r="Y35" s="0">
-        <v>6.47</v>
+        <v>12.45</v>
       </c>
       <c r="Z35" s="0">
-        <v>6.47</v>
+        <v>12.45</v>
       </c>
       <c r="AA35" s="0">
-        <v>0</v>
+        <v>-3.664</v>
       </c>
       <c r="AB35" s="0">
-        <v>0.355</v>
+        <v>-3.457</v>
       </c>
       <c r="AC35" s="0">
-        <v>3.68</v>
+        <v>2.2</v>
       </c>
       <c r="AD35" s="0">
-        <v>3.72</v>
+        <v>3.34</v>
       </c>
       <c r="AE35" s="0">
-        <v>3.72</v>
+        <v>3.34</v>
       </c>
       <c r="AF35" s="0">
-        <v>0.17</v>
+        <v>-0.14</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="AI35" s="0" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="E36" s="0">
+        <v>8.25</v>
+      </c>
+      <c r="F36" s="2">
+        <v>46661</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="E36" s="0">
-        <v>4</v>
-      </c>
-      <c r="F36" s="2">
-        <v>109939</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>99</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>41</v>
@@ -4730,73 +4739,73 @@
         <v>53</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="N36" s="0">
-        <v>620.419</v>
+        <v>147.349</v>
       </c>
       <c r="O36" s="0">
-        <v>94.56</v>
+        <v>105.08</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>1.91689</v>
+        <v>0.51537</v>
       </c>
       <c r="R36" s="0">
-        <v>1.91311</v>
+        <v>0.5205</v>
       </c>
       <c r="S36" s="0">
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>43</v>
+        <v>289</v>
       </c>
       <c r="U36" s="0">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="V36" s="0">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="W36" s="0">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="X36" s="0">
-        <v>5.57</v>
+        <v>7.18</v>
       </c>
       <c r="Y36" s="0">
-        <v>6.38</v>
+        <v>7.41</v>
       </c>
       <c r="Z36" s="0">
-        <v>6.38</v>
+        <v>7.41</v>
       </c>
       <c r="AA36" s="0">
-        <v>-0.253</v>
+        <v>-3.241</v>
       </c>
       <c r="AB36" s="0">
-        <v>-0.08</v>
+        <v>-3.117</v>
       </c>
       <c r="AC36" s="0">
-        <v>0.44</v>
+        <v>3.59</v>
       </c>
       <c r="AD36" s="0">
-        <v>0.03</v>
+        <v>3.67</v>
       </c>
       <c r="AE36" s="0">
-        <v>0.03</v>
+        <v>3.67</v>
       </c>
       <c r="AF36" s="0">
-        <v>7.79</v>
+        <v>0.15</v>
       </c>
       <c r="AG36" s="0">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AI36" s="0" t="s">
         <v>47</v>
@@ -4816,13 +4825,13 @@
         <v>179</v>
       </c>
       <c r="E37" s="0">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="F37" s="2">
-        <v>45747</v>
+        <v>109939</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>41</v>
@@ -4834,76 +4843,76 @@
         <v>43</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N37" s="0">
-        <v>284.359</v>
+        <v>620.419</v>
       </c>
       <c r="O37" s="0">
-        <v>78.76</v>
+        <v>94.32</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
       </c>
       <c r="Q37" s="0">
-        <v>0.73177</v>
+        <v>1.94779</v>
       </c>
       <c r="R37" s="0">
-        <v>0.73884</v>
+        <v>1.91311</v>
       </c>
       <c r="S37" s="0">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T37" s="0">
-        <v>648</v>
+        <v>25</v>
       </c>
       <c r="U37" s="0">
-        <v>14</v>
+        <v>-15</v>
       </c>
       <c r="V37" s="0">
-        <v>580</v>
+        <v>57</v>
       </c>
       <c r="W37" s="0">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="X37" s="0">
-        <v>11.91</v>
+        <v>5.33</v>
       </c>
       <c r="Y37" s="0">
-        <v>20.39</v>
+        <v>6.3</v>
       </c>
       <c r="Z37" s="0">
-        <v>20.39</v>
+        <v>6.3</v>
       </c>
       <c r="AA37" s="0">
-        <v>-1.402</v>
+        <v>1.015</v>
       </c>
       <c r="AB37" s="0">
-        <v>-1.369</v>
+        <v>0.816</v>
       </c>
       <c r="AC37" s="0">
-        <v>0.07</v>
+        <v>0.99</v>
       </c>
       <c r="AD37" s="0">
-        <v>1.74</v>
+        <v>0.02</v>
       </c>
       <c r="AE37" s="0">
-        <v>1.74</v>
+        <v>0.02</v>
       </c>
       <c r="AF37" s="0">
-        <v>-0.32</v>
+        <v>8.98</v>
       </c>
       <c r="AG37" s="0">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="0">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="0" t="s">
         <v>47</v>
@@ -4923,13 +4932,13 @@
         <v>183</v>
       </c>
       <c r="E38" s="0">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F38" s="2">
-        <v>109939</v>
+        <v>45747</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>41</v>
@@ -4941,76 +4950,76 @@
         <v>43</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="N38" s="0">
-        <v>910.974</v>
+        <v>284.359</v>
       </c>
       <c r="O38" s="0">
-        <v>85.04</v>
+        <v>76.6</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>2.53124</v>
+        <v>0.72502</v>
       </c>
       <c r="R38" s="0">
-        <v>2.49378</v>
+        <v>0.73884</v>
       </c>
       <c r="S38" s="0">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T38" s="0">
-        <v>94</v>
+        <v>659</v>
       </c>
       <c r="U38" s="0">
-        <v>-11</v>
+        <v>25</v>
       </c>
       <c r="V38" s="0">
-        <v>120</v>
+        <v>583</v>
       </c>
       <c r="W38" s="0">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="X38" s="0">
-        <v>6.26</v>
+        <v>12.42</v>
       </c>
       <c r="Y38" s="0">
-        <v>6.76</v>
+        <v>21.05</v>
       </c>
       <c r="Z38" s="0">
-        <v>6.76</v>
+        <v>21.05</v>
       </c>
       <c r="AA38" s="0">
-        <v>1.046</v>
+        <v>-2.072</v>
       </c>
       <c r="AB38" s="0">
-        <v>1.289</v>
+        <v>-1.918</v>
       </c>
       <c r="AC38" s="0">
-        <v>3.34</v>
+        <v>-0.04</v>
       </c>
       <c r="AD38" s="0">
-        <v>0.09</v>
+        <v>1.75</v>
       </c>
       <c r="AE38" s="0">
-        <v>0.09</v>
+        <v>1.75</v>
       </c>
       <c r="AF38" s="0">
-        <v>24.57</v>
+        <v>-0.35</v>
       </c>
       <c r="AG38" s="0">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AH38" s="0">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AI38" s="0" t="s">
         <v>47</v>
@@ -5024,16 +5033,16 @@
         <v>185</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E39" s="0">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>46492</v>
+        <v>109939</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>99</v>
@@ -5054,70 +5063,70 @@
         <v>75</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N39" s="0">
-        <v>828.158</v>
+        <v>910.974</v>
       </c>
       <c r="O39" s="0">
-        <v>99.8</v>
+        <v>84.4</v>
       </c>
       <c r="P39" s="0">
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>2.70052</v>
+        <v>2.55919</v>
       </c>
       <c r="R39" s="0">
-        <v>2.69915</v>
+        <v>2.49378</v>
       </c>
       <c r="S39" s="0">
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="U39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="W39" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X39" s="0">
-        <v>6.76</v>
+        <v>6.5</v>
       </c>
       <c r="Y39" s="0">
-        <v>6.16</v>
+        <v>7.01</v>
       </c>
       <c r="Z39" s="0">
-        <v>6.16</v>
+        <v>7.01</v>
       </c>
       <c r="AA39" s="0">
-        <v>-0.399</v>
+        <v>0.285</v>
       </c>
       <c r="AB39" s="0">
-        <v>-0.04</v>
+        <v>-0.065</v>
       </c>
       <c r="AC39" s="0">
-        <v>3.53</v>
+        <v>3.9</v>
       </c>
       <c r="AD39" s="0">
-        <v>3.55</v>
+        <v>0.07</v>
       </c>
       <c r="AE39" s="0">
-        <v>3.55</v>
+        <v>0.07</v>
       </c>
       <c r="AF39" s="0">
-        <v>0.15</v>
+        <v>27.39</v>
       </c>
       <c r="AG39" s="0">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="0">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="0" t="s">
         <v>47</v>
@@ -5125,22 +5134,22 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>183</v>
-      </c>
       <c r="E40" s="0">
-        <v>6.375</v>
+        <v>5.85</v>
       </c>
       <c r="F40" s="2">
-        <v>45580</v>
+        <v>46492</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>99</v>
@@ -5161,70 +5170,70 @@
         <v>75</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N40" s="0">
         <v>828.158</v>
       </c>
       <c r="O40" s="0">
-        <v>101.36</v>
+        <v>97.32</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>2.74274</v>
+        <v>2.68268</v>
       </c>
       <c r="R40" s="0">
-        <v>2.73363</v>
+        <v>2.69915</v>
       </c>
       <c r="S40" s="0">
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="U40" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="V40" s="0">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="W40" s="0">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="X40" s="0">
-        <v>6.12</v>
+        <v>7.65</v>
       </c>
       <c r="Y40" s="0">
-        <v>6.07</v>
+        <v>6.92</v>
       </c>
       <c r="Z40" s="0">
-        <v>6.07</v>
+        <v>6.92</v>
       </c>
       <c r="AA40" s="0">
-        <v>-0.118</v>
+        <v>-2.874</v>
       </c>
       <c r="AB40" s="0">
-        <v>-0.008</v>
+        <v>-2.726</v>
       </c>
       <c r="AC40" s="0">
-        <v>1.49</v>
+        <v>3.42</v>
       </c>
       <c r="AD40" s="0">
-        <v>1.5</v>
+        <v>3.51</v>
       </c>
       <c r="AE40" s="0">
-        <v>1.5</v>
+        <v>3.51</v>
       </c>
       <c r="AF40" s="0">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="AG40" s="0">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="AH40" s="0">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="AI40" s="0" t="s">
         <v>47</v>
@@ -5232,25 +5241,25 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E41" s="0">
-        <v>5.625</v>
+        <v>6.375</v>
       </c>
       <c r="F41" s="2">
-        <v>46371</v>
+        <v>45580</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>41</v>
@@ -5265,73 +5274,73 @@
         <v>53</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="N41" s="0">
-        <v>258.508</v>
+        <v>828.158</v>
       </c>
       <c r="O41" s="0">
-        <v>99.48</v>
+        <v>101.2</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.84026</v>
+        <v>2.78964</v>
       </c>
       <c r="R41" s="0">
-        <v>0.85094</v>
+        <v>2.73363</v>
       </c>
       <c r="S41" s="0">
         <v>0</v>
       </c>
       <c r="T41" s="0">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="U41" s="0">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="V41" s="0">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="W41" s="0">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="X41" s="0">
-        <v>6.17</v>
+        <v>6.38</v>
       </c>
       <c r="Y41" s="0">
-        <v>5.76</v>
+        <v>6.27</v>
       </c>
       <c r="Z41" s="0">
-        <v>5.76</v>
+        <v>6.27</v>
       </c>
       <c r="AA41" s="0">
-        <v>-1.7</v>
+        <v>-0.276</v>
       </c>
       <c r="AB41" s="0">
-        <v>-1.364</v>
+        <v>-0.202</v>
       </c>
       <c r="AC41" s="0">
-        <v>3.31</v>
+        <v>1.47</v>
       </c>
       <c r="AD41" s="0">
-        <v>3.35</v>
+        <v>1.48</v>
       </c>
       <c r="AE41" s="0">
-        <v>3.35</v>
+        <v>1.48</v>
       </c>
       <c r="AF41" s="0">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="AG41" s="0">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="AH41" s="0">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="AI41" s="0" t="s">
         <v>47</v>
@@ -5351,10 +5360,10 @@
         <v>195</v>
       </c>
       <c r="E42" s="0">
-        <v>6.5</v>
+        <v>5.625</v>
       </c>
       <c r="F42" s="2">
-        <v>45366</v>
+        <v>46371</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>74</v>
@@ -5369,76 +5378,76 @@
         <v>43</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="N42" s="0">
-        <v>517.016</v>
+        <v>258.508</v>
       </c>
       <c r="O42" s="0">
-        <v>100.16</v>
+        <v>97.75</v>
       </c>
       <c r="P42" s="0">
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>1.69201</v>
+        <v>0.84106</v>
       </c>
       <c r="R42" s="0">
-        <v>1.68911</v>
+        <v>0.85094</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="U42" s="0">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="V42" s="0">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="W42" s="0">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="X42" s="0">
-        <v>5.01</v>
+        <v>6.94</v>
       </c>
       <c r="Y42" s="0">
-        <v>6.15</v>
+        <v>6.33</v>
       </c>
       <c r="Z42" s="0">
-        <v>6.15</v>
+        <v>6.33</v>
       </c>
       <c r="AA42" s="0">
-        <v>-0.279</v>
+        <v>-3.413</v>
       </c>
       <c r="AB42" s="0">
-        <v>-0.243</v>
+        <v>-3.255</v>
       </c>
       <c r="AC42" s="0">
-        <v>0.98</v>
+        <v>3.26</v>
       </c>
       <c r="AD42" s="0">
-        <v>0.98</v>
+        <v>3.31</v>
       </c>
       <c r="AE42" s="0">
-        <v>0.98</v>
+        <v>3.31</v>
       </c>
       <c r="AF42" s="0">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AG42" s="0">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="AH42" s="0">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="AI42" s="0" t="s">
         <v>47</v>
@@ -5446,25 +5455,25 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="C43" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="D43" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>200</v>
-      </c>
       <c r="E43" s="0">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="F43" s="2">
-        <v>45473</v>
+        <v>45366</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>41</v>
@@ -5476,70 +5485,70 @@
         <v>43</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="N43" s="0">
-        <v>457.559</v>
+        <v>517.016</v>
       </c>
       <c r="O43" s="0">
-        <v>96.16</v>
+        <v>95.88</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>1.43763</v>
+        <v>1.65001</v>
       </c>
       <c r="R43" s="0">
-        <v>1.45259</v>
+        <v>1.68911</v>
       </c>
       <c r="S43" s="0">
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="U43" s="0">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="V43" s="0">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="W43" s="0">
-        <v>58</v>
+        <v>279</v>
       </c>
       <c r="X43" s="0">
-        <v>7.84</v>
+        <v>7.56</v>
       </c>
       <c r="Y43" s="0">
-        <v>9.55</v>
+        <v>10.89</v>
       </c>
       <c r="Z43" s="0">
-        <v>9.55</v>
+        <v>10.89</v>
       </c>
       <c r="AA43" s="0">
-        <v>-1.475</v>
+        <v>-4.54</v>
       </c>
       <c r="AB43" s="0">
-        <v>-1.42</v>
+        <v>-4.526</v>
       </c>
       <c r="AC43" s="0">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="AD43" s="0">
-        <v>1.23</v>
+        <v>0.94</v>
       </c>
       <c r="AE43" s="0">
-        <v>1.23</v>
+        <v>0.94</v>
       </c>
       <c r="AF43" s="0">
-        <v>-0.07</v>
+        <v>-0.08</v>
       </c>
       <c r="AG43" s="0">
         <v>0.02</v>
@@ -5559,16 +5568,16 @@
         <v>202</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E44" s="0">
-        <v>6.95</v>
+        <v>6.75</v>
       </c>
       <c r="F44" s="2">
-        <v>109939</v>
+        <v>45473</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>40</v>
@@ -5592,67 +5601,67 @@
         <v>46</v>
       </c>
       <c r="N44" s="0">
-        <v>744.503</v>
+        <v>457.559</v>
       </c>
       <c r="O44" s="0">
-        <v>100.16</v>
+        <v>94.04</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>2.43649</v>
+        <v>1.43223</v>
       </c>
       <c r="R44" s="0">
-        <v>2.42553</v>
+        <v>1.45259</v>
       </c>
       <c r="S44" s="0">
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="U44" s="0">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="V44" s="0">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="W44" s="0">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="X44" s="0">
-        <v>6.9</v>
+        <v>8.72</v>
       </c>
       <c r="Y44" s="0">
-        <v>41.35</v>
+        <v>11.58</v>
       </c>
       <c r="Z44" s="0">
-        <v>41.35</v>
+        <v>11.58</v>
       </c>
       <c r="AA44" s="0">
-        <v>0</v>
+        <v>-3.648</v>
       </c>
       <c r="AB44" s="0">
-        <v>-0.074</v>
+        <v>-3.596</v>
       </c>
       <c r="AC44" s="0">
-        <v>-0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AD44" s="0">
-        <v>0.07</v>
+        <v>1.2</v>
       </c>
       <c r="AE44" s="0">
-        <v>0.07</v>
+        <v>1.2</v>
       </c>
       <c r="AF44" s="0">
-        <v>-0.2</v>
+        <v>-0.17</v>
       </c>
       <c r="AG44" s="0">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AH44" s="0">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AI44" s="0" t="s">
         <v>47</v>
@@ -5660,25 +5669,25 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="D45" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>206</v>
-      </c>
       <c r="E45" s="0">
-        <v>7.625</v>
+        <v>6.95</v>
       </c>
       <c r="F45" s="2">
-        <v>52246</v>
+        <v>109939</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>41</v>
@@ -5693,67 +5702,67 @@
         <v>44</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="N45" s="0">
-        <v>416.198</v>
+        <v>744.503</v>
       </c>
       <c r="O45" s="0">
-        <v>103.2</v>
+        <v>97.84</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>1.40341</v>
+        <v>2.42458</v>
       </c>
       <c r="R45" s="0">
-        <v>1.40251</v>
+        <v>2.42553</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
       </c>
       <c r="T45" s="0">
-        <v>-346</v>
+        <v>384</v>
       </c>
       <c r="U45" s="0">
         <v>0</v>
       </c>
       <c r="V45" s="0">
-        <v>-501</v>
+        <v>432</v>
       </c>
       <c r="W45" s="0">
         <v>0</v>
       </c>
       <c r="X45" s="0">
-        <v>1.66</v>
+        <v>6.9</v>
       </c>
       <c r="Y45" s="0">
-        <v>-0.6</v>
+        <v>41.35</v>
       </c>
       <c r="Z45" s="0">
-        <v>0.02</v>
+        <v>41.35</v>
       </c>
       <c r="AA45" s="0">
-        <v>-0.386</v>
+        <v>-2.316</v>
       </c>
       <c r="AB45" s="0">
-        <v>-0.393</v>
+        <v>-2.415</v>
       </c>
       <c r="AC45" s="0">
-        <v>0.35</v>
+        <v>-0.7</v>
       </c>
       <c r="AD45" s="0">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="AE45" s="0">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="AF45" s="0">
-        <v>-0.22</v>
+        <v>-0.2</v>
       </c>
       <c r="AG45" s="0">
         <v>0</v>
@@ -5762,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="AI45" s="0" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
@@ -5776,16 +5785,16 @@
         <v>209</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E46" s="0">
         <v>7.625</v>
       </c>
       <c r="F46" s="2">
-        <v>109939</v>
+        <v>52246</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>41</v>
@@ -5800,67 +5809,67 @@
         <v>44</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="N46" s="0">
-        <v>398.102</v>
+        <v>416.198</v>
       </c>
       <c r="O46" s="0">
-        <v>95.04</v>
+        <v>103.44</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>1.23625</v>
+        <v>1.43299</v>
       </c>
       <c r="R46" s="0">
-        <v>1.25917</v>
+        <v>1.40251</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>526</v>
+        <v>-346</v>
       </c>
       <c r="U46" s="0">
         <v>0</v>
       </c>
       <c r="V46" s="0">
-        <v>551</v>
+        <v>-501</v>
       </c>
       <c r="W46" s="0">
         <v>0</v>
       </c>
       <c r="X46" s="0">
-        <v>10.47</v>
+        <v>1.66</v>
       </c>
       <c r="Y46" s="0">
-        <v>10.93</v>
+        <v>-0.6</v>
       </c>
       <c r="Z46" s="0">
-        <v>10.93</v>
+        <v>0.02</v>
       </c>
       <c r="AA46" s="0">
-        <v>-2.262</v>
+        <v>-0.154</v>
       </c>
       <c r="AB46" s="0">
-        <v>-2.337</v>
+        <v>-0.226</v>
       </c>
       <c r="AC46" s="0">
-        <v>-0.69</v>
+        <v>0.35</v>
       </c>
       <c r="AD46" s="0">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="AE46" s="0">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="AF46" s="0">
-        <v>-0.17</v>
+        <v>-0.22</v>
       </c>
       <c r="AG46" s="0">
         <v>0</v>
@@ -5869,30 +5878,30 @@
         <v>0</v>
       </c>
       <c r="AI46" s="0" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>206</v>
-      </c>
       <c r="E47" s="0">
-        <v>8.5</v>
+        <v>7.625</v>
       </c>
       <c r="F47" s="2">
         <v>109939</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>41</v>
@@ -5907,67 +5916,67 @@
         <v>44</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="N47" s="0">
-        <v>234.208</v>
+        <v>398.102</v>
       </c>
       <c r="O47" s="0">
-        <v>100.82</v>
+        <v>94.36</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0.77153</v>
+        <v>1.25036</v>
       </c>
       <c r="R47" s="0">
-        <v>0.77126</v>
+        <v>1.25917</v>
       </c>
       <c r="S47" s="0">
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>4</v>
+        <v>526</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
       </c>
       <c r="V47" s="0">
-        <v>-49</v>
+        <v>551</v>
       </c>
       <c r="W47" s="0">
         <v>0</v>
       </c>
       <c r="X47" s="0">
-        <v>4.39</v>
+        <v>10.47</v>
       </c>
       <c r="Y47" s="0">
-        <v>-5.07</v>
+        <v>10.93</v>
       </c>
       <c r="Z47" s="0">
-        <v>11.57</v>
+        <v>10.93</v>
       </c>
       <c r="AA47" s="0">
-        <v>-0.415</v>
+        <v>-2.962</v>
       </c>
       <c r="AB47" s="0">
-        <v>-0.428</v>
+        <v>-3.075</v>
       </c>
       <c r="AC47" s="0">
+        <v>-0.69</v>
+      </c>
+      <c r="AD47" s="0">
         <v>0.04</v>
       </c>
-      <c r="AD47" s="0">
-        <v>0.05</v>
-      </c>
       <c r="AE47" s="0">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AF47" s="0">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
       <c r="AG47" s="0">
         <v>0</v>
@@ -5981,25 +5990,25 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>214</v>
-      </c>
       <c r="D48" s="0" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E48" s="0">
-        <v>6.375</v>
+        <v>8.5</v>
       </c>
       <c r="F48" s="2">
-        <v>46463</v>
+        <v>109939</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>41</v>
@@ -6011,76 +6020,76 @@
         <v>43</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="N48" s="0">
-        <v>532.526</v>
+        <v>234.208</v>
       </c>
       <c r="O48" s="0">
-        <v>99</v>
+        <v>99.64</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>1.72258</v>
+        <v>0.77676</v>
       </c>
       <c r="R48" s="0">
-        <v>1.71414</v>
+        <v>0.77126</v>
       </c>
       <c r="S48" s="0">
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>241</v>
+        <v>569</v>
       </c>
       <c r="U48" s="0">
-        <v>-6</v>
+        <v>565</v>
       </c>
       <c r="V48" s="0">
-        <v>304</v>
+        <v>631</v>
       </c>
       <c r="W48" s="0">
-        <v>-5</v>
+        <v>680</v>
       </c>
       <c r="X48" s="0">
-        <v>7.49</v>
+        <v>11.24</v>
       </c>
       <c r="Y48" s="0">
-        <v>7.1</v>
+        <v>12.14</v>
       </c>
       <c r="Z48" s="0">
-        <v>7.1</v>
+        <v>12.14</v>
       </c>
       <c r="AA48" s="0">
-        <v>0.04</v>
+        <v>-1.58</v>
       </c>
       <c r="AB48" s="0">
-        <v>0.374</v>
+        <v>-1.7</v>
       </c>
       <c r="AC48" s="0">
-        <v>3.28</v>
+        <v>-0.16</v>
       </c>
       <c r="AD48" s="0">
-        <v>3.42</v>
+        <v>8.13</v>
       </c>
       <c r="AE48" s="0">
-        <v>3.42</v>
+        <v>8.13</v>
       </c>
       <c r="AF48" s="0">
-        <v>0.1</v>
+        <v>-0.07</v>
       </c>
       <c r="AG48" s="0">
-        <v>0.15</v>
+        <v>1.39</v>
       </c>
       <c r="AH48" s="0">
-        <v>0.15</v>
+        <v>1.39</v>
       </c>
       <c r="AI48" s="0" t="s">
         <v>47</v>
@@ -6100,13 +6109,13 @@
         <v>219</v>
       </c>
       <c r="E49" s="0">
-        <v>8</v>
+        <v>6.375</v>
       </c>
       <c r="F49" s="2">
-        <v>46675</v>
+        <v>46463</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>41</v>
@@ -6118,76 +6127,76 @@
         <v>43</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N49" s="0">
-        <v>158.297</v>
+        <v>532.526</v>
       </c>
       <c r="O49" s="0">
-        <v>81.8</v>
+        <v>89.72</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>0.42309</v>
+        <v>1.59032</v>
       </c>
       <c r="R49" s="0">
-        <v>0.41871</v>
+        <v>1.71414</v>
       </c>
       <c r="S49" s="0">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T49" s="0">
-        <v>640</v>
+        <v>356</v>
       </c>
       <c r="U49" s="0">
-        <v>-16</v>
+        <v>109</v>
       </c>
       <c r="V49" s="0">
-        <v>599</v>
+        <v>386</v>
       </c>
       <c r="W49" s="0">
-        <v>-5</v>
+        <v>77</v>
       </c>
       <c r="X49" s="0">
-        <v>11.47</v>
+        <v>9.04</v>
       </c>
       <c r="Y49" s="0">
-        <v>13.92</v>
+        <v>9.55</v>
       </c>
       <c r="Z49" s="0">
-        <v>13.92</v>
+        <v>9.55</v>
       </c>
       <c r="AA49" s="0">
-        <v>0.59</v>
+        <v>-7.727</v>
       </c>
       <c r="AB49" s="0">
-        <v>0.862</v>
+        <v>-7.577</v>
       </c>
       <c r="AC49" s="0">
-        <v>2.39</v>
+        <v>2.67</v>
       </c>
       <c r="AD49" s="0">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="AE49" s="0">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="AF49" s="0">
-        <v>-0.13</v>
+        <v>-0.08</v>
       </c>
       <c r="AG49" s="0">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AH49" s="0">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AI49" s="0" t="s">
         <v>47</v>
@@ -6207,13 +6216,13 @@
         <v>223</v>
       </c>
       <c r="E50" s="0">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="F50" s="2">
-        <v>46631</v>
+        <v>46675</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>41</v>
@@ -6225,76 +6234,76 @@
         <v>43</v>
       </c>
       <c r="K50" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N50" s="0">
+        <v>158.297</v>
+      </c>
+      <c r="O50" s="0">
+        <v>77.96</v>
+      </c>
+      <c r="P50" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="0">
+        <v>0.41077</v>
+      </c>
+      <c r="R50" s="0">
+        <v>0.41871</v>
+      </c>
+      <c r="S50" s="0">
+        <v>0</v>
+      </c>
+      <c r="T50" s="0">
+        <v>709</v>
+      </c>
+      <c r="U50" s="0">
         <v>53</v>
       </c>
-      <c r="L50" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="N50" s="0">
-        <v>530.717</v>
-      </c>
-      <c r="O50" s="0">
-        <v>101.8</v>
-      </c>
-      <c r="P50" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="0">
-        <v>1.76529</v>
-      </c>
-      <c r="R50" s="0">
-        <v>1.75527</v>
-      </c>
-      <c r="S50" s="0">
-        <v>0</v>
-      </c>
-      <c r="T50" s="0">
-        <v>262</v>
-      </c>
-      <c r="U50" s="0">
-        <v>-10</v>
-      </c>
       <c r="V50" s="0">
-        <v>353</v>
+        <v>620</v>
       </c>
       <c r="W50" s="0">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="X50" s="0">
-        <v>6.9</v>
+        <v>12.3</v>
       </c>
       <c r="Y50" s="0">
-        <v>7.35</v>
+        <v>15.39</v>
       </c>
       <c r="Z50" s="0">
-        <v>7.35</v>
+        <v>15.39</v>
       </c>
       <c r="AA50" s="0">
-        <v>0.118</v>
+        <v>-4.132</v>
       </c>
       <c r="AB50" s="0">
-        <v>0.436</v>
+        <v>-3.966</v>
       </c>
       <c r="AC50" s="0">
-        <v>3.57</v>
+        <v>2.11</v>
       </c>
       <c r="AD50" s="0">
-        <v>3.71</v>
+        <v>3.45</v>
       </c>
       <c r="AE50" s="0">
-        <v>3.71</v>
+        <v>3.45</v>
       </c>
       <c r="AF50" s="0">
-        <v>0.14</v>
+        <v>-0.17</v>
       </c>
       <c r="AG50" s="0">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="AH50" s="0">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="AI50" s="0" t="s">
         <v>47</v>
@@ -6302,25 +6311,25 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="D51" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="E51" s="0">
+        <v>7.75</v>
+      </c>
+      <c r="F51" s="2">
+        <v>46631</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="E51" s="0">
-        <v>5.7</v>
-      </c>
-      <c r="F51" s="2">
-        <v>47345</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>74</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>41</v>
@@ -6341,67 +6350,67 @@
         <v>96</v>
       </c>
       <c r="N51" s="0">
-        <v>517.016</v>
+        <v>530.717</v>
       </c>
       <c r="O51" s="0">
-        <v>97.12</v>
+        <v>98.6</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>1.64065</v>
+        <v>1.74178</v>
       </c>
       <c r="R51" s="0">
-        <v>1.6548</v>
+        <v>1.75527</v>
       </c>
       <c r="S51" s="0">
         <v>0</v>
       </c>
       <c r="T51" s="0">
-        <v>186</v>
+        <v>335</v>
       </c>
       <c r="U51" s="0">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="V51" s="0">
-        <v>245</v>
+        <v>411</v>
       </c>
       <c r="W51" s="0">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="X51" s="0">
-        <v>6.86</v>
+        <v>7.65</v>
       </c>
       <c r="Y51" s="0">
-        <v>6.35</v>
+        <v>8.26</v>
       </c>
       <c r="Z51" s="0">
-        <v>6.35</v>
+        <v>8.26</v>
       </c>
       <c r="AA51" s="0">
-        <v>-1.301</v>
+        <v>-3.029</v>
       </c>
       <c r="AB51" s="0">
-        <v>-0.768</v>
+        <v>-2.9</v>
       </c>
       <c r="AC51" s="0">
-        <v>4.98</v>
+        <v>3.4</v>
       </c>
       <c r="AD51" s="0">
-        <v>5.24</v>
+        <v>3.66</v>
       </c>
       <c r="AE51" s="0">
-        <v>5.24</v>
+        <v>3.66</v>
       </c>
       <c r="AF51" s="0">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="AG51" s="0">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="AH51" s="0">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="AI51" s="0" t="s">
         <v>47</v>
@@ -6415,16 +6424,16 @@
         <v>230</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E52" s="0">
-        <v>6.375</v>
+        <v>5.7</v>
       </c>
       <c r="F52" s="2">
-        <v>45550</v>
+        <v>47345</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>74</v>
@@ -6451,64 +6460,64 @@
         <v>517.016</v>
       </c>
       <c r="O52" s="0">
-        <v>102.32</v>
+        <v>88.32</v>
       </c>
       <c r="P52" s="0">
         <v>0</v>
       </c>
       <c r="Q52" s="0">
-        <v>1.7285</v>
+        <v>1.51991</v>
       </c>
       <c r="R52" s="0">
-        <v>1.72207</v>
+        <v>1.6548</v>
       </c>
       <c r="S52" s="0">
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>-44</v>
+        <v>288</v>
       </c>
       <c r="U52" s="0">
-        <v>-2</v>
+        <v>113</v>
       </c>
       <c r="V52" s="0">
-        <v>-154</v>
+        <v>320</v>
       </c>
       <c r="W52" s="0">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="X52" s="0">
-        <v>4.36</v>
+        <v>8.09</v>
       </c>
       <c r="Y52" s="0">
-        <v>4.67</v>
+        <v>8.21</v>
       </c>
       <c r="Z52" s="0">
-        <v>4.67</v>
+        <v>8.21</v>
       </c>
       <c r="AA52" s="0">
-        <v>-0.078</v>
+        <v>-10.244</v>
       </c>
       <c r="AB52" s="0">
-        <v>0.021</v>
+        <v>-10.133</v>
       </c>
       <c r="AC52" s="0">
-        <v>1.44</v>
+        <v>4.34</v>
       </c>
       <c r="AD52" s="0">
-        <v>1.45</v>
+        <v>5.11</v>
       </c>
       <c r="AE52" s="0">
-        <v>1.45</v>
+        <v>5.11</v>
       </c>
       <c r="AF52" s="0">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AG52" s="0">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AH52" s="0">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AI52" s="0" t="s">
         <v>47</v>
@@ -6516,25 +6525,25 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="D53" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C53" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>234</v>
-      </c>
       <c r="E53" s="0">
-        <v>5.75</v>
+        <v>6.375</v>
       </c>
       <c r="F53" s="2">
-        <v>46188</v>
+        <v>45550</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>41</v>
@@ -6549,76 +6558,76 @@
         <v>53</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="N53" s="0">
-        <v>413.613</v>
+        <v>517.016</v>
       </c>
       <c r="O53" s="0">
-        <v>101.8</v>
+        <v>100.36</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
       </c>
       <c r="Q53" s="0">
-        <v>1.37577</v>
+        <v>1.7271</v>
       </c>
       <c r="R53" s="0">
-        <v>1.3868</v>
+        <v>1.72207</v>
       </c>
       <c r="S53" s="0">
         <v>0</v>
       </c>
       <c r="T53" s="0">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="U53" s="0">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="V53" s="0">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="W53" s="0">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="X53" s="0">
-        <v>5.42</v>
+        <v>6.13</v>
       </c>
       <c r="Y53" s="0">
-        <v>5.12</v>
+        <v>6.11</v>
       </c>
       <c r="Z53" s="0">
-        <v>5.12</v>
+        <v>6.11</v>
       </c>
       <c r="AA53" s="0">
-        <v>-1.242</v>
+        <v>-1.992</v>
       </c>
       <c r="AB53" s="0">
-        <v>-0.95</v>
+        <v>-1.923</v>
       </c>
       <c r="AC53" s="0">
-        <v>2.91</v>
+        <v>1.41</v>
       </c>
       <c r="AD53" s="0">
-        <v>2.95</v>
+        <v>1.41</v>
       </c>
       <c r="AE53" s="0">
-        <v>2.95</v>
+        <v>1.41</v>
       </c>
       <c r="AF53" s="0">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="AG53" s="0">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="AH53" s="0">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="AI53" s="0" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
@@ -6635,13 +6644,13 @@
         <v>238</v>
       </c>
       <c r="E54" s="0">
-        <v>6.375</v>
+        <v>5.75</v>
       </c>
       <c r="F54" s="2">
-        <v>45703</v>
+        <v>46188</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>41</v>
@@ -6653,79 +6662,79 @@
         <v>43</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="N54" s="0">
-        <v>411.751</v>
+        <v>413.613</v>
       </c>
       <c r="O54" s="0">
-        <v>80.36</v>
+        <v>100.24</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
       </c>
       <c r="Q54" s="0">
-        <v>1.08113</v>
+        <v>1.38003</v>
       </c>
       <c r="R54" s="0">
-        <v>1.0977</v>
+        <v>1.3868</v>
       </c>
       <c r="S54" s="0">
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>571</v>
+        <v>95</v>
       </c>
       <c r="U54" s="0">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="V54" s="0">
-        <v>530</v>
+        <v>148</v>
       </c>
       <c r="W54" s="0">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="X54" s="0">
-        <v>11.19</v>
+        <v>6.14</v>
       </c>
       <c r="Y54" s="0">
-        <v>19.25</v>
+        <v>5.68</v>
       </c>
       <c r="Z54" s="0">
-        <v>19.25</v>
+        <v>5.68</v>
       </c>
       <c r="AA54" s="0">
-        <v>-1.952</v>
+        <v>-2.755</v>
       </c>
       <c r="AB54" s="0">
-        <v>-1.921</v>
+        <v>-2.594</v>
       </c>
       <c r="AC54" s="0">
-        <v>0.03</v>
+        <v>2.88</v>
       </c>
       <c r="AD54" s="0">
-        <v>1.67</v>
+        <v>2.92</v>
       </c>
       <c r="AE54" s="0">
-        <v>1.67</v>
+        <v>2.92</v>
       </c>
       <c r="AF54" s="0">
-        <v>-0.34</v>
+        <v>0.1</v>
       </c>
       <c r="AG54" s="0">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AH54" s="0">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AI54" s="0" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
@@ -6736,16 +6745,16 @@
         <v>240</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E55" s="0">
-        <v>7</v>
+        <v>6.375</v>
       </c>
       <c r="F55" s="2">
-        <v>46341</v>
+        <v>45703</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>40</v>
@@ -6769,67 +6778,67 @@
         <v>46</v>
       </c>
       <c r="N55" s="0">
-        <v>480.825</v>
+        <v>411.751</v>
       </c>
       <c r="O55" s="0">
-        <v>85.36</v>
+        <v>77.88</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>1.34105</v>
+        <v>1.06737</v>
       </c>
       <c r="R55" s="0">
-        <v>1.35254</v>
+        <v>1.0977</v>
       </c>
       <c r="S55" s="0">
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>570</v>
+        <v>611</v>
       </c>
       <c r="U55" s="0">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="V55" s="0">
-        <v>599</v>
+        <v>544</v>
       </c>
       <c r="W55" s="0">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="X55" s="0">
-        <v>10.05</v>
+        <v>11.82</v>
       </c>
       <c r="Y55" s="0">
-        <v>12.25</v>
+        <v>21.41</v>
       </c>
       <c r="Z55" s="0">
-        <v>12.25</v>
+        <v>21.41</v>
       </c>
       <c r="AA55" s="0">
-        <v>-1.295</v>
+        <v>-4.978</v>
       </c>
       <c r="AB55" s="0">
-        <v>-1.13</v>
+        <v>-4.831</v>
       </c>
       <c r="AC55" s="0">
-        <v>2.4</v>
+        <v>-0.25</v>
       </c>
       <c r="AD55" s="0">
-        <v>3.05</v>
+        <v>1.63</v>
       </c>
       <c r="AE55" s="0">
-        <v>3.05</v>
+        <v>1.63</v>
       </c>
       <c r="AF55" s="0">
-        <v>-0.04</v>
+        <v>-0.37</v>
       </c>
       <c r="AG55" s="0">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="AH55" s="0">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="AI55" s="0" t="s">
         <v>47</v>
@@ -6837,22 +6846,22 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="D56" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>238</v>
-      </c>
       <c r="E56" s="0">
-        <v>7.125</v>
+        <v>7</v>
       </c>
       <c r="F56" s="2">
-        <v>45519</v>
+        <v>46341</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>40</v>
@@ -6876,67 +6885,67 @@
         <v>46</v>
       </c>
       <c r="N56" s="0">
-        <v>292.114</v>
+        <v>480.825</v>
       </c>
       <c r="O56" s="0">
-        <v>90.8</v>
+        <v>81.4</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0.86665</v>
+        <v>1.30276</v>
       </c>
       <c r="R56" s="0">
-        <v>0.86883</v>
+        <v>1.35254</v>
       </c>
       <c r="S56" s="0">
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>504</v>
+        <v>645</v>
       </c>
       <c r="U56" s="0">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="V56" s="0">
-        <v>536</v>
+        <v>632</v>
       </c>
       <c r="W56" s="0">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="X56" s="0">
-        <v>10.29</v>
+        <v>10.81</v>
       </c>
       <c r="Y56" s="0">
-        <v>14.78</v>
+        <v>13.92</v>
       </c>
       <c r="Z56" s="0">
-        <v>14.78</v>
+        <v>13.92</v>
       </c>
       <c r="AA56" s="0">
-        <v>-0.7</v>
+        <v>-5.874</v>
       </c>
       <c r="AB56" s="0">
-        <v>-0.687</v>
+        <v>-5.745</v>
       </c>
       <c r="AC56" s="0">
-        <v>0.42</v>
+        <v>2.12</v>
       </c>
       <c r="AD56" s="0">
-        <v>1.29</v>
+        <v>2.99</v>
       </c>
       <c r="AE56" s="0">
-        <v>1.29</v>
+        <v>2.99</v>
       </c>
       <c r="AF56" s="0">
-        <v>-0.18</v>
+        <v>-0.1</v>
       </c>
       <c r="AG56" s="0">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="AH56" s="0">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="AI56" s="0" t="s">
         <v>47</v>
@@ -6944,19 +6953,19 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E57" s="0">
-        <v>7.5</v>
+        <v>7.125</v>
       </c>
       <c r="F57" s="2">
         <v>45519</v>
@@ -6983,61 +6992,61 @@
         <v>46</v>
       </c>
       <c r="N57" s="0">
-        <v>160.533</v>
+        <v>292.114</v>
       </c>
       <c r="O57" s="0">
-        <v>93.84</v>
+        <v>88.96</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0.49222</v>
+        <v>0.86497</v>
       </c>
       <c r="R57" s="0">
-        <v>0.49522</v>
+        <v>0.86883</v>
       </c>
       <c r="S57" s="0">
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>466</v>
+        <v>539</v>
       </c>
       <c r="U57" s="0">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="V57" s="0">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="W57" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="X57" s="0">
-        <v>9.82</v>
+        <v>10.85</v>
       </c>
       <c r="Y57" s="0">
-        <v>12.66</v>
+        <v>16.66</v>
       </c>
       <c r="Z57" s="0">
-        <v>12.66</v>
+        <v>16.66</v>
       </c>
       <c r="AA57" s="0">
-        <v>-1.054</v>
+        <v>-2.712</v>
       </c>
       <c r="AB57" s="0">
-        <v>-1.014</v>
+        <v>-2.637</v>
       </c>
       <c r="AC57" s="0">
-        <v>0.69</v>
+        <v>0.21</v>
       </c>
       <c r="AD57" s="0">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AE57" s="0">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AF57" s="0">
-        <v>-0.12</v>
+        <v>-0.22</v>
       </c>
       <c r="AG57" s="0">
         <v>0.03</v>
@@ -7051,25 +7060,25 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E58" s="0">
-        <v>5.875</v>
+        <v>7.5</v>
       </c>
       <c r="F58" s="2">
-        <v>45474</v>
+        <v>45519</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>41</v>
@@ -7081,76 +7090,76 @@
         <v>43</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="N58" s="0">
-        <v>361.911</v>
+        <v>160.533</v>
       </c>
       <c r="O58" s="0">
-        <v>98.08</v>
+        <v>91.32</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>1.15981</v>
+        <v>0.48796</v>
       </c>
       <c r="R58" s="0">
-        <v>1.15836</v>
+        <v>0.49522</v>
       </c>
       <c r="S58" s="0">
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>356</v>
+        <v>521</v>
       </c>
       <c r="U58" s="0">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="V58" s="0">
-        <v>364</v>
+        <v>554</v>
       </c>
       <c r="W58" s="0">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="X58" s="0">
-        <v>7.77</v>
+        <v>10.6</v>
       </c>
       <c r="Y58" s="0">
-        <v>9.61</v>
+        <v>15.02</v>
       </c>
       <c r="Z58" s="0">
-        <v>9.61</v>
+        <v>15.02</v>
       </c>
       <c r="AA58" s="0">
-        <v>-0.325</v>
+        <v>-3.712</v>
       </c>
       <c r="AB58" s="0">
-        <v>-0.287</v>
+        <v>-3.643</v>
       </c>
       <c r="AC58" s="0">
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
       <c r="AD58" s="0">
-        <v>0.98</v>
+        <v>1.26</v>
       </c>
       <c r="AE58" s="0">
-        <v>0.98</v>
+        <v>1.26</v>
       </c>
       <c r="AF58" s="0">
-        <v>-0.04</v>
+        <v>-0.17</v>
       </c>
       <c r="AG58" s="0">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AH58" s="0">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AI58" s="0" t="s">
         <v>47</v>
@@ -7170,13 +7179,13 @@
         <v>252</v>
       </c>
       <c r="E59" s="0">
-        <v>8</v>
+        <v>5.875</v>
       </c>
       <c r="F59" s="2">
-        <v>46079</v>
+        <v>45474</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>41</v>
@@ -7191,73 +7200,73 @@
         <v>53</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="N59" s="0">
-        <v>206.806</v>
+        <v>361.911</v>
       </c>
       <c r="O59" s="0">
-        <v>98.16</v>
+        <v>96.08</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>0.66329</v>
+        <v>1.15741</v>
       </c>
       <c r="R59" s="0">
-        <v>0.66165</v>
+        <v>1.15836</v>
       </c>
       <c r="S59" s="0">
         <v>0</v>
       </c>
       <c r="T59" s="0">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="U59" s="0">
-        <v>-2</v>
+        <v>56</v>
       </c>
       <c r="V59" s="0">
-        <v>571</v>
+        <v>394</v>
       </c>
       <c r="W59" s="0">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="X59" s="0">
-        <v>8.46</v>
+        <v>8.17</v>
       </c>
       <c r="Y59" s="0">
-        <v>8.85</v>
+        <v>12.59</v>
       </c>
       <c r="Z59" s="0">
-        <v>8.85</v>
+        <v>12.59</v>
       </c>
       <c r="AA59" s="0">
-        <v>-0.203</v>
+        <v>-2.358</v>
       </c>
       <c r="AB59" s="0">
-        <v>0.046</v>
+        <v>-2.3</v>
       </c>
       <c r="AC59" s="0">
-        <v>2.55</v>
+        <v>0.36</v>
       </c>
       <c r="AD59" s="0">
-        <v>2.56</v>
+        <v>0.94</v>
       </c>
       <c r="AE59" s="0">
-        <v>2.56</v>
+        <v>0.94</v>
       </c>
       <c r="AF59" s="0">
-        <v>0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="AG59" s="0">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="AH59" s="0">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="AI59" s="0" t="s">
         <v>47</v>
@@ -7277,13 +7286,13 @@
         <v>256</v>
       </c>
       <c r="E60" s="0">
-        <v>5.35</v>
+        <v>8</v>
       </c>
       <c r="F60" s="2">
-        <v>46096</v>
+        <v>46079</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>41</v>
@@ -7298,73 +7307,73 @@
         <v>53</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="N60" s="0">
-        <v>517.016</v>
+        <v>206.806</v>
       </c>
       <c r="O60" s="0">
-        <v>99.32</v>
+        <v>94.88</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>1.67782</v>
+        <v>0.65312</v>
       </c>
       <c r="R60" s="0">
-        <v>1.69516</v>
+        <v>0.66165</v>
       </c>
       <c r="S60" s="0">
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>88</v>
+        <v>552</v>
       </c>
       <c r="U60" s="0">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="V60" s="0">
-        <v>141</v>
+        <v>660</v>
       </c>
       <c r="W60" s="0">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="X60" s="0">
-        <v>5.92</v>
+        <v>9.92</v>
       </c>
       <c r="Y60" s="0">
-        <v>5.56</v>
+        <v>10.27</v>
       </c>
       <c r="Z60" s="0">
-        <v>5.56</v>
+        <v>10.27</v>
       </c>
       <c r="AA60" s="0">
-        <v>-1.468</v>
+        <v>-3.538</v>
       </c>
       <c r="AB60" s="0">
-        <v>-1.197</v>
+        <v>-3.395</v>
       </c>
       <c r="AC60" s="0">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AD60" s="0">
-        <v>2.75</v>
+        <v>2.51</v>
       </c>
       <c r="AE60" s="0">
-        <v>2.75</v>
+        <v>2.51</v>
       </c>
       <c r="AF60" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="AG60" s="0">
         <v>0.09</v>
       </c>
-      <c r="AG60" s="0">
-        <v>0.1</v>
-      </c>
       <c r="AH60" s="0">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AI60" s="0" t="s">
         <v>47</v>
@@ -7372,25 +7381,25 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="D61" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>256</v>
-      </c>
       <c r="E61" s="0">
-        <v>5.9</v>
+        <v>5.35</v>
       </c>
       <c r="F61" s="2">
-        <v>45366</v>
+        <v>46096</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>41</v>
@@ -7408,70 +7417,70 @@
         <v>75</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N61" s="0">
-        <v>775.524</v>
+        <v>517.016</v>
       </c>
       <c r="O61" s="0">
-        <v>99.64</v>
+        <v>97.48</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>2.52484</v>
+        <v>1.67754</v>
       </c>
       <c r="R61" s="0">
-        <v>2.52458</v>
+        <v>1.69516</v>
       </c>
       <c r="S61" s="0">
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="U61" s="0">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="V61" s="0">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="W61" s="0">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="X61" s="0">
-        <v>6.09</v>
+        <v>6.89</v>
       </c>
       <c r="Y61" s="0">
-        <v>6.09</v>
+        <v>6.3</v>
       </c>
       <c r="Z61" s="0">
-        <v>6.09</v>
+        <v>6.3</v>
       </c>
       <c r="AA61" s="0">
-        <v>-0.44</v>
+        <v>-3.294</v>
       </c>
       <c r="AB61" s="0">
-        <v>-0.403</v>
+        <v>-3.136</v>
       </c>
       <c r="AC61" s="0">
-        <v>0.98</v>
+        <v>2.7</v>
       </c>
       <c r="AD61" s="0">
-        <v>0.98</v>
+        <v>2.72</v>
       </c>
       <c r="AE61" s="0">
-        <v>0.98</v>
+        <v>2.72</v>
       </c>
       <c r="AF61" s="0">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AG61" s="0">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="AH61" s="0">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="AI61" s="0" t="s">
         <v>47</v>
@@ -7479,25 +7488,25 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" s="0">
+        <v>5.9</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45366</v>
+      </c>
+      <c r="G62" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="E62" s="0">
-        <v>6.5</v>
-      </c>
-      <c r="F62" s="2">
-        <v>47239</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>265</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>41</v>
@@ -7509,102 +7518,102 @@
         <v>43</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N62" s="0">
-        <v>215.079</v>
+        <v>775.524</v>
       </c>
       <c r="O62" s="0">
-        <v>84.68</v>
+        <v>97.48</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>0.59509</v>
+        <v>2.51631</v>
       </c>
       <c r="R62" s="0">
-        <v>0.61032</v>
+        <v>2.52458</v>
       </c>
       <c r="S62" s="0">
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>10000</v>
+        <v>237</v>
       </c>
       <c r="U62" s="0">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="V62" s="0">
-        <v>1795</v>
+        <v>285</v>
       </c>
       <c r="W62" s="0">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="X62" s="0">
-        <v>100</v>
+        <v>8.07</v>
       </c>
       <c r="Y62" s="0">
-        <v>100</v>
+        <v>8.52</v>
       </c>
       <c r="Z62" s="0">
-        <v>8.05</v>
+        <v>8.52</v>
       </c>
       <c r="AA62" s="0">
-        <v>-2.934</v>
+        <v>-2.598</v>
       </c>
       <c r="AB62" s="0">
-        <v>-2.946</v>
+        <v>-2.584</v>
       </c>
       <c r="AC62" s="0">
-        <v>0.09</v>
+        <v>0.72</v>
       </c>
       <c r="AD62" s="0">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="AE62" s="0">
-        <v>0.12</v>
+        <v>0.95</v>
       </c>
       <c r="AF62" s="0">
-        <v>0</v>
+        <v>-0.07</v>
       </c>
       <c r="AG62" s="0">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AH62" s="0">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AI62" s="0" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E63" s="0">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="F63" s="2">
-        <v>46905</v>
+        <v>47239</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>41</v>
@@ -7616,70 +7625,70 @@
         <v>43</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N63" s="0">
-        <v>264.712</v>
+        <v>215.079</v>
       </c>
       <c r="O63" s="0">
-        <v>85.56</v>
+        <v>83.8</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
       </c>
       <c r="Q63" s="0">
-        <v>0.74003</v>
+        <v>0.59992</v>
       </c>
       <c r="R63" s="0">
-        <v>0.73704</v>
+        <v>0.61032</v>
       </c>
       <c r="S63" s="0">
         <v>0</v>
       </c>
       <c r="T63" s="0">
-        <v>7036</v>
+        <v>10000</v>
       </c>
       <c r="U63" s="0">
         <v>0</v>
       </c>
       <c r="V63" s="0">
-        <v>1934</v>
+        <v>1809</v>
       </c>
       <c r="W63" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="X63" s="0">
-        <v>74.75</v>
+        <v>100</v>
       </c>
       <c r="Y63" s="0">
-        <v>74.14</v>
+        <v>100</v>
       </c>
       <c r="Z63" s="0">
         <v>8.15</v>
       </c>
       <c r="AA63" s="0">
-        <v>-0.047</v>
+        <v>-3.943</v>
       </c>
       <c r="AB63" s="0">
-        <v>-0.057</v>
+        <v>-4.053</v>
       </c>
       <c r="AC63" s="0">
-        <v>-0.06</v>
+        <v>0.07</v>
       </c>
       <c r="AD63" s="0">
-        <v>0.19</v>
+        <v>0.07</v>
       </c>
       <c r="AE63" s="0">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="AF63" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG63" s="0">
         <v>0</v>
@@ -7688,30 +7697,30 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E64" s="0">
-        <v>7.25</v>
+        <v>6.75</v>
       </c>
       <c r="F64" s="2">
-        <v>45684</v>
+        <v>46905</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>41</v>
@@ -7723,99 +7732,99 @@
         <v>43</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="N64" s="0">
-        <v>305.039</v>
+        <v>264.712</v>
       </c>
       <c r="O64" s="0">
-        <v>85.4</v>
+        <v>84.48</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>0.85117</v>
+        <v>0.74436</v>
       </c>
       <c r="R64" s="0">
-        <v>0.86124</v>
+        <v>0.73704</v>
       </c>
       <c r="S64" s="0">
         <v>0</v>
       </c>
       <c r="T64" s="0">
-        <v>527</v>
+        <v>7036</v>
       </c>
       <c r="U64" s="0">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V64" s="0">
-        <v>514</v>
+        <v>1934</v>
       </c>
       <c r="W64" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X64" s="0">
-        <v>10.61</v>
+        <v>74.75</v>
       </c>
       <c r="Y64" s="0">
-        <v>17.16</v>
+        <v>74.14</v>
       </c>
       <c r="Z64" s="0">
-        <v>17.16</v>
+        <v>8.15</v>
       </c>
       <c r="AA64" s="0">
-        <v>-1.613</v>
+        <v>-1.308</v>
       </c>
       <c r="AB64" s="0">
-        <v>-1.57</v>
+        <v>-1.407</v>
       </c>
       <c r="AC64" s="0">
-        <v>0.24</v>
+        <v>-0.06</v>
       </c>
       <c r="AD64" s="0">
-        <v>1.63</v>
+        <v>0.19</v>
       </c>
       <c r="AE64" s="0">
-        <v>1.63</v>
+        <v>0.22</v>
       </c>
       <c r="AF64" s="0">
-        <v>-0.28</v>
+        <v>-0</v>
       </c>
       <c r="AG64" s="0">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AH64" s="0">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="0" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="C65" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>273</v>
-      </c>
       <c r="D65" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E65" s="0">
-        <v>7.625</v>
+        <v>7.25</v>
       </c>
       <c r="F65" s="2">
-        <v>46595</v>
+        <v>45684</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>40</v>
@@ -7839,67 +7848,67 @@
         <v>46</v>
       </c>
       <c r="N65" s="0">
-        <v>297.284</v>
+        <v>305.039</v>
       </c>
       <c r="O65" s="0">
-        <v>84.48</v>
+        <v>84.8</v>
       </c>
       <c r="P65" s="0">
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>0.8206</v>
+        <v>0.861</v>
       </c>
       <c r="R65" s="0">
-        <v>0.83199</v>
+        <v>0.86124</v>
       </c>
       <c r="S65" s="0">
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="U65" s="0">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="V65" s="0">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="W65" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X65" s="0">
-        <v>10.55</v>
+        <v>10.88</v>
       </c>
       <c r="Y65" s="0">
-        <v>12.67</v>
+        <v>17.83</v>
       </c>
       <c r="Z65" s="0">
-        <v>12.67</v>
+        <v>17.83</v>
       </c>
       <c r="AA65" s="0">
-        <v>-1.813</v>
+        <v>-2.304</v>
       </c>
       <c r="AB65" s="0">
-        <v>-1.532</v>
+        <v>-2.171</v>
       </c>
       <c r="AC65" s="0">
-        <v>2.39</v>
+        <v>0.14</v>
       </c>
       <c r="AD65" s="0">
-        <v>3.46</v>
+        <v>1.6</v>
       </c>
       <c r="AE65" s="0">
-        <v>3.46</v>
+        <v>1.6</v>
       </c>
       <c r="AF65" s="0">
-        <v>-0.13</v>
+        <v>-0.3</v>
       </c>
       <c r="AG65" s="0">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="AH65" s="0">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="AI65" s="0" t="s">
         <v>47</v>
@@ -7907,25 +7916,25 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>280</v>
-      </c>
       <c r="E66" s="0">
-        <v>0</v>
+        <v>7.625</v>
       </c>
       <c r="F66" s="2">
-        <v>109939</v>
+        <v>46595</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>41</v>
@@ -7937,76 +7946,76 @@
         <v>43</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="N66" s="0">
-        <v>1023.6</v>
+        <v>297.284</v>
       </c>
       <c r="O66" s="0">
-        <v>83.4</v>
+        <v>82.2</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>2.78933</v>
+        <v>0.81339</v>
       </c>
       <c r="R66" s="0">
-        <v>2.77279</v>
+        <v>0.83199</v>
       </c>
       <c r="S66" s="0">
         <v>0</v>
       </c>
       <c r="T66" s="0">
-        <v>86</v>
+        <v>589</v>
       </c>
       <c r="U66" s="0">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="V66" s="0">
-        <v>109</v>
+        <v>559</v>
       </c>
       <c r="W66" s="0">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="X66" s="0">
-        <v>6.3</v>
+        <v>11.09</v>
       </c>
       <c r="Y66" s="0">
-        <v>6.77</v>
+        <v>13.55</v>
       </c>
       <c r="Z66" s="0">
-        <v>6.77</v>
+        <v>13.55</v>
       </c>
       <c r="AA66" s="0">
-        <v>0.144</v>
+        <v>-4.463</v>
       </c>
       <c r="AB66" s="0">
-        <v>0.318</v>
+        <v>-4.292</v>
       </c>
       <c r="AC66" s="0">
-        <v>-1.15</v>
+        <v>2.19</v>
       </c>
       <c r="AD66" s="0">
-        <v>0.09</v>
+        <v>3.41</v>
       </c>
       <c r="AE66" s="0">
-        <v>0.09</v>
+        <v>3.41</v>
       </c>
       <c r="AF66" s="0">
-        <v>8.16</v>
+        <v>-0.16</v>
       </c>
       <c r="AG66" s="0">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AH66" s="0">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AI66" s="0" t="s">
         <v>47</v>
@@ -8014,25 +8023,25 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="C67" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>279</v>
-      </c>
       <c r="D67" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E67" s="0">
-        <v>7.189</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2">
         <v>109939</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>41</v>
@@ -8053,67 +8062,67 @@
         <v>96</v>
       </c>
       <c r="N67" s="0">
-        <v>1280.523</v>
+        <v>1023.6</v>
       </c>
       <c r="O67" s="0">
-        <v>82.85</v>
+        <v>82</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>3.46623</v>
+        <v>2.79382</v>
       </c>
       <c r="R67" s="0">
-        <v>3.44044</v>
+        <v>2.77279</v>
       </c>
       <c r="S67" s="0">
         <v>0</v>
       </c>
       <c r="T67" s="0">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="U67" s="0">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="V67" s="0">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="W67" s="0">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="X67" s="0">
-        <v>6</v>
+        <v>6.64</v>
       </c>
       <c r="Y67" s="0">
-        <v>0.33</v>
+        <v>7.1</v>
       </c>
       <c r="Z67" s="0">
-        <v>0.33</v>
+        <v>7.1</v>
       </c>
       <c r="AA67" s="0">
-        <v>0.297</v>
+        <v>-1.537</v>
       </c>
       <c r="AB67" s="0">
-        <v>0.64</v>
+        <v>-1.741</v>
       </c>
       <c r="AC67" s="0">
-        <v>6.32</v>
+        <v>-0.15</v>
       </c>
       <c r="AD67" s="0">
-        <v>58.43</v>
+        <v>0.06</v>
       </c>
       <c r="AE67" s="0">
-        <v>58.43</v>
+        <v>0.06</v>
       </c>
       <c r="AF67" s="0">
-        <v>37.93</v>
+        <v>13.4</v>
       </c>
       <c r="AG67" s="0">
-        <v>34.84</v>
+        <v>0</v>
       </c>
       <c r="AH67" s="0">
-        <v>34.84</v>
+        <v>0</v>
       </c>
       <c r="AI67" s="0" t="s">
         <v>47</v>
@@ -8121,25 +8130,25 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>286</v>
-      </c>
       <c r="E68" s="0">
-        <v>5.35</v>
+        <v>7.189</v>
       </c>
       <c r="F68" s="2">
-        <v>47376</v>
+        <v>109939</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>41</v>
@@ -8154,73 +8163,73 @@
         <v>53</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="N68" s="0">
-        <v>310.209</v>
+        <v>1280.523</v>
       </c>
       <c r="O68" s="0">
-        <v>95.12</v>
+        <v>82</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>0.96412</v>
+        <v>3.49506</v>
       </c>
       <c r="R68" s="0">
-        <v>0.97068</v>
+        <v>3.44044</v>
       </c>
       <c r="S68" s="0">
         <v>0</v>
       </c>
       <c r="T68" s="0">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="U68" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V68" s="0">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="W68" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X68" s="0">
-        <v>6.15</v>
+        <v>6.28</v>
       </c>
       <c r="Y68" s="0">
-        <v>6.28</v>
+        <v>0.34</v>
       </c>
       <c r="Z68" s="0">
-        <v>6.28</v>
+        <v>0.34</v>
       </c>
       <c r="AA68" s="0">
-        <v>-1.123</v>
+        <v>-0.726</v>
       </c>
       <c r="AB68" s="0">
-        <v>-0.562</v>
+        <v>-1.274</v>
       </c>
       <c r="AC68" s="0">
-        <v>5.24</v>
+        <v>6.36</v>
       </c>
       <c r="AD68" s="0">
-        <v>5.37</v>
+        <v>58.39</v>
       </c>
       <c r="AE68" s="0">
-        <v>5.37</v>
+        <v>58.39</v>
       </c>
       <c r="AF68" s="0">
-        <v>0.31</v>
+        <v>38.87</v>
       </c>
       <c r="AG68" s="0">
-        <v>0.36</v>
+        <v>34.8</v>
       </c>
       <c r="AH68" s="0">
-        <v>0.36</v>
+        <v>34.8</v>
       </c>
       <c r="AI68" s="0" t="s">
         <v>47</v>
@@ -8228,22 +8237,22 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="C69" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="D69" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>290</v>
-      </c>
       <c r="E69" s="0">
-        <v>4.25</v>
+        <v>5.35</v>
       </c>
       <c r="F69" s="2">
-        <v>46295</v>
+        <v>47376</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>74</v>
@@ -8261,73 +8270,73 @@
         <v>53</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="N69" s="0">
         <v>310.209</v>
       </c>
       <c r="O69" s="0">
-        <v>84.32</v>
+        <v>93.92</v>
       </c>
       <c r="P69" s="0">
         <v>0</v>
       </c>
       <c r="Q69" s="0">
-        <v>0.85465</v>
+        <v>0.96976</v>
       </c>
       <c r="R69" s="0">
-        <v>0.85565</v>
+        <v>0.97068</v>
       </c>
       <c r="S69" s="0">
         <v>0</v>
       </c>
       <c r="T69" s="0">
-        <v>345</v>
+        <v>224</v>
       </c>
       <c r="U69" s="0">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="V69" s="0">
-        <v>359</v>
+        <v>256</v>
       </c>
       <c r="W69" s="0">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="X69" s="0">
-        <v>7.92</v>
+        <v>6.36</v>
       </c>
       <c r="Y69" s="0">
-        <v>9.86</v>
+        <v>6.54</v>
       </c>
       <c r="Z69" s="0">
-        <v>9.86</v>
+        <v>6.54</v>
       </c>
       <c r="AA69" s="0">
-        <v>-0.566</v>
+        <v>-2.37</v>
       </c>
       <c r="AB69" s="0">
-        <v>-0.524</v>
+        <v>-2.26</v>
       </c>
       <c r="AC69" s="0">
-        <v>2.45</v>
+        <v>5.15</v>
       </c>
       <c r="AD69" s="0">
-        <v>3.13</v>
+        <v>5.33</v>
       </c>
       <c r="AE69" s="0">
-        <v>3.13</v>
+        <v>5.33</v>
       </c>
       <c r="AF69" s="0">
-        <v>-0.08</v>
+        <v>0.29</v>
       </c>
       <c r="AG69" s="0">
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
       <c r="AH69" s="0">
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
       <c r="AI69" s="0" t="s">
         <v>47</v>
@@ -8335,25 +8344,25 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B70" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="C70" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="D70" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>294</v>
-      </c>
       <c r="E70" s="0">
-        <v>10.625</v>
+        <v>4.25</v>
       </c>
       <c r="F70" s="2">
-        <v>45830</v>
+        <v>46295</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>41</v>
@@ -8365,76 +8374,76 @@
         <v>43</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="N70" s="0">
-        <v>558.687</v>
+        <v>310.209</v>
       </c>
       <c r="O70" s="0">
-        <v>109.84</v>
+        <v>82.92</v>
       </c>
       <c r="P70" s="0">
         <v>0</v>
       </c>
       <c r="Q70" s="0">
-        <v>2.00509</v>
+        <v>0.85618</v>
       </c>
       <c r="R70" s="0">
-        <v>2.01133</v>
+        <v>0.85565</v>
       </c>
       <c r="S70" s="0">
         <v>0</v>
       </c>
       <c r="T70" s="0">
-        <v>181</v>
+        <v>360</v>
       </c>
       <c r="U70" s="0">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V70" s="0">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="W70" s="0">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="X70" s="0">
-        <v>5.74</v>
+        <v>8.04</v>
       </c>
       <c r="Y70" s="0">
-        <v>6.9</v>
+        <v>10.46</v>
       </c>
       <c r="Z70" s="0">
-        <v>6.9</v>
+        <v>10.46</v>
       </c>
       <c r="AA70" s="0">
-        <v>-0.759</v>
+        <v>-2.217</v>
       </c>
       <c r="AB70" s="0">
-        <v>-0.574</v>
+        <v>-2.15</v>
       </c>
       <c r="AC70" s="0">
-        <v>1.95</v>
+        <v>2.26</v>
       </c>
       <c r="AD70" s="0">
-        <v>2</v>
+        <v>3.09</v>
       </c>
       <c r="AE70" s="0">
-        <v>2</v>
+        <v>3.09</v>
       </c>
       <c r="AF70" s="0">
-        <v>0.05</v>
+        <v>-0.13</v>
       </c>
       <c r="AG70" s="0">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="AH70" s="0">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="AI70" s="0" t="s">
         <v>47</v>
@@ -8442,25 +8451,25 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>300</v>
-      </c>
       <c r="E71" s="0">
-        <v>6.625</v>
+        <v>10.625</v>
       </c>
       <c r="F71" s="2">
-        <v>45366</v>
+        <v>45830</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>41</v>
@@ -8472,76 +8481,76 @@
         <v>43</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="N71" s="0">
-        <v>868.586</v>
+        <v>558.687</v>
       </c>
       <c r="O71" s="0">
-        <v>100.6</v>
+        <v>109.96</v>
       </c>
       <c r="P71" s="0">
         <v>0</v>
       </c>
       <c r="Q71" s="0">
-        <v>2.85506</v>
+        <v>2.0448</v>
       </c>
       <c r="R71" s="0">
-        <v>2.85465</v>
+        <v>2.01133</v>
       </c>
       <c r="S71" s="0">
         <v>0</v>
       </c>
       <c r="T71" s="0">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="U71" s="0">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="V71" s="0">
-        <v>64</v>
+        <v>393</v>
       </c>
       <c r="W71" s="0">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="X71" s="0">
-        <v>5.68</v>
+        <v>5.66</v>
       </c>
       <c r="Y71" s="0">
-        <v>5.83</v>
+        <v>6.92</v>
       </c>
       <c r="Z71" s="0">
-        <v>5.83</v>
+        <v>6.92</v>
       </c>
       <c r="AA71" s="0">
-        <v>-0.435</v>
+        <v>-0.652</v>
       </c>
       <c r="AB71" s="0">
-        <v>-0.399</v>
+        <v>-0.536</v>
       </c>
       <c r="AC71" s="0">
-        <v>0.98</v>
+        <v>1.93</v>
       </c>
       <c r="AD71" s="0">
-        <v>0.98</v>
+        <v>1.98</v>
       </c>
       <c r="AE71" s="0">
-        <v>0.98</v>
+        <v>1.98</v>
       </c>
       <c r="AF71" s="0">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="AG71" s="0">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AH71" s="0">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AI71" s="0" t="s">
         <v>47</v>
@@ -8549,25 +8558,25 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="C72" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="D72" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>304</v>
-      </c>
       <c r="E72" s="0">
-        <v>6.875</v>
+        <v>6.625</v>
       </c>
       <c r="F72" s="2">
-        <v>45853</v>
+        <v>45366</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>41</v>
@@ -8588,80 +8597,187 @@
         <v>96</v>
       </c>
       <c r="N72" s="0">
-        <v>297.284</v>
+        <v>868.586</v>
       </c>
       <c r="O72" s="0">
-        <v>102.2</v>
+        <v>99.08</v>
       </c>
       <c r="P72" s="0">
         <v>0</v>
       </c>
       <c r="Q72" s="0">
-        <v>0.99272</v>
+        <v>2.86453</v>
       </c>
       <c r="R72" s="0">
-        <v>0.9929</v>
+        <v>2.85465</v>
       </c>
       <c r="S72" s="0">
         <v>0</v>
       </c>
       <c r="T72" s="0">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="U72" s="0">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="V72" s="0">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="W72" s="0">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="X72" s="0">
-        <v>5.59</v>
+        <v>7.76</v>
       </c>
       <c r="Y72" s="0">
-        <v>6.33</v>
+        <v>7.55</v>
       </c>
       <c r="Z72" s="0">
-        <v>6.33</v>
+        <v>7.55</v>
       </c>
       <c r="AA72" s="0">
-        <v>-0.467</v>
+        <v>-1.94</v>
       </c>
       <c r="AB72" s="0">
-        <v>-0.265</v>
+        <v>-1.926</v>
       </c>
       <c r="AC72" s="0">
-        <v>2.11</v>
+        <v>0.95</v>
       </c>
       <c r="AD72" s="0">
-        <v>2.13</v>
+        <v>0.95</v>
       </c>
       <c r="AE72" s="0">
-        <v>2.13</v>
+        <v>0.95</v>
       </c>
       <c r="AF72" s="0">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AG72" s="0">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AH72" s="0">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AI72" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="s">
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>305</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E73" s="0">
+        <v>6.875</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45853</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="N73" s="0">
+        <v>297.284</v>
+      </c>
+      <c r="O73" s="0">
+        <v>99.56</v>
+      </c>
+      <c r="P73" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="0">
+        <v>0.98517</v>
+      </c>
+      <c r="R73" s="0">
+        <v>0.9929</v>
+      </c>
+      <c r="S73" s="0">
+        <v>0</v>
+      </c>
+      <c r="T73" s="0">
+        <v>276</v>
+      </c>
+      <c r="U73" s="0">
+        <v>145</v>
+      </c>
+      <c r="V73" s="0">
+        <v>424</v>
+      </c>
+      <c r="W73" s="0">
+        <v>192</v>
+      </c>
+      <c r="X73" s="0">
+        <v>6.91</v>
+      </c>
+      <c r="Y73" s="0">
+        <v>7.64</v>
+      </c>
+      <c r="Z73" s="0">
+        <v>7.64</v>
+      </c>
+      <c r="AA73" s="0">
+        <v>-3.039</v>
+      </c>
+      <c r="AB73" s="0">
+        <v>-2.912</v>
+      </c>
+      <c r="AC73" s="0">
+        <v>2.07</v>
+      </c>
+      <c r="AD73" s="0">
+        <v>2.09</v>
+      </c>
+      <c r="AE73" s="0">
+        <v>2.09</v>
+      </c>
+      <c r="AF73" s="0">
+        <v>0.05</v>
+      </c>
+      <c r="AG73" s="0">
+        <v>0.06</v>
+      </c>
+      <c r="AH73" s="0">
+        <v>0.06</v>
+      </c>
+      <c r="AI73" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/Data/PFTF-Current.xlsx
+++ b/Data/PFTF-Current.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PFTF0309 " sheetId="1" r:id="rId2"/>
+    <sheet name="PFTF0313 " sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
-    <t xml:space="preserve">PFTF for 03/09/2023  </t>
+    <t xml:space="preserve">PFTF for 03/13/2023  </t>
   </si>
   <si>
     <t>Cusip</t>
@@ -1217,13 +1217,13 @@
         <v>293.2</v>
       </c>
       <c r="O3" s="0">
-        <v>75.68</v>
+        <v>73.6</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.73858</v>
+        <v>0.77717</v>
       </c>
       <c r="R3" s="0">
         <v>0.81408</v>
@@ -1232,49 +1232,49 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>642</v>
+        <v>699</v>
       </c>
       <c r="U3" s="0">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="V3" s="0">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="W3" s="0">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="X3" s="0">
-        <v>11.36</v>
+        <v>11.78</v>
       </c>
       <c r="Y3" s="0">
-        <v>15.64</v>
+        <v>16.65</v>
       </c>
       <c r="Z3" s="0">
-        <v>15.64</v>
+        <v>16.65</v>
       </c>
       <c r="AA3" s="0">
-        <v>-11.34</v>
+        <v>-13.777</v>
       </c>
       <c r="AB3" s="0">
-        <v>-11.156</v>
+        <v>-15.522</v>
       </c>
       <c r="AC3" s="0">
-        <v>1.48</v>
+        <v>1.19</v>
       </c>
       <c r="AD3" s="0">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AE3" s="0">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AF3" s="0">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AI3" s="0" t="s">
         <v>47</v>
@@ -1324,13 +1324,13 @@
         <v>413.613</v>
       </c>
       <c r="O4" s="0">
-        <v>86.68</v>
+        <v>82.6</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>1.19335</v>
+        <v>1.2304</v>
       </c>
       <c r="R4" s="0">
         <v>1.20168</v>
@@ -1339,43 +1339,43 @@
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="U4" s="0">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="V4" s="0">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="W4" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="X4" s="0">
-        <v>9.24</v>
+        <v>9.28</v>
       </c>
       <c r="Y4" s="0">
-        <v>15.23</v>
+        <v>18.55</v>
       </c>
       <c r="Z4" s="0">
-        <v>15.23</v>
+        <v>18.55</v>
       </c>
       <c r="AA4" s="0">
-        <v>-2.956</v>
+        <v>-7.524</v>
       </c>
       <c r="AB4" s="0">
-        <v>-3.113</v>
+        <v>-7.962</v>
       </c>
       <c r="AC4" s="0">
-        <v>0.66</v>
+        <v>0.07</v>
       </c>
       <c r="AD4" s="0">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AE4" s="0">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AF4" s="0">
-        <v>-0.18</v>
+        <v>-0.32</v>
       </c>
       <c r="AG4" s="0">
         <v>0.03</v>
@@ -1431,13 +1431,13 @@
         <v>310.209</v>
       </c>
       <c r="O5" s="0">
-        <v>95.24</v>
+        <v>94</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.98339</v>
+        <v>1.05016</v>
       </c>
       <c r="R5" s="0">
         <v>0.98198</v>
@@ -1446,43 +1446,43 @@
         <v>0</v>
       </c>
       <c r="T5" s="0">
-        <v>411</v>
+        <v>531</v>
       </c>
       <c r="U5" s="0">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="V5" s="0">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="W5" s="0">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="X5" s="0">
-        <v>8.42</v>
+        <v>9.23</v>
       </c>
       <c r="Y5" s="0">
-        <v>8.96</v>
+        <v>9.61</v>
       </c>
       <c r="Z5" s="0">
-        <v>8.96</v>
+        <v>9.61</v>
       </c>
       <c r="AA5" s="0">
-        <v>-2.137</v>
+        <v>-3.411</v>
       </c>
       <c r="AB5" s="0">
-        <v>-2.004</v>
+        <v>-5.012</v>
       </c>
       <c r="AC5" s="0">
+        <v>2.11</v>
+      </c>
+      <c r="AD5" s="0">
         <v>2.18</v>
       </c>
-      <c r="AD5" s="0">
-        <v>2.2</v>
-      </c>
       <c r="AE5" s="0">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AF5" s="0">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="AG5" s="0">
         <v>0.07</v>
@@ -1538,13 +1538,13 @@
         <v>543.018</v>
       </c>
       <c r="O6" s="0">
-        <v>82.72</v>
+        <v>79</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>1.49513</v>
+        <v>1.54495</v>
       </c>
       <c r="R6" s="0">
         <v>1.52819</v>
@@ -1553,43 +1553,43 @@
         <v>0</v>
       </c>
       <c r="T6" s="0">
-        <v>503</v>
+        <v>580</v>
       </c>
       <c r="U6" s="0">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="V6" s="0">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="W6" s="0">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="X6" s="0">
-        <v>10.48</v>
+        <v>10.97</v>
       </c>
       <c r="Y6" s="0">
-        <v>16.92</v>
+        <v>19.62</v>
       </c>
       <c r="Z6" s="0">
-        <v>16.92</v>
+        <v>19.62</v>
       </c>
       <c r="AA6" s="0">
-        <v>-4.392</v>
+        <v>-8.692</v>
       </c>
       <c r="AB6" s="0">
-        <v>-4.24</v>
+        <v>-9.804</v>
       </c>
       <c r="AC6" s="0">
-        <v>0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="AD6" s="0">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AE6" s="0">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AF6" s="0">
-        <v>-0.32</v>
+        <v>-0.42</v>
       </c>
       <c r="AG6" s="0">
         <v>0.05</v>
@@ -1645,13 +1645,13 @@
         <v>380.112</v>
       </c>
       <c r="O7" s="0">
-        <v>87.68</v>
+        <v>84.8</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>1.10934</v>
+        <v>1.16086</v>
       </c>
       <c r="R7" s="0">
         <v>1.11127</v>
@@ -1660,43 +1660,43 @@
         <v>0</v>
       </c>
       <c r="T7" s="0">
-        <v>481</v>
+        <v>546</v>
       </c>
       <c r="U7" s="0">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="V7" s="0">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="W7" s="0">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="X7" s="0">
-        <v>10.2</v>
+        <v>10.57</v>
       </c>
       <c r="Y7" s="0">
-        <v>16.44</v>
+        <v>19</v>
       </c>
       <c r="Z7" s="0">
-        <v>16.44</v>
+        <v>19</v>
       </c>
       <c r="AA7" s="0">
-        <v>-2.448</v>
+        <v>-5.652</v>
       </c>
       <c r="AB7" s="0">
-        <v>-2.348</v>
+        <v>-6.465</v>
       </c>
       <c r="AC7" s="0">
-        <v>0.16</v>
+        <v>-0.26</v>
       </c>
       <c r="AD7" s="0">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AE7" s="0">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AF7" s="0">
-        <v>-0.26</v>
+        <v>-0.34</v>
       </c>
       <c r="AG7" s="0">
         <v>0.03</v>
@@ -1752,13 +1752,13 @@
         <v>221.929</v>
       </c>
       <c r="O8" s="0">
-        <v>90.6</v>
+        <v>86</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.66926</v>
+        <v>0.68736</v>
       </c>
       <c r="R8" s="0">
         <v>0.65402</v>
@@ -1767,43 +1767,43 @@
         <v>0</v>
       </c>
       <c r="T8" s="0">
-        <v>391</v>
+        <v>473</v>
       </c>
       <c r="U8" s="0">
-        <v>-7</v>
+        <v>75</v>
       </c>
       <c r="V8" s="0">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="W8" s="0">
-        <v>-6</v>
+        <v>38</v>
       </c>
       <c r="X8" s="0">
-        <v>9.2</v>
+        <v>9.85</v>
       </c>
       <c r="Y8" s="0">
-        <v>17.93</v>
+        <v>23.66</v>
       </c>
       <c r="Z8" s="0">
-        <v>17.93</v>
+        <v>23.66</v>
       </c>
       <c r="AA8" s="0">
-        <v>0</v>
+        <v>-5.077</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.052</v>
+        <v>-5.468</v>
       </c>
       <c r="AC8" s="0">
-        <v>-0.36</v>
+        <v>-0.96</v>
       </c>
       <c r="AD8" s="0">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="AE8" s="0">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="AF8" s="0">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AG8" s="0">
         <v>0.02</v>
@@ -1859,13 +1859,13 @@
         <v>306.923</v>
       </c>
       <c r="O9" s="0">
-        <v>100.92</v>
+        <v>99.24</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>1.031</v>
+        <v>1.09696</v>
       </c>
       <c r="R9" s="0">
         <v>1.0171</v>
@@ -1895,10 +1895,10 @@
         <v>99.99</v>
       </c>
       <c r="AA9" s="0">
-        <v>-0.942</v>
+        <v>-2.591</v>
       </c>
       <c r="AB9" s="0">
-        <v>-1.046</v>
+        <v>-2.449</v>
       </c>
       <c r="AC9" s="0">
         <v>-1.09</v>
@@ -1966,13 +1966,13 @@
         <v>141.657</v>
       </c>
       <c r="O10" s="0">
-        <v>90.32</v>
+        <v>86</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.42587</v>
+        <v>0.43874</v>
       </c>
       <c r="R10" s="0">
         <v>0.42151</v>
@@ -1981,43 +1981,43 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>413</v>
+        <v>500</v>
       </c>
       <c r="U10" s="0">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="V10" s="0">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="W10" s="0">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="X10" s="0">
-        <v>8.27</v>
+        <v>8.7</v>
       </c>
       <c r="Y10" s="0">
-        <v>10.92</v>
+        <v>12.32</v>
       </c>
       <c r="Z10" s="0">
-        <v>10.92</v>
+        <v>12.32</v>
       </c>
       <c r="AA10" s="0">
-        <v>-1.268</v>
+        <v>-5.99</v>
       </c>
       <c r="AB10" s="0">
-        <v>-1.131</v>
+        <v>-7.772</v>
       </c>
       <c r="AC10" s="0">
-        <v>2.62</v>
+        <v>2.21</v>
       </c>
       <c r="AD10" s="0">
-        <v>3.62</v>
+        <v>3.56</v>
       </c>
       <c r="AE10" s="0">
-        <v>3.62</v>
+        <v>3.56</v>
       </c>
       <c r="AF10" s="0">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AG10" s="0">
         <v>0.17</v>
@@ -2073,13 +2073,13 @@
         <v>258.508</v>
       </c>
       <c r="O11" s="0">
-        <v>88.88</v>
+        <v>86.2</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.76477</v>
+        <v>0.80252</v>
       </c>
       <c r="R11" s="0">
         <v>0.82605</v>
@@ -2088,43 +2088,43 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="U11" s="0">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="V11" s="0">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="W11" s="0">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="X11" s="0">
-        <v>9.66</v>
+        <v>9.72</v>
       </c>
       <c r="Y11" s="0">
-        <v>18.74</v>
+        <v>22.42</v>
       </c>
       <c r="Z11" s="0">
-        <v>18.74</v>
+        <v>22.42</v>
       </c>
       <c r="AA11" s="0">
-        <v>-9.528</v>
+        <v>-12.256</v>
       </c>
       <c r="AB11" s="0">
-        <v>-9.513</v>
+        <v>-12.959</v>
       </c>
       <c r="AC11" s="0">
-        <v>-0.35</v>
+        <v>-0.82</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="AF11" s="0">
-        <v>-0.31</v>
+        <v>-0.41</v>
       </c>
       <c r="AG11" s="0">
         <v>0.01</v>
@@ -2180,13 +2180,13 @@
         <v>361.911</v>
       </c>
       <c r="O12" s="0">
-        <v>92.64</v>
+        <v>93.68</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>1.11597</v>
+        <v>1.22102</v>
       </c>
       <c r="R12" s="0">
         <v>1.09055</v>
@@ -2195,34 +2195,34 @@
         <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="U12" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="W12" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X12" s="0">
-        <v>9.47</v>
+        <v>9.09</v>
       </c>
       <c r="Y12" s="0">
-        <v>13.65</v>
+        <v>12.82</v>
       </c>
       <c r="Z12" s="0">
-        <v>13.65</v>
+        <v>12.82</v>
       </c>
       <c r="AA12" s="0">
-        <v>0</v>
+        <v>1.123</v>
       </c>
       <c r="AB12" s="0">
-        <v>0.035</v>
+        <v>0.367</v>
       </c>
       <c r="AC12" s="0">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AD12" s="0">
         <v>1.17</v>
@@ -2231,7 +2231,7 @@
         <v>1.17</v>
       </c>
       <c r="AF12" s="0">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AG12" s="0">
         <v>0.02</v>
@@ -2287,13 +2287,13 @@
         <v>873.751</v>
       </c>
       <c r="O13" s="0">
-        <v>95.28</v>
+        <v>86.12</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>2.77104</v>
+        <v>2.70997</v>
       </c>
       <c r="R13" s="0">
         <v>2.81137</v>
@@ -2302,49 +2302,49 @@
         <v>0</v>
       </c>
       <c r="T13" s="0">
-        <v>329</v>
+        <v>453</v>
       </c>
       <c r="U13" s="0">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="V13" s="0">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="W13" s="0">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="X13" s="0">
-        <v>8.35</v>
+        <v>9.3</v>
       </c>
       <c r="Y13" s="0">
-        <v>7.62</v>
+        <v>9.71</v>
       </c>
       <c r="Z13" s="0">
-        <v>7.62</v>
+        <v>9.71</v>
       </c>
       <c r="AA13" s="0">
-        <v>-3.68</v>
+        <v>-12.94</v>
       </c>
       <c r="AB13" s="0">
-        <v>-3.576</v>
+        <v>-15.438</v>
       </c>
       <c r="AC13" s="0">
-        <v>4.81</v>
+        <v>4.03</v>
       </c>
       <c r="AD13" s="0">
-        <v>4.95</v>
+        <v>4.82</v>
       </c>
       <c r="AE13" s="0">
-        <v>4.95</v>
+        <v>4.82</v>
       </c>
       <c r="AF13" s="0">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="AG13" s="0">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AH13" s="0">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AI13" s="0" t="s">
         <v>47</v>
@@ -2394,13 +2394,13 @@
         <v>607.827</v>
       </c>
       <c r="O14" s="0">
-        <v>100.04</v>
+        <v>90.72</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>2.02399</v>
+        <v>1.98589</v>
       </c>
       <c r="R14" s="0">
         <v>1.9937</v>
@@ -2409,43 +2409,43 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>207</v>
+        <v>592</v>
       </c>
       <c r="U14" s="0">
-        <v>33</v>
+        <v>418</v>
       </c>
       <c r="V14" s="0">
-        <v>338</v>
+        <v>606</v>
       </c>
       <c r="W14" s="0">
-        <v>51</v>
+        <v>319</v>
       </c>
       <c r="X14" s="0">
-        <v>6.24</v>
+        <v>9.78</v>
       </c>
       <c r="Y14" s="0">
-        <v>6.95</v>
+        <v>11.37</v>
       </c>
       <c r="Z14" s="0">
-        <v>6.95</v>
+        <v>11.37</v>
       </c>
       <c r="AA14" s="0">
-        <v>-0.793</v>
+        <v>-10.036</v>
       </c>
       <c r="AB14" s="0">
-        <v>-0.664</v>
+        <v>-11.617</v>
       </c>
       <c r="AC14" s="0">
-        <v>2.17</v>
+        <v>1.93</v>
       </c>
       <c r="AD14" s="0">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="AE14" s="0">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="AF14" s="0">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="AG14" s="0">
         <v>0.07</v>
@@ -2501,13 +2501,13 @@
         <v>409.131</v>
       </c>
       <c r="O15" s="0">
-        <v>83.88</v>
+        <v>79.8</v>
       </c>
       <c r="P15" s="0">
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1.14229</v>
+        <v>1.17581</v>
       </c>
       <c r="R15" s="0">
         <v>1.11147</v>
@@ -2516,43 +2516,43 @@
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="U15" s="0">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="V15" s="0">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="W15" s="0">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="X15" s="0">
-        <v>6.29</v>
+        <v>6.41</v>
       </c>
       <c r="Y15" s="0">
-        <v>6.82</v>
+        <v>6.81</v>
       </c>
       <c r="Z15" s="0">
-        <v>6.82</v>
+        <v>6.81</v>
       </c>
       <c r="AA15" s="0">
-        <v>0.431</v>
+        <v>-4.454</v>
       </c>
       <c r="AB15" s="0">
-        <v>0.009</v>
+        <v>-5.272</v>
       </c>
       <c r="AC15" s="0">
-        <v>4.27</v>
+        <v>5.04</v>
       </c>
       <c r="AD15" s="0">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AE15" s="0">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AF15" s="0">
-        <v>28.44</v>
+        <v>34.58</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -2608,64 +2608,64 @@
         <v>1028.517</v>
       </c>
       <c r="O16" s="0">
-        <v>100.76</v>
+        <v>98.76</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>3.44948</v>
+        <v>3.65819</v>
       </c>
       <c r="R16" s="0">
         <v>3.40971</v>
       </c>
       <c r="S16" s="0">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="T16" s="0">
-        <v>-68</v>
+        <v>-26</v>
       </c>
       <c r="U16" s="0">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="V16" s="0">
-        <v>-22</v>
+        <v>24</v>
       </c>
       <c r="W16" s="0">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="X16" s="0">
-        <v>3.13</v>
+        <v>3.35</v>
       </c>
       <c r="Y16" s="0">
-        <v>6.56</v>
+        <v>6.59</v>
       </c>
       <c r="Z16" s="0">
-        <v>6.56</v>
+        <v>6.59</v>
       </c>
       <c r="AA16" s="0">
-        <v>-1.138</v>
+        <v>-1.518</v>
       </c>
       <c r="AB16" s="0">
-        <v>-1.234</v>
+        <v>-1.845</v>
       </c>
       <c r="AC16" s="0">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="AD16" s="0">
-        <v>14.03</v>
+        <v>14.2</v>
       </c>
       <c r="AE16" s="0">
-        <v>14.03</v>
+        <v>14.2</v>
       </c>
       <c r="AF16" s="0">
-        <v>-2.6</v>
+        <v>-2.46</v>
       </c>
       <c r="AG16" s="0">
-        <v>3.57</v>
+        <v>3.6</v>
       </c>
       <c r="AH16" s="0">
-        <v>3.57</v>
+        <v>3.6</v>
       </c>
       <c r="AI16" s="0" t="s">
         <v>100</v>
@@ -2688,7 +2688,7 @@
         <v>4.537</v>
       </c>
       <c r="F17" s="2">
-        <v>44994</v>
+        <v>44998</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>104</v>
@@ -2712,7 +2712,7 @@
         <v>103</v>
       </c>
       <c r="N17" s="0">
-        <v>28.073</v>
+        <v>44.657</v>
       </c>
       <c r="O17" s="0">
         <v>100</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.09344</v>
+        <v>0.16083</v>
       </c>
       <c r="R17" s="0">
         <v>0</v>
@@ -2822,13 +2822,13 @@
         <v>310.209</v>
       </c>
       <c r="O18" s="0">
-        <v>100.12</v>
+        <v>79.2</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1.03379</v>
+        <v>0.88482</v>
       </c>
       <c r="R18" s="0">
         <v>1.02517</v>
@@ -2837,49 +2837,49 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>205</v>
+        <v>502</v>
       </c>
       <c r="U18" s="0">
-        <v>145</v>
+        <v>442</v>
       </c>
       <c r="V18" s="0">
-        <v>231</v>
+        <v>438</v>
       </c>
       <c r="W18" s="0">
-        <v>185</v>
+        <v>392</v>
       </c>
       <c r="X18" s="0">
-        <v>7.41</v>
+        <v>10.64</v>
       </c>
       <c r="Y18" s="0">
-        <v>7.4</v>
+        <v>32.77</v>
       </c>
       <c r="Z18" s="0">
-        <v>7.4</v>
+        <v>32.77</v>
       </c>
       <c r="AA18" s="0">
-        <v>-1.456</v>
+        <v>-22.047</v>
       </c>
       <c r="AB18" s="0">
-        <v>-1.437</v>
+        <v>-22.81</v>
       </c>
       <c r="AC18" s="0">
-        <v>0.98</v>
+        <v>-1.78</v>
       </c>
       <c r="AD18" s="0">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AE18" s="0">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AF18" s="0">
+        <v>-0.61</v>
+      </c>
+      <c r="AG18" s="0">
         <v>0.01</v>
       </c>
-      <c r="AG18" s="0">
-        <v>0.02</v>
-      </c>
       <c r="AH18" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI18" s="0" t="s">
         <v>47</v>
@@ -2929,13 +2929,13 @@
         <v>509.26</v>
       </c>
       <c r="O19" s="0">
-        <v>101.84</v>
+        <v>99.32</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1.72628</v>
+        <v>1.82159</v>
       </c>
       <c r="R19" s="0">
         <v>1.70286</v>
@@ -2944,43 +2944,43 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="U19" s="0">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="V19" s="0">
-        <v>-18</v>
+        <v>265</v>
       </c>
       <c r="W19" s="0">
-        <v>130</v>
+        <v>413</v>
       </c>
       <c r="X19" s="0">
-        <v>5.01</v>
+        <v>6.55</v>
       </c>
       <c r="Y19" s="0">
-        <v>6.44</v>
+        <v>8.27</v>
       </c>
       <c r="Z19" s="0">
-        <v>6.44</v>
+        <v>8.27</v>
       </c>
       <c r="AA19" s="0">
-        <v>-0.934</v>
+        <v>-3.385</v>
       </c>
       <c r="AB19" s="0">
-        <v>-0.861</v>
+        <v>-4.456</v>
       </c>
       <c r="AC19" s="0">
-        <v>1.31</v>
+        <v>0.88</v>
       </c>
       <c r="AD19" s="0">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AE19" s="0">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AF19" s="0">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="AG19" s="0">
         <v>0.03</v>
@@ -3036,13 +3036,13 @@
         <v>434.293</v>
       </c>
       <c r="O20" s="0">
-        <v>101.28</v>
+        <v>100.4</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>1.46407</v>
+        <v>1.57033</v>
       </c>
       <c r="R20" s="0">
         <v>1.45219</v>
@@ -3051,43 +3051,43 @@
         <v>0</v>
       </c>
       <c r="T20" s="0">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="U20" s="0">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="V20" s="0">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="W20" s="0">
-        <v>323</v>
+        <v>493</v>
       </c>
       <c r="X20" s="0">
-        <v>5.73</v>
+        <v>6.51</v>
       </c>
       <c r="Y20" s="0">
-        <v>7.26</v>
+        <v>8.25</v>
       </c>
       <c r="Z20" s="0">
-        <v>7.26</v>
+        <v>8.25</v>
       </c>
       <c r="AA20" s="0">
-        <v>-1.479</v>
+        <v>-2.335</v>
       </c>
       <c r="AB20" s="0">
-        <v>-1.46</v>
+        <v>-3.079</v>
       </c>
       <c r="AC20" s="0">
-        <v>0.86</v>
+        <v>0.58</v>
       </c>
       <c r="AD20" s="0">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="AE20" s="0">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="AF20" s="0">
-        <v>-0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="AG20" s="0">
         <v>0.02</v>
@@ -3143,13 +3143,13 @@
         <v>268.848</v>
       </c>
       <c r="O21" s="0">
-        <v>78.36</v>
+        <v>74.2</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.70122</v>
+        <v>0.71843</v>
       </c>
       <c r="R21" s="0">
         <v>0.70099</v>
@@ -3158,43 +3158,43 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>602</v>
+        <v>688</v>
       </c>
       <c r="U21" s="0">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="V21" s="0">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="W21" s="0">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="X21" s="0">
-        <v>11.67</v>
+        <v>12.23</v>
       </c>
       <c r="Y21" s="0">
-        <v>18.76</v>
+        <v>21.46</v>
       </c>
       <c r="Z21" s="0">
-        <v>18.76</v>
+        <v>21.46</v>
       </c>
       <c r="AA21" s="0">
-        <v>-2.246</v>
+        <v>-7.435</v>
       </c>
       <c r="AB21" s="0">
-        <v>-2.054</v>
+        <v>-8.576</v>
       </c>
       <c r="AC21" s="0">
-        <v>0.22</v>
+        <v>-0.28</v>
       </c>
       <c r="AD21" s="0">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="AE21" s="0">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="AF21" s="0">
-        <v>-0.37</v>
+        <v>-0.46</v>
       </c>
       <c r="AG21" s="0">
         <v>0.06</v>
@@ -3250,13 +3250,13 @@
         <v>206.806</v>
       </c>
       <c r="O22" s="0">
-        <v>82.68</v>
+        <v>78.4</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.56914</v>
+        <v>0.58392</v>
       </c>
       <c r="R22" s="0">
         <v>0.57043</v>
@@ -3265,43 +3265,43 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="U22" s="0">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="V22" s="0">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="W22" s="0">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="X22" s="0">
-        <v>12.17</v>
+        <v>12.71</v>
       </c>
       <c r="Y22" s="0">
-        <v>27.82</v>
+        <v>34.22</v>
       </c>
       <c r="Z22" s="0">
-        <v>27.82</v>
+        <v>34.22</v>
       </c>
       <c r="AA22" s="0">
-        <v>-2.5</v>
+        <v>-7.547</v>
       </c>
       <c r="AB22" s="0">
-        <v>-2.457</v>
+        <v>-7.808</v>
       </c>
       <c r="AC22" s="0">
-        <v>-0.81</v>
+        <v>-1.31</v>
       </c>
       <c r="AD22" s="0">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="AE22" s="0">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="AF22" s="0">
-        <v>-0.34</v>
+        <v>-0.41</v>
       </c>
       <c r="AG22" s="0">
         <v>0.01</v>
@@ -3357,13 +3357,13 @@
         <v>336.06</v>
       </c>
       <c r="O23" s="0">
-        <v>85.04</v>
+        <v>80.08</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.95125</v>
+        <v>0.9692</v>
       </c>
       <c r="R23" s="0">
         <v>0.97636</v>
@@ -3372,43 +3372,43 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>640</v>
+        <v>731</v>
       </c>
       <c r="U23" s="0">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="V23" s="0">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="W23" s="0">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="X23" s="0">
-        <v>12.18</v>
+        <v>12.89</v>
       </c>
       <c r="Y23" s="0">
-        <v>24.71</v>
+        <v>31.78</v>
       </c>
       <c r="Z23" s="0">
-        <v>24.71</v>
+        <v>31.78</v>
       </c>
       <c r="AA23" s="0">
-        <v>-4.792</v>
+        <v>-10.345</v>
       </c>
       <c r="AB23" s="0">
-        <v>-4.755</v>
+        <v>-10.758</v>
       </c>
       <c r="AC23" s="0">
-        <v>-0.51</v>
+        <v>-1.04</v>
       </c>
       <c r="AD23" s="0">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="AE23" s="0">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="AF23" s="0">
-        <v>-0.27</v>
+        <v>-0.37</v>
       </c>
       <c r="AG23" s="0">
         <v>0.01</v>
@@ -3464,13 +3464,13 @@
         <v>413.613</v>
       </c>
       <c r="O24" s="0">
-        <v>93.32</v>
+        <v>88.24</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>1.28476</v>
+        <v>1.31442</v>
       </c>
       <c r="R24" s="0">
         <v>1.26787</v>
@@ -3479,49 +3479,49 @@
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="U24" s="0">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="V24" s="0">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="W24" s="0">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="X24" s="0">
-        <v>8.79</v>
+        <v>9.28</v>
       </c>
       <c r="Y24" s="0">
-        <v>8.67</v>
+        <v>9.99</v>
       </c>
       <c r="Z24" s="0">
-        <v>8.67</v>
+        <v>9.99</v>
       </c>
       <c r="AA24" s="0">
-        <v>-0.976</v>
+        <v>-6.367</v>
       </c>
       <c r="AB24" s="0">
-        <v>-0.852</v>
+        <v>-8.561</v>
       </c>
       <c r="AC24" s="0">
-        <v>3.85</v>
+        <v>3.31</v>
       </c>
       <c r="AD24" s="0">
-        <v>4.36</v>
+        <v>4.29</v>
       </c>
       <c r="AE24" s="0">
-        <v>4.36</v>
+        <v>4.29</v>
       </c>
       <c r="AF24" s="0">
-        <v>0.07</v>
+        <v>-0.09</v>
       </c>
       <c r="AG24" s="0">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AH24" s="0">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AI24" s="0" t="s">
         <v>47</v>
@@ -3571,13 +3571,13 @@
         <v>827.225</v>
       </c>
       <c r="O25" s="0">
-        <v>97.08</v>
+        <v>92.72</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>2.67305</v>
+        <v>2.7623</v>
       </c>
       <c r="R25" s="0">
         <v>2.61862</v>
@@ -3586,43 +3586,43 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>446</v>
+        <v>524</v>
       </c>
       <c r="U25" s="0">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="V25" s="0">
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="W25" s="0">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="X25" s="0">
-        <v>10.08</v>
+        <v>10.6</v>
       </c>
       <c r="Y25" s="0">
-        <v>10.89</v>
+        <v>15.36</v>
       </c>
       <c r="Z25" s="0">
-        <v>10.89</v>
+        <v>15.36</v>
       </c>
       <c r="AA25" s="0">
-        <v>-0.247</v>
+        <v>-4.727</v>
       </c>
       <c r="AB25" s="0">
-        <v>-0.215</v>
+        <v>-5.47</v>
       </c>
       <c r="AC25" s="0">
-        <v>0.8</v>
+        <v>0.21</v>
       </c>
       <c r="AD25" s="0">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AE25" s="0">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AF25" s="0">
-        <v>-0.06</v>
+        <v>-0.19</v>
       </c>
       <c r="AG25" s="0">
         <v>0.02</v>
@@ -3678,13 +3678,13 @@
         <v>108.056</v>
       </c>
       <c r="O26" s="0">
-        <v>91.6</v>
+        <v>86.88</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.32946</v>
+        <v>0.3381</v>
       </c>
       <c r="R26" s="0">
         <v>0.33939</v>
@@ -3693,43 +3693,43 @@
         <v>2.06</v>
       </c>
       <c r="T26" s="0">
-        <v>661</v>
+        <v>758</v>
       </c>
       <c r="U26" s="0">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="V26" s="0">
-        <v>683</v>
+        <v>718</v>
       </c>
       <c r="W26" s="0">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="X26" s="0">
-        <v>12.29</v>
+        <v>12.97</v>
       </c>
       <c r="Y26" s="0">
-        <v>14.7</v>
+        <v>18.85</v>
       </c>
       <c r="Z26" s="0">
-        <v>14.7</v>
+        <v>18.85</v>
       </c>
       <c r="AA26" s="0">
-        <v>-3.001</v>
+        <v>-7.889</v>
       </c>
       <c r="AB26" s="0">
-        <v>-2.938</v>
+        <v>-8.823</v>
       </c>
       <c r="AC26" s="0">
-        <v>0.81</v>
+        <v>0.32</v>
       </c>
       <c r="AD26" s="0">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AE26" s="0">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AF26" s="0">
-        <v>-0.09</v>
+        <v>-0.18</v>
       </c>
       <c r="AG26" s="0">
         <v>0.03</v>
@@ -3785,13 +3785,13 @@
         <v>212.74</v>
       </c>
       <c r="O27" s="0">
-        <v>72.68</v>
+        <v>70.04</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>0.51466</v>
+        <v>0.53662</v>
       </c>
       <c r="R27" s="0">
         <v>0.52286</v>
@@ -3800,43 +3800,43 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>763</v>
+        <v>834</v>
       </c>
       <c r="U27" s="0">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="V27" s="0">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="W27" s="0">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="X27" s="0">
-        <v>12.58</v>
+        <v>13.11</v>
       </c>
       <c r="Y27" s="0">
-        <v>17.62</v>
+        <v>18.93</v>
       </c>
       <c r="Z27" s="0">
-        <v>17.62</v>
+        <v>18.93</v>
       </c>
       <c r="AA27" s="0">
-        <v>-3.812</v>
+        <v>-7.305</v>
       </c>
       <c r="AB27" s="0">
-        <v>-3.616</v>
+        <v>-8.891</v>
       </c>
       <c r="AC27" s="0">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="AD27" s="0">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AE27" s="0">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AF27" s="0">
-        <v>-0.26</v>
+        <v>-0.31</v>
       </c>
       <c r="AG27" s="0">
         <v>0.12</v>
@@ -3892,13 +3892,13 @@
         <v>767.684</v>
       </c>
       <c r="O28" s="0">
-        <v>83.52</v>
+        <v>78.44</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>2.13416</v>
+        <v>2.16867</v>
       </c>
       <c r="R28" s="0">
         <v>2.09753</v>
@@ -3907,43 +3907,43 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="U28" s="0">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="V28" s="0">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="W28" s="0">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="X28" s="0">
-        <v>5.68</v>
+        <v>6.02</v>
       </c>
       <c r="Y28" s="0">
-        <v>7.15</v>
+        <v>7.25</v>
       </c>
       <c r="Z28" s="0">
-        <v>7.15</v>
+        <v>7.25</v>
       </c>
       <c r="AA28" s="0">
-        <v>-0.571</v>
+        <v>-6.619</v>
       </c>
       <c r="AB28" s="0">
-        <v>-0.744</v>
+        <v>-7.244</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.29</v>
+        <v>1.83</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AE28" s="0">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AF28" s="0">
-        <v>14.15</v>
+        <v>24.29</v>
       </c>
       <c r="AG28" s="0">
         <v>0</v>
@@ -3999,13 +3999,13 @@
         <v>1381.834</v>
       </c>
       <c r="O29" s="0">
-        <v>83.56</v>
+        <v>79</v>
       </c>
       <c r="P29" s="0">
         <v>0</v>
       </c>
       <c r="Q29" s="0">
-        <v>3.84333</v>
+        <v>3.93148</v>
       </c>
       <c r="R29" s="0">
         <v>3.72342</v>
@@ -4014,43 +4014,43 @@
         <v>0</v>
       </c>
       <c r="T29" s="0">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="U29" s="0">
-        <v>-3</v>
+        <v>51</v>
       </c>
       <c r="V29" s="0">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="W29" s="0">
-        <v>-1</v>
+        <v>51</v>
       </c>
       <c r="X29" s="0">
-        <v>5.59</v>
+        <v>5.89</v>
       </c>
       <c r="Y29" s="0">
-        <v>7.05</v>
+        <v>7.1</v>
       </c>
       <c r="Z29" s="0">
-        <v>7.05</v>
+        <v>7.1</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.869</v>
+        <v>-4.635</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.581</v>
+        <v>-5.208</v>
       </c>
       <c r="AC29" s="0">
-        <v>2.72</v>
+        <v>3.38</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AF29" s="0">
-        <v>23.54</v>
+        <v>29.56</v>
       </c>
       <c r="AG29" s="0">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>204.72</v>
       </c>
       <c r="O30" s="0">
-        <v>85.64</v>
+        <v>81.6</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
       </c>
       <c r="Q30" s="0">
-        <v>0.58357</v>
+        <v>0.60162</v>
       </c>
       <c r="R30" s="0">
         <v>0.56282</v>
@@ -4121,19 +4121,19 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="U30" s="0">
-        <v>-9</v>
+        <v>39</v>
       </c>
       <c r="V30" s="0">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="W30" s="0">
-        <v>-7</v>
+        <v>43</v>
       </c>
       <c r="X30" s="0">
-        <v>5.38</v>
+        <v>5.61</v>
       </c>
       <c r="Y30" s="0">
         <v>6.97</v>
@@ -4142,22 +4142,22 @@
         <v>6.97</v>
       </c>
       <c r="AA30" s="0">
-        <v>1.325</v>
+        <v>-3.455</v>
       </c>
       <c r="AB30" s="0">
-        <v>1.074</v>
+        <v>-4.085</v>
       </c>
       <c r="AC30" s="0">
-        <v>2.43</v>
+        <v>3.28</v>
       </c>
       <c r="AD30" s="0">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AF30" s="0">
-        <v>21.19</v>
+        <v>27.43</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -4213,13 +4213,13 @@
         <v>716.52</v>
       </c>
       <c r="O31" s="0">
-        <v>100.56</v>
+        <v>98.84</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>2.39832</v>
+        <v>2.55055</v>
       </c>
       <c r="R31" s="0">
         <v>2.36047</v>
@@ -4228,43 +4228,43 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>111</v>
+        <v>263</v>
       </c>
       <c r="U31" s="0">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="V31" s="0">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c r="W31" s="0">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="X31" s="0">
-        <v>6.3</v>
+        <v>7.83</v>
       </c>
       <c r="Y31" s="0">
-        <v>6.4</v>
+        <v>8.06</v>
       </c>
       <c r="Z31" s="0">
-        <v>6.4</v>
+        <v>8.06</v>
       </c>
       <c r="AA31" s="0">
-        <v>-0.711</v>
+        <v>-2.409</v>
       </c>
       <c r="AB31" s="0">
-        <v>-0.681</v>
+        <v>-3.238</v>
       </c>
       <c r="AC31" s="0">
-        <v>1.09</v>
+        <v>0.78</v>
       </c>
       <c r="AD31" s="0">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AE31" s="0">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="AG31" s="0">
         <v>0.02</v>
@@ -4320,13 +4320,13 @@
         <v>202.062</v>
       </c>
       <c r="O32" s="0">
-        <v>76.48</v>
+        <v>71.32</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.51438</v>
+        <v>0.519</v>
       </c>
       <c r="R32" s="0">
         <v>0.59836</v>
@@ -4335,49 +4335,49 @@
         <v>1.88</v>
       </c>
       <c r="T32" s="0">
-        <v>648</v>
+        <v>758</v>
       </c>
       <c r="U32" s="0">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="V32" s="0">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="W32" s="0">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="X32" s="0">
-        <v>11.9</v>
+        <v>12.71</v>
       </c>
       <c r="Y32" s="0">
-        <v>14.82</v>
+        <v>16.87</v>
       </c>
       <c r="Z32" s="0">
-        <v>14.82</v>
+        <v>16.87</v>
       </c>
       <c r="AA32" s="0">
-        <v>-13.933</v>
+        <v>-19.601</v>
       </c>
       <c r="AB32" s="0">
-        <v>-13.778</v>
+        <v>-21.503</v>
       </c>
       <c r="AC32" s="0">
-        <v>2.09</v>
+        <v>1.63</v>
       </c>
       <c r="AD32" s="0">
-        <v>3.53</v>
+        <v>3.46</v>
       </c>
       <c r="AE32" s="0">
-        <v>3.53</v>
+        <v>3.46</v>
       </c>
       <c r="AF32" s="0">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AI32" s="0" t="s">
         <v>47</v>
@@ -4427,13 +4427,13 @@
         <v>517.016</v>
       </c>
       <c r="O33" s="0">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>1.7037</v>
+        <v>1.39649</v>
       </c>
       <c r="R33" s="0">
         <v>1.68843</v>
@@ -4442,49 +4442,49 @@
         <v>0</v>
       </c>
       <c r="T33" s="0">
-        <v>187</v>
+        <v>536</v>
       </c>
       <c r="U33" s="0">
-        <v>39</v>
+        <v>388</v>
       </c>
       <c r="V33" s="0">
-        <v>258</v>
+        <v>462</v>
       </c>
       <c r="W33" s="0">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="X33" s="0">
-        <v>7.04</v>
+        <v>10.72</v>
       </c>
       <c r="Y33" s="0">
-        <v>6.45</v>
+        <v>15.22</v>
       </c>
       <c r="Z33" s="0">
-        <v>6.45</v>
+        <v>15.22</v>
       </c>
       <c r="AA33" s="0">
-        <v>-1.394</v>
+        <v>-25.299</v>
       </c>
       <c r="AB33" s="0">
-        <v>-1.238</v>
+        <v>-27.337</v>
       </c>
       <c r="AC33" s="0">
-        <v>3.23</v>
+        <v>0.93</v>
       </c>
       <c r="AD33" s="0">
-        <v>3.28</v>
+        <v>3.07</v>
       </c>
       <c r="AE33" s="0">
-        <v>3.28</v>
+        <v>3.07</v>
       </c>
       <c r="AF33" s="0">
+        <v>-0.49</v>
+      </c>
+      <c r="AG33" s="0">
         <v>0.12</v>
       </c>
-      <c r="AG33" s="0">
-        <v>0.14</v>
-      </c>
       <c r="AH33" s="0">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="AI33" s="0" t="s">
         <v>47</v>
@@ -4534,13 +4534,13 @@
         <v>620.419</v>
       </c>
       <c r="O34" s="0">
-        <v>96.96</v>
+        <v>70.04</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>2.00231</v>
+        <v>1.56496</v>
       </c>
       <c r="R34" s="0">
         <v>2.00594</v>
@@ -4549,49 +4549,49 @@
         <v>0</v>
       </c>
       <c r="T34" s="0">
-        <v>225</v>
+        <v>541</v>
       </c>
       <c r="U34" s="0">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="V34" s="0">
-        <v>276</v>
+        <v>424</v>
       </c>
       <c r="W34" s="0">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="X34" s="0">
-        <v>6.64</v>
+        <v>9.49</v>
       </c>
       <c r="Y34" s="0">
-        <v>6.99</v>
+        <v>15.44</v>
       </c>
       <c r="Z34" s="0">
-        <v>6.99</v>
+        <v>15.44</v>
       </c>
       <c r="AA34" s="0">
-        <v>-2.455</v>
+        <v>-29.537</v>
       </c>
       <c r="AB34" s="0">
-        <v>-2.357</v>
+        <v>-31.38</v>
       </c>
       <c r="AC34" s="0">
-        <v>3.77</v>
+        <v>1.13</v>
       </c>
       <c r="AD34" s="0">
-        <v>4.01</v>
+        <v>3.72</v>
       </c>
       <c r="AE34" s="0">
-        <v>4.01</v>
+        <v>3.72</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.12</v>
+        <v>-0.57</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="AH34" s="0">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="AI34" s="0" t="s">
         <v>47</v>
@@ -4641,13 +4641,13 @@
         <v>155.105</v>
       </c>
       <c r="O35" s="0">
-        <v>79.92</v>
+        <v>74.4</v>
       </c>
       <c r="P35" s="0">
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>0.41261</v>
+        <v>0.4156</v>
       </c>
       <c r="R35" s="0">
         <v>0.41854</v>
@@ -4656,43 +4656,43 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
+        <v>584</v>
+      </c>
+      <c r="U35" s="0">
+        <v>150</v>
+      </c>
+      <c r="V35" s="0">
         <v>481</v>
       </c>
-      <c r="U35" s="0">
-        <v>47</v>
-      </c>
-      <c r="V35" s="0">
-        <v>435</v>
-      </c>
       <c r="W35" s="0">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="X35" s="0">
-        <v>9.1</v>
+        <v>9.56</v>
       </c>
       <c r="Y35" s="0">
-        <v>12.45</v>
+        <v>14.65</v>
       </c>
       <c r="Z35" s="0">
-        <v>12.45</v>
+        <v>14.65</v>
       </c>
       <c r="AA35" s="0">
-        <v>-3.664</v>
+        <v>-10.318</v>
       </c>
       <c r="AB35" s="0">
-        <v>-3.457</v>
+        <v>-12.25</v>
       </c>
       <c r="AC35" s="0">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="AD35" s="0">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="AE35" s="0">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="AF35" s="0">
-        <v>-0.14</v>
+        <v>-0.25</v>
       </c>
       <c r="AG35" s="0">
         <v>0.14</v>
@@ -4748,13 +4748,13 @@
         <v>147.349</v>
       </c>
       <c r="O36" s="0">
-        <v>105.08</v>
+        <v>93.64</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>0.51537</v>
+        <v>0.49691</v>
       </c>
       <c r="R36" s="0">
         <v>0.5205</v>
@@ -4763,49 +4763,49 @@
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>289</v>
+        <v>474</v>
       </c>
       <c r="U36" s="0">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="V36" s="0">
-        <v>366</v>
+        <v>472</v>
       </c>
       <c r="W36" s="0">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="X36" s="0">
-        <v>7.18</v>
+        <v>8.6</v>
       </c>
       <c r="Y36" s="0">
-        <v>7.41</v>
+        <v>10.63</v>
       </c>
       <c r="Z36" s="0">
-        <v>7.41</v>
+        <v>10.63</v>
       </c>
       <c r="AA36" s="0">
-        <v>-3.241</v>
+        <v>-13.775</v>
       </c>
       <c r="AB36" s="0">
-        <v>-3.117</v>
+        <v>-15.809</v>
       </c>
       <c r="AC36" s="0">
-        <v>3.59</v>
+        <v>2.81</v>
       </c>
       <c r="AD36" s="0">
-        <v>3.67</v>
+        <v>3.55</v>
       </c>
       <c r="AE36" s="0">
-        <v>3.67</v>
+        <v>3.55</v>
       </c>
       <c r="AF36" s="0">
-        <v>0.15</v>
+        <v>-0.06</v>
       </c>
       <c r="AG36" s="0">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AI36" s="0" t="s">
         <v>47</v>
@@ -4855,13 +4855,13 @@
         <v>620.419</v>
       </c>
       <c r="O37" s="0">
-        <v>94.32</v>
+        <v>92.4</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
       </c>
       <c r="Q37" s="0">
-        <v>1.94779</v>
+        <v>2.06457</v>
       </c>
       <c r="R37" s="0">
         <v>1.91311</v>
@@ -4891,10 +4891,10 @@
         <v>6.3</v>
       </c>
       <c r="AA37" s="0">
-        <v>1.015</v>
+        <v>-1.01</v>
       </c>
       <c r="AB37" s="0">
-        <v>0.816</v>
+        <v>-1.746</v>
       </c>
       <c r="AC37" s="0">
         <v>0.99</v>
@@ -4962,13 +4962,13 @@
         <v>284.359</v>
       </c>
       <c r="O38" s="0">
-        <v>76.6</v>
+        <v>71.8</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>0.72502</v>
+        <v>0.7353</v>
       </c>
       <c r="R38" s="0">
         <v>0.73884</v>
@@ -4977,43 +4977,43 @@
         <v>1.63</v>
       </c>
       <c r="T38" s="0">
-        <v>659</v>
+        <v>757</v>
       </c>
       <c r="U38" s="0">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="V38" s="0">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="W38" s="0">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="X38" s="0">
-        <v>12.42</v>
+        <v>13.12</v>
       </c>
       <c r="Y38" s="0">
-        <v>21.05</v>
+        <v>24.95</v>
       </c>
       <c r="Z38" s="0">
-        <v>21.05</v>
+        <v>24.95</v>
       </c>
       <c r="AA38" s="0">
-        <v>-2.072</v>
+        <v>-8.081</v>
       </c>
       <c r="AB38" s="0">
-        <v>-1.918</v>
+        <v>-9.027</v>
       </c>
       <c r="AC38" s="0">
-        <v>-0.04</v>
+        <v>-0.6</v>
       </c>
       <c r="AD38" s="0">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AE38" s="0">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AF38" s="0">
-        <v>-0.35</v>
+        <v>-0.44</v>
       </c>
       <c r="AG38" s="0">
         <v>0.04</v>
@@ -5069,13 +5069,13 @@
         <v>910.974</v>
       </c>
       <c r="O39" s="0">
-        <v>84.4</v>
+        <v>77.16</v>
       </c>
       <c r="P39" s="0">
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>2.55919</v>
+        <v>2.53146</v>
       </c>
       <c r="R39" s="0">
         <v>2.49378</v>
@@ -5084,43 +5084,43 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="U39" s="0">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="V39" s="0">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="W39" s="0">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="X39" s="0">
-        <v>6.5</v>
+        <v>6.99</v>
       </c>
       <c r="Y39" s="0">
-        <v>7.01</v>
+        <v>7.31</v>
       </c>
       <c r="Z39" s="0">
-        <v>7.01</v>
+        <v>7.31</v>
       </c>
       <c r="AA39" s="0">
-        <v>0.285</v>
+        <v>-8.317</v>
       </c>
       <c r="AB39" s="0">
-        <v>-0.065</v>
+        <v>-9.102</v>
       </c>
       <c r="AC39" s="0">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AD39" s="0">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="AE39" s="0">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="AF39" s="0">
-        <v>27.39</v>
+        <v>35.15</v>
       </c>
       <c r="AG39" s="0">
         <v>0</v>
@@ -5176,13 +5176,13 @@
         <v>828.158</v>
       </c>
       <c r="O40" s="0">
-        <v>97.32</v>
+        <v>95.2</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>2.68268</v>
+        <v>2.83938</v>
       </c>
       <c r="R40" s="0">
         <v>2.69915</v>
@@ -5191,43 +5191,43 @@
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="U40" s="0">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="V40" s="0">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="W40" s="0">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="X40" s="0">
-        <v>7.65</v>
+        <v>7.97</v>
       </c>
       <c r="Y40" s="0">
-        <v>6.92</v>
+        <v>7.57</v>
       </c>
       <c r="Z40" s="0">
-        <v>6.92</v>
+        <v>7.57</v>
       </c>
       <c r="AA40" s="0">
-        <v>-2.874</v>
+        <v>-4.99</v>
       </c>
       <c r="AB40" s="0">
-        <v>-2.726</v>
+        <v>-7.095</v>
       </c>
       <c r="AC40" s="0">
-        <v>3.42</v>
+        <v>3.09</v>
       </c>
       <c r="AD40" s="0">
-        <v>3.51</v>
+        <v>3.48</v>
       </c>
       <c r="AE40" s="0">
-        <v>3.51</v>
+        <v>3.48</v>
       </c>
       <c r="AF40" s="0">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AG40" s="0">
         <v>0.16</v>
@@ -5283,13 +5283,13 @@
         <v>828.158</v>
       </c>
       <c r="O41" s="0">
-        <v>101.2</v>
+        <v>99.68</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>2.78964</v>
+        <v>2.973</v>
       </c>
       <c r="R41" s="0">
         <v>2.73363</v>
@@ -5298,43 +5298,43 @@
         <v>0</v>
       </c>
       <c r="T41" s="0">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="U41" s="0">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="V41" s="0">
-        <v>146</v>
+        <v>338</v>
       </c>
       <c r="W41" s="0">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="X41" s="0">
-        <v>6.38</v>
+        <v>8.01</v>
       </c>
       <c r="Y41" s="0">
-        <v>6.27</v>
+        <v>7.36</v>
       </c>
       <c r="Z41" s="0">
-        <v>6.27</v>
+        <v>7.36</v>
       </c>
       <c r="AA41" s="0">
-        <v>-0.276</v>
+        <v>-1.774</v>
       </c>
       <c r="AB41" s="0">
-        <v>-0.202</v>
+        <v>-2.895</v>
       </c>
       <c r="AC41" s="0">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="AD41" s="0">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AE41" s="0">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AF41" s="0">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="AG41" s="0">
         <v>0.03</v>
@@ -5390,13 +5390,13 @@
         <v>258.508</v>
       </c>
       <c r="O42" s="0">
-        <v>97.75</v>
+        <v>93.96</v>
       </c>
       <c r="P42" s="0">
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>0.84106</v>
+        <v>0.87476</v>
       </c>
       <c r="R42" s="0">
         <v>0.85094</v>
@@ -5405,43 +5405,43 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>185</v>
+        <v>316</v>
       </c>
       <c r="U42" s="0">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="V42" s="0">
-        <v>259</v>
+        <v>371</v>
       </c>
       <c r="W42" s="0">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="X42" s="0">
-        <v>6.94</v>
+        <v>8.1</v>
       </c>
       <c r="Y42" s="0">
-        <v>6.33</v>
+        <v>7.55</v>
       </c>
       <c r="Z42" s="0">
-        <v>6.33</v>
+        <v>7.55</v>
       </c>
       <c r="AA42" s="0">
-        <v>-3.413</v>
+        <v>-7.154</v>
       </c>
       <c r="AB42" s="0">
-        <v>-3.255</v>
+        <v>-9.211</v>
       </c>
       <c r="AC42" s="0">
-        <v>3.26</v>
+        <v>2.92</v>
       </c>
       <c r="AD42" s="0">
-        <v>3.31</v>
+        <v>3.27</v>
       </c>
       <c r="AE42" s="0">
-        <v>3.31</v>
+        <v>3.27</v>
       </c>
       <c r="AF42" s="0">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AG42" s="0">
         <v>0.14</v>
@@ -5497,13 +5497,13 @@
         <v>517.016</v>
       </c>
       <c r="O43" s="0">
-        <v>95.88</v>
+        <v>96.2</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>1.65001</v>
+        <v>1.79123</v>
       </c>
       <c r="R43" s="0">
         <v>1.68911</v>
@@ -5512,43 +5512,43 @@
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="U43" s="0">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="V43" s="0">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="W43" s="0">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="X43" s="0">
-        <v>7.56</v>
+        <v>7.14</v>
       </c>
       <c r="Y43" s="0">
-        <v>10.89</v>
+        <v>10.66</v>
       </c>
       <c r="Z43" s="0">
-        <v>10.89</v>
+        <v>10.66</v>
       </c>
       <c r="AA43" s="0">
-        <v>-4.54</v>
+        <v>-4.221</v>
       </c>
       <c r="AB43" s="0">
-        <v>-4.526</v>
+        <v>-4.95</v>
       </c>
       <c r="AC43" s="0">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="AD43" s="0">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="AE43" s="0">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="AF43" s="0">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="AG43" s="0">
         <v>0.02</v>
@@ -5604,13 +5604,13 @@
         <v>457.559</v>
       </c>
       <c r="O44" s="0">
-        <v>94.04</v>
+        <v>90.4</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>1.43223</v>
+        <v>1.48967</v>
       </c>
       <c r="R44" s="0">
         <v>1.45259</v>
@@ -5619,43 +5619,43 @@
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>355</v>
+        <v>449</v>
       </c>
       <c r="U44" s="0">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="V44" s="0">
-        <v>412</v>
+        <v>476</v>
       </c>
       <c r="W44" s="0">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="X44" s="0">
-        <v>8.72</v>
+        <v>9.53</v>
       </c>
       <c r="Y44" s="0">
-        <v>11.58</v>
+        <v>15.05</v>
       </c>
       <c r="Z44" s="0">
-        <v>11.58</v>
+        <v>15.05</v>
       </c>
       <c r="AA44" s="0">
-        <v>-3.648</v>
+        <v>-7.377</v>
       </c>
       <c r="AB44" s="0">
-        <v>-3.596</v>
+        <v>-8.246</v>
       </c>
       <c r="AC44" s="0">
-        <v>0.55</v>
+        <v>0.01</v>
       </c>
       <c r="AD44" s="0">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AE44" s="0">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AF44" s="0">
-        <v>-0.17</v>
+        <v>-0.25</v>
       </c>
       <c r="AG44" s="0">
         <v>0.02</v>
@@ -5711,13 +5711,13 @@
         <v>744.503</v>
       </c>
       <c r="O45" s="0">
-        <v>97.84</v>
+        <v>94.4</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>2.42458</v>
+        <v>2.53111</v>
       </c>
       <c r="R45" s="0">
         <v>2.42553</v>
@@ -5747,10 +5747,10 @@
         <v>41.35</v>
       </c>
       <c r="AA45" s="0">
-        <v>-2.316</v>
+        <v>-5.751</v>
       </c>
       <c r="AB45" s="0">
-        <v>-2.415</v>
+        <v>-5.746</v>
       </c>
       <c r="AC45" s="0">
         <v>-0.7</v>
@@ -5818,13 +5818,13 @@
         <v>416.198</v>
       </c>
       <c r="O46" s="0">
-        <v>103.44</v>
+        <v>101.44</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>1.43299</v>
+        <v>1.52049</v>
       </c>
       <c r="R46" s="0">
         <v>1.40251</v>
@@ -5854,10 +5854,10 @@
         <v>0.02</v>
       </c>
       <c r="AA46" s="0">
-        <v>-0.154</v>
+        <v>-2.085</v>
       </c>
       <c r="AB46" s="0">
-        <v>-0.226</v>
+        <v>-2.438</v>
       </c>
       <c r="AC46" s="0">
         <v>0.35</v>
@@ -5925,13 +5925,13 @@
         <v>398.102</v>
       </c>
       <c r="O47" s="0">
-        <v>94.36</v>
+        <v>89.6</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>1.25036</v>
+        <v>1.28462</v>
       </c>
       <c r="R47" s="0">
         <v>1.25917</v>
@@ -5961,10 +5961,10 @@
         <v>10.93</v>
       </c>
       <c r="AA47" s="0">
-        <v>-2.962</v>
+        <v>-7.857</v>
       </c>
       <c r="AB47" s="0">
-        <v>-3.075</v>
+        <v>-7.821</v>
       </c>
       <c r="AC47" s="0">
         <v>-0.69</v>
@@ -6032,13 +6032,13 @@
         <v>234.208</v>
       </c>
       <c r="O48" s="0">
-        <v>99.64</v>
+        <v>96.84</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0.77676</v>
+        <v>0.81683</v>
       </c>
       <c r="R48" s="0">
         <v>0.77126</v>
@@ -6047,49 +6047,49 @@
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="U48" s="0">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="V48" s="0">
-        <v>631</v>
+        <v>662</v>
       </c>
       <c r="W48" s="0">
-        <v>680</v>
+        <v>711</v>
       </c>
       <c r="X48" s="0">
-        <v>11.24</v>
+        <v>11.71</v>
       </c>
       <c r="Y48" s="0">
-        <v>12.14</v>
+        <v>12.19</v>
       </c>
       <c r="Z48" s="0">
-        <v>12.14</v>
+        <v>12.19</v>
       </c>
       <c r="AA48" s="0">
-        <v>-1.58</v>
+        <v>-4.346</v>
       </c>
       <c r="AB48" s="0">
-        <v>-1.7</v>
+        <v>-4.545</v>
       </c>
       <c r="AC48" s="0">
-        <v>-0.16</v>
+        <v>-0.6</v>
       </c>
       <c r="AD48" s="0">
-        <v>8.13</v>
+        <v>8.08</v>
       </c>
       <c r="AE48" s="0">
-        <v>8.13</v>
+        <v>8.08</v>
       </c>
       <c r="AF48" s="0">
-        <v>-0.07</v>
+        <v>-0.14</v>
       </c>
       <c r="AG48" s="0">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AH48" s="0">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AI48" s="0" t="s">
         <v>47</v>
@@ -6139,13 +6139,13 @@
         <v>532.526</v>
       </c>
       <c r="O49" s="0">
-        <v>89.72</v>
+        <v>70.4</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>1.59032</v>
+        <v>1.35016</v>
       </c>
       <c r="R49" s="0">
         <v>1.71414</v>
@@ -6154,49 +6154,49 @@
         <v>1.59</v>
       </c>
       <c r="T49" s="0">
-        <v>356</v>
+        <v>597</v>
       </c>
       <c r="U49" s="0">
-        <v>109</v>
+        <v>350</v>
       </c>
       <c r="V49" s="0">
-        <v>386</v>
+        <v>475</v>
       </c>
       <c r="W49" s="0">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="X49" s="0">
-        <v>9.04</v>
+        <v>11.38</v>
       </c>
       <c r="Y49" s="0">
-        <v>9.55</v>
+        <v>16.96</v>
       </c>
       <c r="Z49" s="0">
-        <v>9.55</v>
+        <v>16.96</v>
       </c>
       <c r="AA49" s="0">
-        <v>-7.727</v>
+        <v>-27.25</v>
       </c>
       <c r="AB49" s="0">
-        <v>-7.577</v>
+        <v>-29.264</v>
       </c>
       <c r="AC49" s="0">
-        <v>2.67</v>
+        <v>0.59</v>
       </c>
       <c r="AD49" s="0">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AE49" s="0">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AF49" s="0">
-        <v>-0.08</v>
+        <v>-0.57</v>
       </c>
       <c r="AG49" s="0">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AH49" s="0">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AI49" s="0" t="s">
         <v>47</v>
@@ -6246,13 +6246,13 @@
         <v>158.297</v>
       </c>
       <c r="O50" s="0">
-        <v>77.96</v>
+        <v>74.4</v>
       </c>
       <c r="P50" s="0">
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>0.41077</v>
+        <v>0.42415</v>
       </c>
       <c r="R50" s="0">
         <v>0.41871</v>
@@ -6261,43 +6261,43 @@
         <v>0</v>
       </c>
       <c r="T50" s="0">
-        <v>709</v>
+        <v>795</v>
       </c>
       <c r="U50" s="0">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="V50" s="0">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="W50" s="0">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="X50" s="0">
-        <v>12.3</v>
+        <v>12.79</v>
       </c>
       <c r="Y50" s="0">
-        <v>15.39</v>
+        <v>16.81</v>
       </c>
       <c r="Z50" s="0">
-        <v>15.39</v>
+        <v>16.81</v>
       </c>
       <c r="AA50" s="0">
-        <v>-4.132</v>
+        <v>-8.51</v>
       </c>
       <c r="AB50" s="0">
-        <v>-3.966</v>
+        <v>-10.263</v>
       </c>
       <c r="AC50" s="0">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="AD50" s="0">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="AE50" s="0">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="AF50" s="0">
-        <v>-0.17</v>
+        <v>-0.24</v>
       </c>
       <c r="AG50" s="0">
         <v>0.16</v>
@@ -6353,13 +6353,13 @@
         <v>530.717</v>
       </c>
       <c r="O51" s="0">
-        <v>98.6</v>
+        <v>34.8</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>1.74178</v>
+        <v>0.66514</v>
       </c>
       <c r="R51" s="0">
         <v>1.75527</v>
@@ -6368,49 +6368,49 @@
         <v>0</v>
       </c>
       <c r="T51" s="0">
-        <v>335</v>
+        <v>1942</v>
       </c>
       <c r="U51" s="0">
-        <v>63</v>
+        <v>1670</v>
       </c>
       <c r="V51" s="0">
-        <v>411</v>
+        <v>715</v>
       </c>
       <c r="W51" s="0">
-        <v>53</v>
+        <v>357</v>
       </c>
       <c r="X51" s="0">
-        <v>7.65</v>
+        <v>23.5</v>
       </c>
       <c r="Y51" s="0">
-        <v>8.26</v>
+        <v>41.5</v>
       </c>
       <c r="Z51" s="0">
-        <v>8.26</v>
+        <v>41.5</v>
       </c>
       <c r="AA51" s="0">
-        <v>-3.029</v>
+        <v>-65.775</v>
       </c>
       <c r="AB51" s="0">
-        <v>-2.9</v>
+        <v>-67.776</v>
       </c>
       <c r="AC51" s="0">
-        <v>3.4</v>
+        <v>-0.37</v>
       </c>
       <c r="AD51" s="0">
-        <v>3.66</v>
+        <v>2.64</v>
       </c>
       <c r="AE51" s="0">
-        <v>3.66</v>
+        <v>2.64</v>
       </c>
       <c r="AF51" s="0">
-        <v>0.09</v>
+        <v>-0.4</v>
       </c>
       <c r="AG51" s="0">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AH51" s="0">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="AI51" s="0" t="s">
         <v>47</v>
@@ -6460,13 +6460,13 @@
         <v>517.016</v>
       </c>
       <c r="O52" s="0">
-        <v>88.32</v>
+        <v>77.28</v>
       </c>
       <c r="P52" s="0">
         <v>0</v>
       </c>
       <c r="Q52" s="0">
-        <v>1.51991</v>
+        <v>1.43895</v>
       </c>
       <c r="R52" s="0">
         <v>1.6548</v>
@@ -6475,49 +6475,49 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>288</v>
+        <v>418</v>
       </c>
       <c r="U52" s="0">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="V52" s="0">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="W52" s="0">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="X52" s="0">
-        <v>8.09</v>
+        <v>9.16</v>
       </c>
       <c r="Y52" s="0">
-        <v>8.21</v>
+        <v>10.89</v>
       </c>
       <c r="Z52" s="0">
-        <v>8.21</v>
+        <v>10.89</v>
       </c>
       <c r="AA52" s="0">
-        <v>-10.244</v>
+        <v>-21.463</v>
       </c>
       <c r="AB52" s="0">
-        <v>-10.133</v>
+        <v>-24.003</v>
       </c>
       <c r="AC52" s="0">
-        <v>4.34</v>
+        <v>3.14</v>
       </c>
       <c r="AD52" s="0">
-        <v>5.11</v>
+        <v>4.95</v>
       </c>
       <c r="AE52" s="0">
-        <v>5.11</v>
+        <v>4.95</v>
       </c>
       <c r="AF52" s="0">
-        <v>0.04</v>
+        <v>-0.3</v>
       </c>
       <c r="AG52" s="0">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AH52" s="0">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AI52" s="0" t="s">
         <v>47</v>
@@ -6567,13 +6567,13 @@
         <v>517.016</v>
       </c>
       <c r="O53" s="0">
-        <v>100.36</v>
+        <v>78.4</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
       </c>
       <c r="Q53" s="0">
-        <v>1.7271</v>
+        <v>1.4598</v>
       </c>
       <c r="R53" s="0">
         <v>1.72207</v>
@@ -6582,43 +6582,43 @@
         <v>0</v>
       </c>
       <c r="T53" s="0">
-        <v>95</v>
+        <v>481</v>
       </c>
       <c r="U53" s="0">
-        <v>137</v>
+        <v>523</v>
       </c>
       <c r="V53" s="0">
-        <v>104</v>
+        <v>425</v>
       </c>
       <c r="W53" s="0">
-        <v>261</v>
+        <v>582</v>
       </c>
       <c r="X53" s="0">
-        <v>6.13</v>
+        <v>10.52</v>
       </c>
       <c r="Y53" s="0">
-        <v>6.11</v>
+        <v>24.6</v>
       </c>
       <c r="Z53" s="0">
-        <v>6.11</v>
+        <v>24.6</v>
       </c>
       <c r="AA53" s="0">
-        <v>-1.992</v>
+        <v>-23.438</v>
       </c>
       <c r="AB53" s="0">
-        <v>-1.923</v>
+        <v>-24.512</v>
       </c>
       <c r="AC53" s="0">
-        <v>1.41</v>
+        <v>-1.28</v>
       </c>
       <c r="AD53" s="0">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AE53" s="0">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AF53" s="0">
-        <v>0.03</v>
+        <v>-0.6</v>
       </c>
       <c r="AG53" s="0">
         <v>0.03</v>
@@ -6674,13 +6674,13 @@
         <v>413.613</v>
       </c>
       <c r="O54" s="0">
-        <v>100.24</v>
+        <v>98.76</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
       </c>
       <c r="Q54" s="0">
-        <v>1.38003</v>
+        <v>1.47112</v>
       </c>
       <c r="R54" s="0">
         <v>1.3868</v>
@@ -6689,43 +6689,43 @@
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="U54" s="0">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="V54" s="0">
-        <v>148</v>
+        <v>275</v>
       </c>
       <c r="W54" s="0">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="X54" s="0">
-        <v>6.14</v>
+        <v>7.03</v>
       </c>
       <c r="Y54" s="0">
-        <v>5.68</v>
+        <v>6.22</v>
       </c>
       <c r="Z54" s="0">
-        <v>5.68</v>
+        <v>6.22</v>
       </c>
       <c r="AA54" s="0">
-        <v>-2.755</v>
+        <v>-4.191</v>
       </c>
       <c r="AB54" s="0">
-        <v>-2.594</v>
+        <v>-6.113</v>
       </c>
       <c r="AC54" s="0">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="AD54" s="0">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AE54" s="0">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AF54" s="0">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AG54" s="0">
         <v>0.11</v>
@@ -6781,13 +6781,13 @@
         <v>411.751</v>
       </c>
       <c r="O55" s="0">
-        <v>77.88</v>
+        <v>71.6</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>1.06737</v>
+        <v>1.06175</v>
       </c>
       <c r="R55" s="0">
         <v>1.0977</v>
@@ -6796,43 +6796,43 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>611</v>
+        <v>731</v>
       </c>
       <c r="U55" s="0">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="V55" s="0">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="W55" s="0">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="X55" s="0">
-        <v>11.82</v>
+        <v>12.78</v>
       </c>
       <c r="Y55" s="0">
-        <v>21.41</v>
+        <v>26.81</v>
       </c>
       <c r="Z55" s="0">
-        <v>21.41</v>
+        <v>26.81</v>
       </c>
       <c r="AA55" s="0">
-        <v>-4.978</v>
+        <v>-12.64</v>
       </c>
       <c r="AB55" s="0">
-        <v>-4.831</v>
+        <v>-13.565</v>
       </c>
       <c r="AC55" s="0">
-        <v>-0.25</v>
+        <v>-0.96</v>
       </c>
       <c r="AD55" s="0">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AE55" s="0">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AF55" s="0">
-        <v>-0.37</v>
+        <v>-0.49</v>
       </c>
       <c r="AG55" s="0">
         <v>0.04</v>
@@ -6888,13 +6888,13 @@
         <v>480.825</v>
       </c>
       <c r="O56" s="0">
-        <v>81.4</v>
+        <v>75</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>1.30276</v>
+        <v>1.29874</v>
       </c>
       <c r="R56" s="0">
         <v>1.35254</v>
@@ -6903,49 +6903,49 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>645</v>
+        <v>776</v>
       </c>
       <c r="U56" s="0">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="V56" s="0">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="W56" s="0">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X56" s="0">
-        <v>10.81</v>
+        <v>11.65</v>
       </c>
       <c r="Y56" s="0">
-        <v>13.92</v>
+        <v>16.74</v>
       </c>
       <c r="Z56" s="0">
-        <v>13.92</v>
+        <v>16.74</v>
       </c>
       <c r="AA56" s="0">
-        <v>-5.874</v>
+        <v>-13.275</v>
       </c>
       <c r="AB56" s="0">
-        <v>-5.745</v>
+        <v>-14.949</v>
       </c>
       <c r="AC56" s="0">
-        <v>2.12</v>
+        <v>1.61</v>
       </c>
       <c r="AD56" s="0">
-        <v>2.99</v>
+        <v>2.92</v>
       </c>
       <c r="AE56" s="0">
-        <v>2.99</v>
+        <v>2.92</v>
       </c>
       <c r="AF56" s="0">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AG56" s="0">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AH56" s="0">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AI56" s="0" t="s">
         <v>47</v>
@@ -6995,13 +6995,13 @@
         <v>292.114</v>
       </c>
       <c r="O57" s="0">
-        <v>88.96</v>
+        <v>84.16</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0.86497</v>
+        <v>0.88538</v>
       </c>
       <c r="R57" s="0">
         <v>0.86883</v>
@@ -7010,49 +7010,49 @@
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>539</v>
+        <v>637</v>
       </c>
       <c r="U57" s="0">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="V57" s="0">
-        <v>554</v>
+        <v>595</v>
       </c>
       <c r="W57" s="0">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="X57" s="0">
-        <v>10.85</v>
+        <v>11.61</v>
       </c>
       <c r="Y57" s="0">
-        <v>16.66</v>
+        <v>21.3</v>
       </c>
       <c r="Z57" s="0">
-        <v>16.66</v>
+        <v>21.3</v>
       </c>
       <c r="AA57" s="0">
-        <v>-2.712</v>
+        <v>-7.962</v>
       </c>
       <c r="AB57" s="0">
-        <v>-2.637</v>
+        <v>-8.711</v>
       </c>
       <c r="AC57" s="0">
-        <v>0.21</v>
+        <v>-0.33</v>
       </c>
       <c r="AD57" s="0">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AE57" s="0">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AF57" s="0">
-        <v>-0.22</v>
+        <v>-0.31</v>
       </c>
       <c r="AG57" s="0">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AH57" s="0">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AI57" s="0" t="s">
         <v>47</v>
@@ -7102,13 +7102,13 @@
         <v>160.533</v>
       </c>
       <c r="O58" s="0">
-        <v>91.32</v>
+        <v>85.54</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>0.48796</v>
+        <v>0.49455</v>
       </c>
       <c r="R58" s="0">
         <v>0.49522</v>
@@ -7117,49 +7117,49 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>521</v>
+        <v>641</v>
       </c>
       <c r="U58" s="0">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="V58" s="0">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="W58" s="0">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="X58" s="0">
-        <v>10.6</v>
+        <v>11.62</v>
       </c>
       <c r="Y58" s="0">
-        <v>15.02</v>
+        <v>20.43</v>
       </c>
       <c r="Z58" s="0">
-        <v>15.02</v>
+        <v>20.43</v>
       </c>
       <c r="AA58" s="0">
-        <v>-3.712</v>
+        <v>-9.806</v>
       </c>
       <c r="AB58" s="0">
-        <v>-3.643</v>
+        <v>-10.645</v>
       </c>
       <c r="AC58" s="0">
-        <v>0.41</v>
+        <v>-0.21</v>
       </c>
       <c r="AD58" s="0">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AE58" s="0">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AF58" s="0">
-        <v>-0.17</v>
+        <v>-0.29</v>
       </c>
       <c r="AG58" s="0">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AH58" s="0">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AI58" s="0" t="s">
         <v>47</v>
@@ -7209,13 +7209,13 @@
         <v>361.911</v>
       </c>
       <c r="O59" s="0">
-        <v>96.08</v>
+        <v>65.56</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>1.15741</v>
+        <v>0.8545</v>
       </c>
       <c r="R59" s="0">
         <v>1.15836</v>
@@ -7224,49 +7224,49 @@
         <v>0</v>
       </c>
       <c r="T59" s="0">
-        <v>401</v>
+        <v>822</v>
       </c>
       <c r="U59" s="0">
-        <v>56</v>
+        <v>477</v>
       </c>
       <c r="V59" s="0">
-        <v>394</v>
+        <v>528</v>
       </c>
       <c r="W59" s="0">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="X59" s="0">
-        <v>8.17</v>
+        <v>11.82</v>
       </c>
       <c r="Y59" s="0">
-        <v>12.59</v>
+        <v>71.26</v>
       </c>
       <c r="Z59" s="0">
-        <v>12.59</v>
+        <v>71.26</v>
       </c>
       <c r="AA59" s="0">
-        <v>-2.358</v>
+        <v>-33.374</v>
       </c>
       <c r="AB59" s="0">
-        <v>-2.3</v>
+        <v>-34.2</v>
       </c>
       <c r="AC59" s="0">
-        <v>0.36</v>
+        <v>-3.26</v>
       </c>
       <c r="AD59" s="0">
-        <v>0.94</v>
+        <v>0.64</v>
       </c>
       <c r="AE59" s="0">
-        <v>0.94</v>
+        <v>0.64</v>
       </c>
       <c r="AF59" s="0">
-        <v>-0.09</v>
+        <v>-0.7</v>
       </c>
       <c r="AG59" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH59" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI59" s="0" t="s">
         <v>47</v>
@@ -7316,13 +7316,13 @@
         <v>206.806</v>
       </c>
       <c r="O60" s="0">
-        <v>94.88</v>
+        <v>95.64</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0.65312</v>
+        <v>0.71232</v>
       </c>
       <c r="R60" s="0">
         <v>0.66165</v>
@@ -7331,31 +7331,31 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="U60" s="0">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="V60" s="0">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="W60" s="0">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="X60" s="0">
-        <v>9.92</v>
+        <v>9.86</v>
       </c>
       <c r="Y60" s="0">
-        <v>10.27</v>
+        <v>10</v>
       </c>
       <c r="Z60" s="0">
-        <v>10.27</v>
+        <v>10</v>
       </c>
       <c r="AA60" s="0">
-        <v>-3.538</v>
+        <v>-2.765</v>
       </c>
       <c r="AB60" s="0">
-        <v>-3.395</v>
+        <v>-4.507</v>
       </c>
       <c r="AC60" s="0">
         <v>2.5</v>
@@ -7423,13 +7423,13 @@
         <v>517.016</v>
       </c>
       <c r="O61" s="0">
-        <v>97.48</v>
+        <v>94.92</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>1.67754</v>
+        <v>1.7674</v>
       </c>
       <c r="R61" s="0">
         <v>1.69516</v>
@@ -7438,43 +7438,43 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="U61" s="0">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="V61" s="0">
-        <v>227</v>
+        <v>348</v>
       </c>
       <c r="W61" s="0">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="X61" s="0">
-        <v>6.89</v>
+        <v>8.09</v>
       </c>
       <c r="Y61" s="0">
-        <v>6.3</v>
+        <v>7.31</v>
       </c>
       <c r="Z61" s="0">
-        <v>6.3</v>
+        <v>7.31</v>
       </c>
       <c r="AA61" s="0">
-        <v>-3.294</v>
+        <v>-5.833</v>
       </c>
       <c r="AB61" s="0">
-        <v>-3.136</v>
+        <v>-7.683</v>
       </c>
       <c r="AC61" s="0">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="AD61" s="0">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="AE61" s="0">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="AF61" s="0">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AG61" s="0">
         <v>0.1</v>
@@ -7530,13 +7530,13 @@
         <v>775.524</v>
       </c>
       <c r="O62" s="0">
-        <v>97.48</v>
+        <v>94.4</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>2.51631</v>
+        <v>2.63658</v>
       </c>
       <c r="R62" s="0">
         <v>2.52458</v>
@@ -7545,43 +7545,43 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="U62" s="0">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="V62" s="0">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="W62" s="0">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="X62" s="0">
-        <v>8.07</v>
+        <v>8.27</v>
       </c>
       <c r="Y62" s="0">
-        <v>8.52</v>
+        <v>12.07</v>
       </c>
       <c r="Z62" s="0">
-        <v>8.52</v>
+        <v>12.07</v>
       </c>
       <c r="AA62" s="0">
-        <v>-2.598</v>
+        <v>-5.675</v>
       </c>
       <c r="AB62" s="0">
-        <v>-2.584</v>
+        <v>-6.407</v>
       </c>
       <c r="AC62" s="0">
-        <v>0.72</v>
+        <v>0.14</v>
       </c>
       <c r="AD62" s="0">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="AE62" s="0">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="AF62" s="0">
-        <v>-0.07</v>
+        <v>-0.23</v>
       </c>
       <c r="AG62" s="0">
         <v>0.02</v>
@@ -7637,13 +7637,13 @@
         <v>215.079</v>
       </c>
       <c r="O63" s="0">
-        <v>83.8</v>
+        <v>85.36</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
       </c>
       <c r="Q63" s="0">
-        <v>0.59992</v>
+        <v>0.66119</v>
       </c>
       <c r="R63" s="0">
         <v>0.61032</v>
@@ -7658,10 +7658,10 @@
         <v>0</v>
       </c>
       <c r="V63" s="0">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="W63" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X63" s="0">
         <v>100</v>
@@ -7670,13 +7670,13 @@
         <v>100</v>
       </c>
       <c r="Z63" s="0">
-        <v>8.15</v>
+        <v>7.55</v>
       </c>
       <c r="AA63" s="0">
-        <v>-3.943</v>
+        <v>-2.155</v>
       </c>
       <c r="AB63" s="0">
-        <v>-4.053</v>
+        <v>-2.386</v>
       </c>
       <c r="AC63" s="0">
         <v>0.07</v>
@@ -7685,7 +7685,7 @@
         <v>0.07</v>
       </c>
       <c r="AE63" s="0">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF63" s="0">
         <v>0</v>
@@ -7744,13 +7744,13 @@
         <v>264.712</v>
       </c>
       <c r="O64" s="0">
-        <v>84.48</v>
+        <v>85.56</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>0.74436</v>
+        <v>0.81568</v>
       </c>
       <c r="R64" s="0">
         <v>0.73704</v>
@@ -7780,10 +7780,10 @@
         <v>8.15</v>
       </c>
       <c r="AA64" s="0">
-        <v>-1.308</v>
+        <v>-0.047</v>
       </c>
       <c r="AB64" s="0">
-        <v>-1.407</v>
+        <v>-0.315</v>
       </c>
       <c r="AC64" s="0">
         <v>-0.06</v>
@@ -7851,13 +7851,13 @@
         <v>305.039</v>
       </c>
       <c r="O65" s="0">
-        <v>84.8</v>
+        <v>81.16</v>
       </c>
       <c r="P65" s="0">
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>0.861</v>
+        <v>0.8916</v>
       </c>
       <c r="R65" s="0">
         <v>0.86124</v>
@@ -7866,43 +7866,43 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>538</v>
+        <v>615</v>
       </c>
       <c r="U65" s="0">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="V65" s="0">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="W65" s="0">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="X65" s="0">
-        <v>10.88</v>
+        <v>11.35</v>
       </c>
       <c r="Y65" s="0">
-        <v>17.83</v>
+        <v>20.73</v>
       </c>
       <c r="Z65" s="0">
-        <v>17.83</v>
+        <v>20.73</v>
       </c>
       <c r="AA65" s="0">
-        <v>-2.304</v>
+        <v>-6.498</v>
       </c>
       <c r="AB65" s="0">
-        <v>-2.171</v>
+        <v>-7.444</v>
       </c>
       <c r="AC65" s="0">
-        <v>0.14</v>
+        <v>-0.33</v>
       </c>
       <c r="AD65" s="0">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AE65" s="0">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AF65" s="0">
-        <v>-0.3</v>
+        <v>-0.38</v>
       </c>
       <c r="AG65" s="0">
         <v>0.04</v>
@@ -7958,13 +7958,13 @@
         <v>297.284</v>
       </c>
       <c r="O66" s="0">
-        <v>82.2</v>
+        <v>77.88</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>0.81339</v>
+        <v>0.83382</v>
       </c>
       <c r="R66" s="0">
         <v>0.83199</v>
@@ -7973,49 +7973,49 @@
         <v>0</v>
       </c>
       <c r="T66" s="0">
-        <v>589</v>
+        <v>684</v>
       </c>
       <c r="U66" s="0">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="V66" s="0">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="W66" s="0">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="X66" s="0">
-        <v>11.09</v>
+        <v>11.72</v>
       </c>
       <c r="Y66" s="0">
-        <v>13.55</v>
+        <v>15.2</v>
       </c>
       <c r="Z66" s="0">
-        <v>13.55</v>
+        <v>15.2</v>
       </c>
       <c r="AA66" s="0">
-        <v>-4.463</v>
+        <v>-9.484</v>
       </c>
       <c r="AB66" s="0">
-        <v>-4.292</v>
+        <v>-11.295</v>
       </c>
       <c r="AC66" s="0">
-        <v>2.19</v>
+        <v>1.79</v>
       </c>
       <c r="AD66" s="0">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
       <c r="AE66" s="0">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
       <c r="AF66" s="0">
-        <v>-0.16</v>
+        <v>-0.24</v>
       </c>
       <c r="AG66" s="0">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AH66" s="0">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AI66" s="0" t="s">
         <v>47</v>
@@ -8065,13 +8065,13 @@
         <v>1023.6</v>
       </c>
       <c r="O67" s="0">
-        <v>82</v>
+        <v>75.48</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>2.79382</v>
+        <v>2.7825</v>
       </c>
       <c r="R67" s="0">
         <v>2.77279</v>
@@ -8080,43 +8080,43 @@
         <v>0</v>
       </c>
       <c r="T67" s="0">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="U67" s="0">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="V67" s="0">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="W67" s="0">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="X67" s="0">
-        <v>6.64</v>
+        <v>7.03</v>
       </c>
       <c r="Y67" s="0">
-        <v>7.1</v>
+        <v>7.34</v>
       </c>
       <c r="Z67" s="0">
-        <v>7.1</v>
+        <v>7.34</v>
       </c>
       <c r="AA67" s="0">
-        <v>-1.537</v>
+        <v>-9.366</v>
       </c>
       <c r="AB67" s="0">
-        <v>-1.741</v>
+        <v>-10.082</v>
       </c>
       <c r="AC67" s="0">
-        <v>-0.15</v>
+        <v>1.41</v>
       </c>
       <c r="AD67" s="0">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="AE67" s="0">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="AF67" s="0">
-        <v>13.4</v>
+        <v>25.22</v>
       </c>
       <c r="AG67" s="0">
         <v>0</v>
@@ -8172,13 +8172,13 @@
         <v>1280.523</v>
       </c>
       <c r="O68" s="0">
-        <v>82</v>
+        <v>78.58</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>3.49506</v>
+        <v>3.6238</v>
       </c>
       <c r="R68" s="0">
         <v>3.44044</v>
@@ -8187,49 +8187,49 @@
         <v>0</v>
       </c>
       <c r="T68" s="0">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="U68" s="0">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="V68" s="0">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="W68" s="0">
-        <v>7</v>
+        <v>-102</v>
       </c>
       <c r="X68" s="0">
-        <v>6.28</v>
+        <v>6.22</v>
       </c>
       <c r="Y68" s="0">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="Z68" s="0">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="AA68" s="0">
-        <v>-0.726</v>
+        <v>-4.869</v>
       </c>
       <c r="AB68" s="0">
-        <v>-1.274</v>
+        <v>-5.807</v>
       </c>
       <c r="AC68" s="0">
-        <v>6.36</v>
+        <v>6.93</v>
       </c>
       <c r="AD68" s="0">
-        <v>58.39</v>
+        <v>58.33</v>
       </c>
       <c r="AE68" s="0">
-        <v>58.39</v>
+        <v>58.33</v>
       </c>
       <c r="AF68" s="0">
-        <v>38.87</v>
+        <v>44.5</v>
       </c>
       <c r="AG68" s="0">
-        <v>34.8</v>
+        <v>34.76</v>
       </c>
       <c r="AH68" s="0">
-        <v>34.8</v>
+        <v>34.76</v>
       </c>
       <c r="AI68" s="0" t="s">
         <v>47</v>
@@ -8279,13 +8279,13 @@
         <v>310.209</v>
       </c>
       <c r="O69" s="0">
-        <v>93.92</v>
+        <v>89.8</v>
       </c>
       <c r="P69" s="0">
         <v>0</v>
       </c>
       <c r="Q69" s="0">
-        <v>0.96976</v>
+        <v>1.00324</v>
       </c>
       <c r="R69" s="0">
         <v>0.97068</v>
@@ -8294,49 +8294,49 @@
         <v>0</v>
       </c>
       <c r="T69" s="0">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="U69" s="0">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="V69" s="0">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="W69" s="0">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="X69" s="0">
-        <v>6.36</v>
+        <v>6.76</v>
       </c>
       <c r="Y69" s="0">
-        <v>6.54</v>
+        <v>7.4</v>
       </c>
       <c r="Z69" s="0">
-        <v>6.54</v>
+        <v>7.4</v>
       </c>
       <c r="AA69" s="0">
-        <v>-2.37</v>
+        <v>-6.653</v>
       </c>
       <c r="AB69" s="0">
-        <v>-2.26</v>
+        <v>-9.284</v>
       </c>
       <c r="AC69" s="0">
-        <v>5.15</v>
+        <v>4.8</v>
       </c>
       <c r="AD69" s="0">
-        <v>5.33</v>
+        <v>5.27</v>
       </c>
       <c r="AE69" s="0">
-        <v>5.33</v>
+        <v>5.27</v>
       </c>
       <c r="AF69" s="0">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="AG69" s="0">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="AH69" s="0">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="AI69" s="0" t="s">
         <v>47</v>
@@ -8386,64 +8386,64 @@
         <v>310.209</v>
       </c>
       <c r="O70" s="0">
-        <v>82.92</v>
+        <v>32.04</v>
       </c>
       <c r="P70" s="0">
         <v>0</v>
       </c>
       <c r="Q70" s="0">
-        <v>0.85618</v>
+        <v>0.35795</v>
       </c>
       <c r="R70" s="0">
         <v>0.85565</v>
       </c>
       <c r="S70" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T70" s="0">
-        <v>360</v>
+        <v>1433</v>
       </c>
       <c r="U70" s="0">
-        <v>21</v>
+        <v>1094</v>
       </c>
       <c r="V70" s="0">
-        <v>369</v>
+        <v>565</v>
       </c>
       <c r="W70" s="0">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="X70" s="0">
-        <v>8.04</v>
+        <v>18.27</v>
       </c>
       <c r="Y70" s="0">
-        <v>10.46</v>
+        <v>45.18</v>
       </c>
       <c r="Z70" s="0">
-        <v>10.46</v>
+        <v>45.18</v>
       </c>
       <c r="AA70" s="0">
-        <v>-2.217</v>
+        <v>-62.217</v>
       </c>
       <c r="AB70" s="0">
-        <v>-2.15</v>
+        <v>-63.857</v>
       </c>
       <c r="AC70" s="0">
-        <v>2.26</v>
+        <v>-3.18</v>
       </c>
       <c r="AD70" s="0">
-        <v>3.09</v>
+        <v>2.42</v>
       </c>
       <c r="AE70" s="0">
-        <v>3.09</v>
+        <v>2.42</v>
       </c>
       <c r="AF70" s="0">
-        <v>-0.13</v>
+        <v>-0.93</v>
       </c>
       <c r="AG70" s="0">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AH70" s="0">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AI70" s="0" t="s">
         <v>47</v>
@@ -8493,13 +8493,13 @@
         <v>558.687</v>
       </c>
       <c r="O71" s="0">
-        <v>109.96</v>
+        <v>109.32</v>
       </c>
       <c r="P71" s="0">
         <v>0</v>
       </c>
       <c r="Q71" s="0">
-        <v>2.0448</v>
+        <v>2.19959</v>
       </c>
       <c r="R71" s="0">
         <v>2.01133</v>
@@ -8508,40 +8508,40 @@
         <v>0</v>
       </c>
       <c r="T71" s="0">
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="U71" s="0">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="V71" s="0">
-        <v>393</v>
+        <v>600</v>
       </c>
       <c r="W71" s="0">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="X71" s="0">
-        <v>5.66</v>
+        <v>6.43</v>
       </c>
       <c r="Y71" s="0">
-        <v>6.92</v>
+        <v>7.26</v>
       </c>
       <c r="Z71" s="0">
-        <v>6.92</v>
+        <v>7.26</v>
       </c>
       <c r="AA71" s="0">
-        <v>-0.652</v>
+        <v>-1.229</v>
       </c>
       <c r="AB71" s="0">
-        <v>-0.536</v>
+        <v>-2.691</v>
       </c>
       <c r="AC71" s="0">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AD71" s="0">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="AE71" s="0">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="AF71" s="0">
         <v>0.05</v>
@@ -8600,13 +8600,13 @@
         <v>868.586</v>
       </c>
       <c r="O72" s="0">
-        <v>99.08</v>
+        <v>96.68</v>
       </c>
       <c r="P72" s="0">
         <v>0</v>
       </c>
       <c r="Q72" s="0">
-        <v>2.86453</v>
+        <v>3.02428</v>
       </c>
       <c r="R72" s="0">
         <v>2.85465</v>
@@ -8615,43 +8615,43 @@
         <v>0</v>
       </c>
       <c r="T72" s="0">
-        <v>224</v>
+        <v>325</v>
       </c>
       <c r="U72" s="0">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="V72" s="0">
-        <v>254</v>
+        <v>368</v>
       </c>
       <c r="W72" s="0">
-        <v>260</v>
+        <v>374</v>
       </c>
       <c r="X72" s="0">
-        <v>7.76</v>
+        <v>8.65</v>
       </c>
       <c r="Y72" s="0">
-        <v>7.55</v>
+        <v>10.26</v>
       </c>
       <c r="Z72" s="0">
-        <v>7.55</v>
+        <v>10.26</v>
       </c>
       <c r="AA72" s="0">
-        <v>-1.94</v>
+        <v>-4.315</v>
       </c>
       <c r="AB72" s="0">
-        <v>-1.926</v>
+        <v>-5.046</v>
       </c>
       <c r="AC72" s="0">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AD72" s="0">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="AE72" s="0">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="AF72" s="0">
-        <v>0.01</v>
+        <v>-0.14</v>
       </c>
       <c r="AG72" s="0">
         <v>0.02</v>
@@ -8707,13 +8707,13 @@
         <v>297.284</v>
       </c>
       <c r="O73" s="0">
-        <v>99.56</v>
+        <v>92.24</v>
       </c>
       <c r="P73" s="0">
         <v>0</v>
       </c>
       <c r="Q73" s="0">
-        <v>0.98517</v>
+        <v>0.98756</v>
       </c>
       <c r="R73" s="0">
         <v>0.9929</v>
@@ -8722,43 +8722,43 @@
         <v>0</v>
       </c>
       <c r="T73" s="0">
-        <v>276</v>
+        <v>621</v>
       </c>
       <c r="U73" s="0">
-        <v>145</v>
+        <v>490</v>
       </c>
       <c r="V73" s="0">
-        <v>424</v>
+        <v>649</v>
       </c>
       <c r="W73" s="0">
-        <v>192</v>
+        <v>417</v>
       </c>
       <c r="X73" s="0">
-        <v>6.91</v>
+        <v>10.06</v>
       </c>
       <c r="Y73" s="0">
-        <v>7.64</v>
+        <v>11.41</v>
       </c>
       <c r="Z73" s="0">
-        <v>7.64</v>
+        <v>11.41</v>
       </c>
       <c r="AA73" s="0">
-        <v>-3.039</v>
+        <v>-10.168</v>
       </c>
       <c r="AB73" s="0">
-        <v>-2.912</v>
+        <v>-11.715</v>
       </c>
       <c r="AC73" s="0">
-        <v>2.07</v>
+        <v>1.79</v>
       </c>
       <c r="AD73" s="0">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="AE73" s="0">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="AF73" s="0">
-        <v>0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="AG73" s="0">
         <v>0.06</v>

--- a/Data/PFTF-Current.xlsx
+++ b/Data/PFTF-Current.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PFTF0313 " sheetId="1" r:id="rId2"/>
+    <sheet name="PFTF0330 " sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
-    <t xml:space="preserve">PFTF for 03/13/2023  </t>
+    <t xml:space="preserve">PFTF for 03/30/2023  </t>
   </si>
   <si>
     <t>Cusip</t>
@@ -1217,13 +1217,13 @@
         <v>293.2</v>
       </c>
       <c r="O3" s="0">
-        <v>73.6</v>
+        <v>68.64</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.77717</v>
+        <v>0.69831</v>
       </c>
       <c r="R3" s="0">
         <v>0.81408</v>
@@ -1232,43 +1232,43 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>699</v>
+        <v>786</v>
       </c>
       <c r="U3" s="0">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="V3" s="0">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="W3" s="0">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="X3" s="0">
-        <v>11.78</v>
+        <v>12.95</v>
       </c>
       <c r="Y3" s="0">
-        <v>16.65</v>
+        <v>19.34</v>
       </c>
       <c r="Z3" s="0">
-        <v>16.65</v>
+        <v>19.34</v>
       </c>
       <c r="AA3" s="0">
-        <v>-13.777</v>
+        <v>-19.588</v>
       </c>
       <c r="AB3" s="0">
-        <v>-15.522</v>
+        <v>-21.437</v>
       </c>
       <c r="AC3" s="0">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="AD3" s="0">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="AE3" s="0">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="AF3" s="0">
-        <v>-0.31</v>
+        <v>-0.37</v>
       </c>
       <c r="AG3" s="0">
         <v>0.11</v>
@@ -1324,13 +1324,13 @@
         <v>413.613</v>
       </c>
       <c r="O4" s="0">
-        <v>82.6</v>
+        <v>89.49</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>1.2304</v>
+        <v>1.2843</v>
       </c>
       <c r="R4" s="0">
         <v>1.20168</v>
@@ -1339,34 +1339,34 @@
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>535</v>
+        <v>455</v>
       </c>
       <c r="U4" s="0">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="V4" s="0">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="W4" s="0">
-        <v>36</v>
+        <v>-8</v>
       </c>
       <c r="X4" s="0">
-        <v>9.28</v>
+        <v>8.51</v>
       </c>
       <c r="Y4" s="0">
-        <v>18.55</v>
+        <v>13.65</v>
       </c>
       <c r="Z4" s="0">
-        <v>18.55</v>
+        <v>13.65</v>
       </c>
       <c r="AA4" s="0">
-        <v>-7.524</v>
+        <v>0.188</v>
       </c>
       <c r="AB4" s="0">
-        <v>-7.962</v>
+        <v>0.189</v>
       </c>
       <c r="AC4" s="0">
-        <v>0.07</v>
+        <v>0.66</v>
       </c>
       <c r="AD4" s="0">
         <v>1.49</v>
@@ -1375,7 +1375,7 @@
         <v>1.49</v>
       </c>
       <c r="AF4" s="0">
-        <v>-0.32</v>
+        <v>-0.19</v>
       </c>
       <c r="AG4" s="0">
         <v>0.03</v>
@@ -1431,13 +1431,13 @@
         <v>310.209</v>
       </c>
       <c r="O5" s="0">
-        <v>94</v>
+        <v>96.08</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
       </c>
       <c r="Q5" s="0">
-        <v>1.05016</v>
+        <v>1.03417</v>
       </c>
       <c r="R5" s="0">
         <v>0.98198</v>
@@ -1446,49 +1446,49 @@
         <v>0</v>
       </c>
       <c r="T5" s="0">
-        <v>531</v>
+        <v>461</v>
       </c>
       <c r="U5" s="0">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="V5" s="0">
-        <v>598</v>
+        <v>548</v>
       </c>
       <c r="W5" s="0">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="X5" s="0">
-        <v>9.23</v>
+        <v>8.56</v>
       </c>
       <c r="Y5" s="0">
-        <v>9.61</v>
+        <v>8.79</v>
       </c>
       <c r="Z5" s="0">
-        <v>9.61</v>
+        <v>8.79</v>
       </c>
       <c r="AA5" s="0">
-        <v>-3.411</v>
+        <v>-1.274</v>
       </c>
       <c r="AB5" s="0">
-        <v>-5.012</v>
+        <v>-2.904</v>
       </c>
       <c r="AC5" s="0">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="AD5" s="0">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="AE5" s="0">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="AF5" s="0">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AG5" s="0">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AH5" s="0">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AI5" s="0" t="s">
         <v>47</v>
@@ -1538,64 +1538,64 @@
         <v>543.018</v>
       </c>
       <c r="O6" s="0">
-        <v>79</v>
+        <v>78.32</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>1.54495</v>
+        <v>1.47568</v>
       </c>
       <c r="R6" s="0">
         <v>1.52819</v>
       </c>
       <c r="S6" s="0">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T6" s="0">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="U6" s="0">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="V6" s="0">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="W6" s="0">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="X6" s="0">
-        <v>10.97</v>
+        <v>11.32</v>
       </c>
       <c r="Y6" s="0">
-        <v>19.62</v>
+        <v>20.64</v>
       </c>
       <c r="Z6" s="0">
-        <v>19.62</v>
+        <v>20.64</v>
       </c>
       <c r="AA6" s="0">
-        <v>-8.692</v>
+        <v>-7.708</v>
       </c>
       <c r="AB6" s="0">
-        <v>-9.804</v>
+        <v>-8.932</v>
       </c>
       <c r="AC6" s="0">
-        <v>-0.27</v>
+        <v>-0.25</v>
       </c>
       <c r="AD6" s="0">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AE6" s="0">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AF6" s="0">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="AG6" s="0">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AH6" s="0">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AI6" s="0" t="s">
         <v>47</v>
@@ -1645,25 +1645,25 @@
         <v>380.112</v>
       </c>
       <c r="O7" s="0">
-        <v>84.8</v>
+        <v>83.12</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>1.16086</v>
+        <v>1.09628</v>
       </c>
       <c r="R7" s="0">
         <v>1.11127</v>
       </c>
       <c r="S7" s="0">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T7" s="0">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="U7" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V7" s="0">
         <v>522</v>
@@ -1672,28 +1672,28 @@
         <v>46</v>
       </c>
       <c r="X7" s="0">
-        <v>10.57</v>
+        <v>11.08</v>
       </c>
       <c r="Y7" s="0">
-        <v>19</v>
+        <v>21.17</v>
       </c>
       <c r="Z7" s="0">
-        <v>19</v>
+        <v>21.17</v>
       </c>
       <c r="AA7" s="0">
-        <v>-5.652</v>
+        <v>-5.713</v>
       </c>
       <c r="AB7" s="0">
-        <v>-6.465</v>
+        <v>-6.632</v>
       </c>
       <c r="AC7" s="0">
-        <v>-0.26</v>
+        <v>-0.32</v>
       </c>
       <c r="AD7" s="0">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AE7" s="0">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AF7" s="0">
         <v>-0.34</v>
@@ -1752,64 +1752,64 @@
         <v>221.929</v>
       </c>
       <c r="O8" s="0">
-        <v>86</v>
+        <v>81.6</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.68736</v>
+        <v>0.62836</v>
       </c>
       <c r="R8" s="0">
         <v>0.65402</v>
       </c>
       <c r="S8" s="0">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T8" s="0">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="U8" s="0">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="V8" s="0">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="W8" s="0">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="X8" s="0">
-        <v>9.85</v>
+        <v>10.88</v>
       </c>
       <c r="Y8" s="0">
-        <v>23.66</v>
+        <v>30.89</v>
       </c>
       <c r="Z8" s="0">
-        <v>23.66</v>
+        <v>30.89</v>
       </c>
       <c r="AA8" s="0">
-        <v>-5.077</v>
+        <v>-8.037</v>
       </c>
       <c r="AB8" s="0">
-        <v>-5.468</v>
+        <v>-8.574</v>
       </c>
       <c r="AC8" s="0">
-        <v>-0.96</v>
+        <v>-1.29</v>
       </c>
       <c r="AD8" s="0">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AE8" s="0">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AF8" s="0">
-        <v>-0.4</v>
+        <v>-0.46</v>
       </c>
       <c r="AG8" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH8" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI8" s="0" t="s">
         <v>47</v>
@@ -1859,19 +1859,19 @@
         <v>306.923</v>
       </c>
       <c r="O9" s="0">
-        <v>99.24</v>
+        <v>95.76</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>1.09696</v>
+        <v>1.01981</v>
       </c>
       <c r="R9" s="0">
         <v>1.0171</v>
       </c>
       <c r="S9" s="0">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="T9" s="0">
         <v>463</v>
@@ -1895,10 +1895,10 @@
         <v>99.99</v>
       </c>
       <c r="AA9" s="0">
-        <v>-2.591</v>
+        <v>-3.568</v>
       </c>
       <c r="AB9" s="0">
-        <v>-2.449</v>
+        <v>-3.726</v>
       </c>
       <c r="AC9" s="0">
         <v>-1.09</v>
@@ -1966,58 +1966,58 @@
         <v>141.657</v>
       </c>
       <c r="O10" s="0">
-        <v>86</v>
+        <v>86.08</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.43874</v>
+        <v>0.4231</v>
       </c>
       <c r="R10" s="0">
         <v>0.42151</v>
       </c>
       <c r="S10" s="0">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T10" s="0">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="U10" s="0">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="V10" s="0">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="W10" s="0">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="X10" s="0">
-        <v>8.7</v>
+        <v>8.6</v>
       </c>
       <c r="Y10" s="0">
-        <v>12.32</v>
+        <v>12.46</v>
       </c>
       <c r="Z10" s="0">
-        <v>12.32</v>
+        <v>12.46</v>
       </c>
       <c r="AA10" s="0">
-        <v>-5.99</v>
+        <v>-3.785</v>
       </c>
       <c r="AB10" s="0">
-        <v>-7.772</v>
+        <v>-5.572</v>
       </c>
       <c r="AC10" s="0">
-        <v>2.21</v>
+        <v>2.32</v>
       </c>
       <c r="AD10" s="0">
-        <v>3.56</v>
+        <v>3.51</v>
       </c>
       <c r="AE10" s="0">
-        <v>3.56</v>
+        <v>3.51</v>
       </c>
       <c r="AF10" s="0">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="AG10" s="0">
         <v>0.17</v>
@@ -2073,13 +2073,13 @@
         <v>258.508</v>
       </c>
       <c r="O11" s="0">
-        <v>86.2</v>
+        <v>84</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.80252</v>
+        <v>0.75346</v>
       </c>
       <c r="R11" s="0">
         <v>0.82605</v>
@@ -2088,43 +2088,43 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="U11" s="0">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="V11" s="0">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="W11" s="0">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="X11" s="0">
-        <v>9.72</v>
+        <v>10.34</v>
       </c>
       <c r="Y11" s="0">
-        <v>22.42</v>
+        <v>26.75</v>
       </c>
       <c r="Z11" s="0">
-        <v>22.42</v>
+        <v>26.75</v>
       </c>
       <c r="AA11" s="0">
-        <v>-12.256</v>
+        <v>-14.495</v>
       </c>
       <c r="AB11" s="0">
-        <v>-12.959</v>
+        <v>-15.276</v>
       </c>
       <c r="AC11" s="0">
-        <v>-0.82</v>
+        <v>-1.14</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AF11" s="0">
-        <v>-0.41</v>
+        <v>-0.48</v>
       </c>
       <c r="AG11" s="0">
         <v>0.01</v>
@@ -2180,58 +2180,58 @@
         <v>361.911</v>
       </c>
       <c r="O12" s="0">
-        <v>93.68</v>
+        <v>93.04</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>1.22102</v>
+        <v>1.16837</v>
       </c>
       <c r="R12" s="0">
         <v>1.09055</v>
       </c>
       <c r="S12" s="0">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T12" s="0">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="U12" s="0">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="V12" s="0">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W12" s="0">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="X12" s="0">
-        <v>9.09</v>
+        <v>9.4</v>
       </c>
       <c r="Y12" s="0">
-        <v>12.82</v>
+        <v>12.48</v>
       </c>
       <c r="Z12" s="0">
-        <v>12.82</v>
+        <v>12.48</v>
       </c>
       <c r="AA12" s="0">
-        <v>1.123</v>
+        <v>2.105</v>
       </c>
       <c r="AB12" s="0">
-        <v>0.367</v>
+        <v>1.301</v>
       </c>
       <c r="AC12" s="0">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AD12" s="0">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AE12" s="0">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AF12" s="0">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AG12" s="0">
         <v>0.02</v>
@@ -2287,64 +2287,64 @@
         <v>873.751</v>
       </c>
       <c r="O13" s="0">
-        <v>86.12</v>
+        <v>88.12</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>2.70997</v>
+        <v>2.67158</v>
       </c>
       <c r="R13" s="0">
         <v>2.81137</v>
       </c>
       <c r="S13" s="0">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T13" s="0">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="U13" s="0">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="V13" s="0">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="W13" s="0">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="X13" s="0">
-        <v>9.3</v>
+        <v>9.26</v>
       </c>
       <c r="Y13" s="0">
-        <v>9.71</v>
+        <v>8.94</v>
       </c>
       <c r="Z13" s="0">
-        <v>9.71</v>
+        <v>8.94</v>
       </c>
       <c r="AA13" s="0">
-        <v>-12.94</v>
+        <v>-9.313</v>
       </c>
       <c r="AB13" s="0">
-        <v>-15.438</v>
+        <v>-11.914</v>
       </c>
       <c r="AC13" s="0">
-        <v>4.03</v>
+        <v>4.33</v>
       </c>
       <c r="AD13" s="0">
-        <v>4.82</v>
+        <v>4.9</v>
       </c>
       <c r="AE13" s="0">
-        <v>4.82</v>
+        <v>4.9</v>
       </c>
       <c r="AF13" s="0">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="AG13" s="0">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="AH13" s="0">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="AI13" s="0" t="s">
         <v>47</v>
@@ -2394,58 +2394,58 @@
         <v>607.827</v>
       </c>
       <c r="O14" s="0">
-        <v>90.72</v>
+        <v>91.6</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>1.98589</v>
+        <v>1.93189</v>
       </c>
       <c r="R14" s="0">
         <v>1.9937</v>
       </c>
       <c r="S14" s="0">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T14" s="0">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="U14" s="0">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="V14" s="0">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="W14" s="0">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="X14" s="0">
-        <v>9.78</v>
+        <v>9.64</v>
       </c>
       <c r="Y14" s="0">
-        <v>11.37</v>
+        <v>10.36</v>
       </c>
       <c r="Z14" s="0">
-        <v>11.37</v>
+        <v>10.36</v>
       </c>
       <c r="AA14" s="0">
-        <v>-10.036</v>
+        <v>-7.583</v>
       </c>
       <c r="AB14" s="0">
-        <v>-11.617</v>
+        <v>-9.193</v>
       </c>
       <c r="AC14" s="0">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="AD14" s="0">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="AE14" s="0">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="AF14" s="0">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="AG14" s="0">
         <v>0.07</v>
@@ -2501,13 +2501,13 @@
         <v>409.131</v>
       </c>
       <c r="O15" s="0">
-        <v>79.8</v>
+        <v>81</v>
       </c>
       <c r="P15" s="0">
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1.17581</v>
+        <v>1.14988</v>
       </c>
       <c r="R15" s="0">
         <v>1.11147</v>
@@ -2516,43 +2516,43 @@
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="U15" s="0">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="V15" s="0">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="W15" s="0">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="X15" s="0">
-        <v>6.41</v>
+        <v>6.66</v>
       </c>
       <c r="Y15" s="0">
-        <v>6.81</v>
+        <v>7.09</v>
       </c>
       <c r="Z15" s="0">
-        <v>6.81</v>
+        <v>7.09</v>
       </c>
       <c r="AA15" s="0">
-        <v>-4.454</v>
+        <v>-3.017</v>
       </c>
       <c r="AB15" s="0">
-        <v>-5.272</v>
+        <v>-3.743</v>
       </c>
       <c r="AC15" s="0">
-        <v>5.04</v>
+        <v>4.86</v>
       </c>
       <c r="AD15" s="0">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="AE15" s="0">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="AF15" s="0">
-        <v>34.58</v>
+        <v>33.39</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>1028.517</v>
       </c>
       <c r="O16" s="0">
-        <v>98.76</v>
+        <v>100.36</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>3.65819</v>
+        <v>3.58161</v>
       </c>
       <c r="R16" s="0">
         <v>3.40971</v>
@@ -2623,49 +2623,49 @@
         <v>1.61</v>
       </c>
       <c r="T16" s="0">
-        <v>-26</v>
+        <v>-137</v>
       </c>
       <c r="U16" s="0">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="V16" s="0">
-        <v>24</v>
+        <v>-84</v>
       </c>
       <c r="W16" s="0">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="X16" s="0">
-        <v>3.35</v>
+        <v>2.29</v>
       </c>
       <c r="Y16" s="0">
-        <v>6.59</v>
+        <v>1.87</v>
       </c>
       <c r="Z16" s="0">
-        <v>6.59</v>
+        <v>6.5</v>
       </c>
       <c r="AA16" s="0">
-        <v>-1.518</v>
+        <v>0.052</v>
       </c>
       <c r="AB16" s="0">
-        <v>-1.845</v>
+        <v>-0.469</v>
       </c>
       <c r="AC16" s="0">
-        <v>2.56</v>
+        <v>0.73</v>
       </c>
       <c r="AD16" s="0">
-        <v>14.2</v>
+        <v>0.09</v>
       </c>
       <c r="AE16" s="0">
-        <v>14.2</v>
+        <v>14.29</v>
       </c>
       <c r="AF16" s="0">
-        <v>-2.46</v>
+        <v>-1.4</v>
       </c>
       <c r="AG16" s="0">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="0">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AI16" s="0" t="s">
         <v>100</v>
@@ -2688,7 +2688,7 @@
         <v>4.537</v>
       </c>
       <c r="F17" s="2">
-        <v>44998</v>
+        <v>45015</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>104</v>
@@ -2712,7 +2712,7 @@
         <v>103</v>
       </c>
       <c r="N17" s="0">
-        <v>44.657</v>
+        <v>240.969</v>
       </c>
       <c r="O17" s="0">
         <v>100</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.16083</v>
+        <v>0.83612</v>
       </c>
       <c r="R17" s="0">
         <v>0</v>
@@ -2822,64 +2822,64 @@
         <v>310.209</v>
       </c>
       <c r="O18" s="0">
-        <v>79.2</v>
+        <v>94.32</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.88482</v>
+        <v>1.01523</v>
       </c>
       <c r="R18" s="0">
         <v>1.02517</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T18" s="0">
-        <v>502</v>
+        <v>322</v>
       </c>
       <c r="U18" s="0">
-        <v>442</v>
+        <v>262</v>
       </c>
       <c r="V18" s="0">
-        <v>438</v>
+        <v>362</v>
       </c>
       <c r="W18" s="0">
-        <v>392</v>
+        <v>316</v>
       </c>
       <c r="X18" s="0">
-        <v>10.64</v>
+        <v>8.96</v>
       </c>
       <c r="Y18" s="0">
-        <v>32.77</v>
+        <v>12.49</v>
       </c>
       <c r="Z18" s="0">
-        <v>32.77</v>
+        <v>12.49</v>
       </c>
       <c r="AA18" s="0">
-        <v>-22.047</v>
+        <v>-5.603</v>
       </c>
       <c r="AB18" s="0">
-        <v>-22.81</v>
+        <v>-6.436</v>
       </c>
       <c r="AC18" s="0">
-        <v>-1.78</v>
+        <v>0.16</v>
       </c>
       <c r="AD18" s="0">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="AE18" s="0">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="AF18" s="0">
-        <v>-0.61</v>
+        <v>-0.21</v>
       </c>
       <c r="AG18" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AH18" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AI18" s="0" t="s">
         <v>47</v>
@@ -2929,55 +2929,55 @@
         <v>509.26</v>
       </c>
       <c r="O19" s="0">
-        <v>99.32</v>
+        <v>98.16</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1.82159</v>
+        <v>1.73452</v>
       </c>
       <c r="R19" s="0">
         <v>1.70286</v>
       </c>
       <c r="S19" s="0">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="T19" s="0">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="U19" s="0">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="V19" s="0">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="W19" s="0">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="X19" s="0">
-        <v>6.55</v>
+        <v>6.71</v>
       </c>
       <c r="Y19" s="0">
-        <v>8.27</v>
+        <v>8.15</v>
       </c>
       <c r="Z19" s="0">
-        <v>8.27</v>
+        <v>8.15</v>
       </c>
       <c r="AA19" s="0">
-        <v>-3.385</v>
+        <v>-2.872</v>
       </c>
       <c r="AB19" s="0">
-        <v>-4.456</v>
+        <v>-3.993</v>
       </c>
       <c r="AC19" s="0">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AD19" s="0">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AE19" s="0">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF19" s="0">
         <v>-0.12</v>
@@ -3036,58 +3036,58 @@
         <v>434.293</v>
       </c>
       <c r="O20" s="0">
-        <v>100.4</v>
+        <v>98.36</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>1.57033</v>
+        <v>1.4822</v>
       </c>
       <c r="R20" s="0">
         <v>1.45219</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="T20" s="0">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="U20" s="0">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="V20" s="0">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="W20" s="0">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="X20" s="0">
-        <v>6.51</v>
+        <v>7.03</v>
       </c>
       <c r="Y20" s="0">
-        <v>8.25</v>
+        <v>8.93</v>
       </c>
       <c r="Z20" s="0">
-        <v>8.25</v>
+        <v>8.93</v>
       </c>
       <c r="AA20" s="0">
-        <v>-2.335</v>
+        <v>-2.592</v>
       </c>
       <c r="AB20" s="0">
-        <v>-3.079</v>
+        <v>-3.412</v>
       </c>
       <c r="AC20" s="0">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="AD20" s="0">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AE20" s="0">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AF20" s="0">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="AG20" s="0">
         <v>0.02</v>
@@ -3143,13 +3143,13 @@
         <v>268.848</v>
       </c>
       <c r="O21" s="0">
-        <v>74.2</v>
+        <v>72.64</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.71843</v>
+        <v>0.67762</v>
       </c>
       <c r="R21" s="0">
         <v>0.70099</v>
@@ -3158,43 +3158,43 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="U21" s="0">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="V21" s="0">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="W21" s="0">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="X21" s="0">
-        <v>12.23</v>
+        <v>12.84</v>
       </c>
       <c r="Y21" s="0">
-        <v>21.46</v>
+        <v>22.95</v>
       </c>
       <c r="Z21" s="0">
-        <v>21.46</v>
+        <v>22.95</v>
       </c>
       <c r="AA21" s="0">
-        <v>-7.435</v>
+        <v>-9.381</v>
       </c>
       <c r="AB21" s="0">
-        <v>-8.576</v>
+        <v>-10.647</v>
       </c>
       <c r="AC21" s="0">
-        <v>-0.28</v>
+        <v>-0.46</v>
       </c>
       <c r="AD21" s="0">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="AE21" s="0">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="AF21" s="0">
-        <v>-0.46</v>
+        <v>-0.48</v>
       </c>
       <c r="AG21" s="0">
         <v>0.06</v>
@@ -3250,13 +3250,13 @@
         <v>206.806</v>
       </c>
       <c r="O22" s="0">
-        <v>78.4</v>
+        <v>76.56</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.58392</v>
+        <v>0.54938</v>
       </c>
       <c r="R22" s="0">
         <v>0.57043</v>
@@ -3265,43 +3265,43 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>709</v>
+        <v>738</v>
       </c>
       <c r="U22" s="0">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="V22" s="0">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="W22" s="0">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="X22" s="0">
-        <v>12.71</v>
+        <v>13.45</v>
       </c>
       <c r="Y22" s="0">
-        <v>34.22</v>
+        <v>38.84</v>
       </c>
       <c r="Z22" s="0">
-        <v>34.22</v>
+        <v>38.84</v>
       </c>
       <c r="AA22" s="0">
-        <v>-7.547</v>
+        <v>-9.717</v>
       </c>
       <c r="AB22" s="0">
-        <v>-7.808</v>
+        <v>-10.13</v>
       </c>
       <c r="AC22" s="0">
-        <v>-1.31</v>
+        <v>-1.53</v>
       </c>
       <c r="AD22" s="0">
-        <v>0.87</v>
+        <v>0.81</v>
       </c>
       <c r="AE22" s="0">
-        <v>0.87</v>
+        <v>0.81</v>
       </c>
       <c r="AF22" s="0">
-        <v>-0.41</v>
+        <v>-0.43</v>
       </c>
       <c r="AG22" s="0">
         <v>0.01</v>
@@ -3357,13 +3357,13 @@
         <v>336.06</v>
       </c>
       <c r="O23" s="0">
-        <v>80.08</v>
+        <v>78.84</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.9692</v>
+        <v>0.91933</v>
       </c>
       <c r="R23" s="0">
         <v>0.97636</v>
@@ -3372,43 +3372,43 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="U23" s="0">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="V23" s="0">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="W23" s="0">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="X23" s="0">
-        <v>12.89</v>
+        <v>13.49</v>
       </c>
       <c r="Y23" s="0">
-        <v>31.78</v>
+        <v>35.24</v>
       </c>
       <c r="Z23" s="0">
-        <v>31.78</v>
+        <v>35.24</v>
       </c>
       <c r="AA23" s="0">
-        <v>-10.345</v>
+        <v>-11.733</v>
       </c>
       <c r="AB23" s="0">
-        <v>-10.758</v>
+        <v>-12.277</v>
       </c>
       <c r="AC23" s="0">
-        <v>-1.04</v>
+        <v>-1.2</v>
       </c>
       <c r="AD23" s="0">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="AE23" s="0">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="AF23" s="0">
-        <v>-0.37</v>
+        <v>-0.38</v>
       </c>
       <c r="AG23" s="0">
         <v>0.01</v>
@@ -3464,13 +3464,13 @@
         <v>413.613</v>
       </c>
       <c r="O24" s="0">
-        <v>88.24</v>
+        <v>87.88</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>1.31442</v>
+        <v>1.26122</v>
       </c>
       <c r="R24" s="0">
         <v>1.26787</v>
@@ -3479,49 +3479,49 @@
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="U24" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="V24" s="0">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="W24" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="X24" s="0">
-        <v>9.28</v>
+        <v>9.53</v>
       </c>
       <c r="Y24" s="0">
-        <v>9.99</v>
+        <v>10.2</v>
       </c>
       <c r="Z24" s="0">
-        <v>9.99</v>
+        <v>10.2</v>
       </c>
       <c r="AA24" s="0">
-        <v>-6.367</v>
+        <v>-6.749</v>
       </c>
       <c r="AB24" s="0">
-        <v>-8.561</v>
+        <v>-9.096</v>
       </c>
       <c r="AC24" s="0">
-        <v>3.31</v>
+        <v>3.21</v>
       </c>
       <c r="AD24" s="0">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="AE24" s="0">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="AF24" s="0">
-        <v>-0.09</v>
+        <v>-0.11</v>
       </c>
       <c r="AG24" s="0">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AH24" s="0">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AI24" s="0" t="s">
         <v>47</v>
@@ -3571,13 +3571,13 @@
         <v>827.225</v>
       </c>
       <c r="O25" s="0">
-        <v>92.72</v>
+        <v>93.6</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>2.7623</v>
+        <v>2.68662</v>
       </c>
       <c r="R25" s="0">
         <v>2.61862</v>
@@ -3586,43 +3586,43 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="U25" s="0">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="V25" s="0">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="W25" s="0">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="X25" s="0">
-        <v>10.6</v>
+        <v>10.78</v>
       </c>
       <c r="Y25" s="0">
-        <v>15.36</v>
+        <v>15.12</v>
       </c>
       <c r="Z25" s="0">
-        <v>15.36</v>
+        <v>15.12</v>
       </c>
       <c r="AA25" s="0">
-        <v>-4.727</v>
+        <v>-3.822</v>
       </c>
       <c r="AB25" s="0">
-        <v>-5.47</v>
+        <v>-4.641</v>
       </c>
       <c r="AC25" s="0">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="AD25" s="0">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="0">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AF25" s="0">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="AG25" s="0">
         <v>0.02</v>
@@ -3678,13 +3678,13 @@
         <v>108.056</v>
       </c>
       <c r="O26" s="0">
-        <v>86.88</v>
+        <v>90.72</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.3381</v>
+        <v>0.34014</v>
       </c>
       <c r="R26" s="0">
         <v>0.33939</v>
@@ -3693,43 +3693,43 @@
         <v>2.06</v>
       </c>
       <c r="T26" s="0">
-        <v>758</v>
+        <v>697</v>
       </c>
       <c r="U26" s="0">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="V26" s="0">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="W26" s="0">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="X26" s="0">
-        <v>12.97</v>
+        <v>12.59</v>
       </c>
       <c r="Y26" s="0">
-        <v>18.85</v>
+        <v>16.11</v>
       </c>
       <c r="Z26" s="0">
-        <v>18.85</v>
+        <v>16.11</v>
       </c>
       <c r="AA26" s="0">
-        <v>-7.889</v>
+        <v>-3.912</v>
       </c>
       <c r="AB26" s="0">
-        <v>-8.823</v>
+        <v>-4.912</v>
       </c>
       <c r="AC26" s="0">
-        <v>0.32</v>
+        <v>0.55</v>
       </c>
       <c r="AD26" s="0">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AE26" s="0">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF26" s="0">
-        <v>-0.18</v>
+        <v>-0.14</v>
       </c>
       <c r="AG26" s="0">
         <v>0.03</v>
@@ -3785,13 +3785,13 @@
         <v>212.74</v>
       </c>
       <c r="O27" s="0">
-        <v>70.04</v>
+        <v>68.4</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>0.53662</v>
+        <v>0.50491</v>
       </c>
       <c r="R27" s="0">
         <v>0.52286</v>
@@ -3800,49 +3800,49 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>834</v>
+        <v>868</v>
       </c>
       <c r="U27" s="0">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="V27" s="0">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="W27" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="X27" s="0">
-        <v>13.11</v>
+        <v>13.67</v>
       </c>
       <c r="Y27" s="0">
-        <v>18.93</v>
+        <v>20.04</v>
       </c>
       <c r="Z27" s="0">
-        <v>18.93</v>
+        <v>20.04</v>
       </c>
       <c r="AA27" s="0">
-        <v>-7.305</v>
+        <v>-9.476</v>
       </c>
       <c r="AB27" s="0">
-        <v>-8.891</v>
+        <v>-11.204</v>
       </c>
       <c r="AC27" s="0">
-        <v>1.12</v>
+        <v>0.94</v>
       </c>
       <c r="AD27" s="0">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AE27" s="0">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AF27" s="0">
-        <v>-0.31</v>
+        <v>-0.34</v>
       </c>
       <c r="AG27" s="0">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AH27" s="0">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AI27" s="0" t="s">
         <v>47</v>
@@ -3892,13 +3892,13 @@
         <v>767.684</v>
       </c>
       <c r="O28" s="0">
-        <v>78.44</v>
+        <v>80.44</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>2.16867</v>
+        <v>2.1427</v>
       </c>
       <c r="R28" s="0">
         <v>2.09753</v>
@@ -3907,43 +3907,43 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="U28" s="0">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="V28" s="0">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="W28" s="0">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="X28" s="0">
-        <v>6.02</v>
+        <v>6.11</v>
       </c>
       <c r="Y28" s="0">
-        <v>7.25</v>
+        <v>7.45</v>
       </c>
       <c r="Z28" s="0">
-        <v>7.25</v>
+        <v>7.45</v>
       </c>
       <c r="AA28" s="0">
-        <v>-6.619</v>
+        <v>-4.238</v>
       </c>
       <c r="AB28" s="0">
-        <v>-7.244</v>
+        <v>-4.988</v>
       </c>
       <c r="AC28" s="0">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="AE28" s="0">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="AF28" s="0">
-        <v>24.29</v>
+        <v>24.04</v>
       </c>
       <c r="AG28" s="0">
         <v>0</v>
@@ -3999,13 +3999,13 @@
         <v>1381.834</v>
       </c>
       <c r="O29" s="0">
-        <v>79</v>
+        <v>81.28</v>
       </c>
       <c r="P29" s="0">
         <v>0</v>
       </c>
       <c r="Q29" s="0">
-        <v>3.93148</v>
+        <v>3.89714</v>
       </c>
       <c r="R29" s="0">
         <v>3.72342</v>
@@ -4014,43 +4014,43 @@
         <v>0</v>
       </c>
       <c r="T29" s="0">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="U29" s="0">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="V29" s="0">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="W29" s="0">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="X29" s="0">
-        <v>5.89</v>
+        <v>5.95</v>
       </c>
       <c r="Y29" s="0">
-        <v>7.1</v>
+        <v>7.28</v>
       </c>
       <c r="Z29" s="0">
-        <v>7.1</v>
+        <v>7.28</v>
       </c>
       <c r="AA29" s="0">
-        <v>-4.635</v>
+        <v>-1.883</v>
       </c>
       <c r="AB29" s="0">
-        <v>-5.208</v>
+        <v>-2.529</v>
       </c>
       <c r="AC29" s="0">
-        <v>3.38</v>
+        <v>3.31</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="AF29" s="0">
-        <v>29.56</v>
+        <v>28.16</v>
       </c>
       <c r="AG29" s="0">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>204.72</v>
       </c>
       <c r="O30" s="0">
-        <v>81.6</v>
+        <v>82.08</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
       </c>
       <c r="Q30" s="0">
-        <v>0.60162</v>
+        <v>0.58305</v>
       </c>
       <c r="R30" s="0">
         <v>0.56282</v>
@@ -4121,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="U30" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V30" s="0">
         <v>99</v>
@@ -4133,31 +4133,31 @@
         <v>43</v>
       </c>
       <c r="X30" s="0">
-        <v>5.61</v>
+        <v>5.92</v>
       </c>
       <c r="Y30" s="0">
-        <v>6.97</v>
+        <v>7.3</v>
       </c>
       <c r="Z30" s="0">
-        <v>6.97</v>
+        <v>7.3</v>
       </c>
       <c r="AA30" s="0">
-        <v>-3.455</v>
+        <v>-2.887</v>
       </c>
       <c r="AB30" s="0">
-        <v>-4.085</v>
+        <v>-3.603</v>
       </c>
       <c r="AC30" s="0">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
       <c r="AD30" s="0">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.11</v>
+        <v>0.07</v>
       </c>
       <c r="AF30" s="0">
-        <v>27.43</v>
+        <v>27.35</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -4213,13 +4213,13 @@
         <v>716.52</v>
       </c>
       <c r="O31" s="0">
-        <v>98.84</v>
+        <v>100.84</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>2.55055</v>
+        <v>2.50707</v>
       </c>
       <c r="R31" s="0">
         <v>2.36047</v>
@@ -4228,43 +4228,43 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="U31" s="0">
+        <v>135</v>
+      </c>
+      <c r="V31" s="0">
         <v>215</v>
       </c>
-      <c r="V31" s="0">
-        <v>320</v>
-      </c>
       <c r="W31" s="0">
-        <v>299</v>
+        <v>194</v>
       </c>
       <c r="X31" s="0">
-        <v>7.83</v>
+        <v>7.14</v>
       </c>
       <c r="Y31" s="0">
-        <v>8.06</v>
+        <v>6.48</v>
       </c>
       <c r="Z31" s="0">
-        <v>8.06</v>
+        <v>6.48</v>
       </c>
       <c r="AA31" s="0">
-        <v>-2.409</v>
+        <v>-0.434</v>
       </c>
       <c r="AB31" s="0">
-        <v>-3.238</v>
+        <v>-1.326</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.78</v>
+        <v>1.02</v>
       </c>
       <c r="AD31" s="0">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AE31" s="0">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AF31" s="0">
-        <v>-0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AG31" s="0">
         <v>0.02</v>
@@ -4320,13 +4320,13 @@
         <v>202.062</v>
       </c>
       <c r="O32" s="0">
-        <v>71.32</v>
+        <v>74.82</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.519</v>
+        <v>0.52458</v>
       </c>
       <c r="R32" s="0">
         <v>0.59836</v>
@@ -4335,43 +4335,43 @@
         <v>1.88</v>
       </c>
       <c r="T32" s="0">
-        <v>758</v>
+        <v>702</v>
       </c>
       <c r="U32" s="0">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="V32" s="0">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="W32" s="0">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="X32" s="0">
-        <v>12.71</v>
+        <v>12.3</v>
       </c>
       <c r="Y32" s="0">
-        <v>16.87</v>
+        <v>15.69</v>
       </c>
       <c r="Z32" s="0">
-        <v>16.87</v>
+        <v>15.69</v>
       </c>
       <c r="AA32" s="0">
-        <v>-19.601</v>
+        <v>-15.757</v>
       </c>
       <c r="AB32" s="0">
-        <v>-21.503</v>
+        <v>-17.818</v>
       </c>
       <c r="AC32" s="0">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AD32" s="0">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="AE32" s="0">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="AF32" s="0">
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="AG32" s="0">
         <v>0.16</v>
@@ -4427,13 +4427,13 @@
         <v>517.016</v>
       </c>
       <c r="O33" s="0">
-        <v>75</v>
+        <v>91.76</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>1.39649</v>
+        <v>1.64613</v>
       </c>
       <c r="R33" s="0">
         <v>1.68843</v>
@@ -4442,49 +4442,49 @@
         <v>0</v>
       </c>
       <c r="T33" s="0">
-        <v>536</v>
+        <v>352</v>
       </c>
       <c r="U33" s="0">
-        <v>388</v>
+        <v>204</v>
       </c>
       <c r="V33" s="0">
-        <v>462</v>
+        <v>390</v>
       </c>
       <c r="W33" s="0">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="X33" s="0">
-        <v>10.72</v>
+        <v>8.87</v>
       </c>
       <c r="Y33" s="0">
-        <v>15.22</v>
+        <v>8.94</v>
       </c>
       <c r="Z33" s="0">
-        <v>15.22</v>
+        <v>8.94</v>
       </c>
       <c r="AA33" s="0">
-        <v>-25.299</v>
+        <v>-8.606</v>
       </c>
       <c r="AB33" s="0">
-        <v>-27.337</v>
+        <v>-10.695</v>
       </c>
       <c r="AC33" s="0">
-        <v>0.93</v>
+        <v>2.49</v>
       </c>
       <c r="AD33" s="0">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="AE33" s="0">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="AF33" s="0">
-        <v>-0.49</v>
+        <v>-0.1</v>
       </c>
       <c r="AG33" s="0">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AI33" s="0" t="s">
         <v>47</v>
@@ -4534,13 +4534,13 @@
         <v>620.419</v>
       </c>
       <c r="O34" s="0">
-        <v>70.04</v>
+        <v>88.24</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>1.56496</v>
+        <v>1.89958</v>
       </c>
       <c r="R34" s="0">
         <v>2.00594</v>
@@ -4549,49 +4549,49 @@
         <v>0</v>
       </c>
       <c r="T34" s="0">
-        <v>541</v>
+        <v>343</v>
       </c>
       <c r="U34" s="0">
-        <v>356</v>
+        <v>158</v>
       </c>
       <c r="V34" s="0">
-        <v>424</v>
+        <v>347</v>
       </c>
       <c r="W34" s="0">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="X34" s="0">
-        <v>9.49</v>
+        <v>7.43</v>
       </c>
       <c r="Y34" s="0">
-        <v>15.44</v>
+        <v>9.5</v>
       </c>
       <c r="Z34" s="0">
-        <v>15.44</v>
+        <v>9.5</v>
       </c>
       <c r="AA34" s="0">
-        <v>-29.537</v>
+        <v>-11.227</v>
       </c>
       <c r="AB34" s="0">
-        <v>-31.38</v>
+        <v>-13.14</v>
       </c>
       <c r="AC34" s="0">
-        <v>1.13</v>
+        <v>2.88</v>
       </c>
       <c r="AD34" s="0">
-        <v>3.72</v>
+        <v>3.87</v>
       </c>
       <c r="AE34" s="0">
-        <v>3.72</v>
+        <v>3.87</v>
       </c>
       <c r="AF34" s="0">
-        <v>-0.57</v>
+        <v>-0.14</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AH34" s="0">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AI34" s="0" t="s">
         <v>47</v>
@@ -4641,13 +4641,13 @@
         <v>155.105</v>
       </c>
       <c r="O35" s="0">
-        <v>74.4</v>
+        <v>76</v>
       </c>
       <c r="P35" s="0">
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>0.4156</v>
+        <v>0.40902</v>
       </c>
       <c r="R35" s="0">
         <v>0.41854</v>
@@ -4656,43 +4656,43 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="U35" s="0">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="V35" s="0">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="W35" s="0">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="X35" s="0">
-        <v>9.56</v>
+        <v>9.36</v>
       </c>
       <c r="Y35" s="0">
-        <v>14.65</v>
+        <v>14.2</v>
       </c>
       <c r="Z35" s="0">
-        <v>14.65</v>
+        <v>14.2</v>
       </c>
       <c r="AA35" s="0">
-        <v>-10.318</v>
+        <v>-8.39</v>
       </c>
       <c r="AB35" s="0">
-        <v>-12.25</v>
+        <v>-10.501</v>
       </c>
       <c r="AC35" s="0">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AD35" s="0">
-        <v>3.27</v>
+        <v>3.24</v>
       </c>
       <c r="AE35" s="0">
-        <v>3.27</v>
+        <v>3.24</v>
       </c>
       <c r="AF35" s="0">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="AG35" s="0">
         <v>0.14</v>
@@ -4748,64 +4748,64 @@
         <v>147.349</v>
       </c>
       <c r="O36" s="0">
-        <v>93.64</v>
+        <v>99.76</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>0.49691</v>
+        <v>0.51005</v>
       </c>
       <c r="R36" s="0">
         <v>0.5205</v>
       </c>
       <c r="S36" s="0">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T36" s="0">
-        <v>474</v>
+        <v>382</v>
       </c>
       <c r="U36" s="0">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="V36" s="0">
-        <v>472</v>
+        <v>424</v>
       </c>
       <c r="W36" s="0">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="X36" s="0">
-        <v>8.6</v>
+        <v>7.83</v>
       </c>
       <c r="Y36" s="0">
-        <v>10.63</v>
+        <v>8.4</v>
       </c>
       <c r="Z36" s="0">
-        <v>10.63</v>
+        <v>8.4</v>
       </c>
       <c r="AA36" s="0">
-        <v>-13.775</v>
+        <v>-6.241</v>
       </c>
       <c r="AB36" s="0">
-        <v>-15.809</v>
+        <v>-8.38</v>
       </c>
       <c r="AC36" s="0">
-        <v>2.81</v>
+        <v>3.35</v>
       </c>
       <c r="AD36" s="0">
-        <v>3.55</v>
+        <v>3.66</v>
       </c>
       <c r="AE36" s="0">
-        <v>3.55</v>
+        <v>3.66</v>
       </c>
       <c r="AF36" s="0">
-        <v>-0.06</v>
+        <v>0.07</v>
       </c>
       <c r="AG36" s="0">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AI36" s="0" t="s">
         <v>47</v>
@@ -4855,13 +4855,13 @@
         <v>620.419</v>
       </c>
       <c r="O37" s="0">
-        <v>92.4</v>
+        <v>91.96</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
       </c>
       <c r="Q37" s="0">
-        <v>2.06457</v>
+        <v>1.97966</v>
       </c>
       <c r="R37" s="0">
         <v>1.91311</v>
@@ -4870,43 +4870,43 @@
         <v>1.44</v>
       </c>
       <c r="T37" s="0">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="U37" s="0">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="V37" s="0">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="W37" s="0">
-        <v>-16</v>
+        <v>17</v>
       </c>
       <c r="X37" s="0">
-        <v>5.33</v>
+        <v>5.93</v>
       </c>
       <c r="Y37" s="0">
-        <v>6.3</v>
+        <v>6.78</v>
       </c>
       <c r="Z37" s="0">
-        <v>6.3</v>
+        <v>6.78</v>
       </c>
       <c r="AA37" s="0">
-        <v>-1.01</v>
+        <v>-1.474</v>
       </c>
       <c r="AB37" s="0">
-        <v>-1.746</v>
+        <v>-2.317</v>
       </c>
       <c r="AC37" s="0">
-        <v>0.99</v>
+        <v>3.02</v>
       </c>
       <c r="AD37" s="0">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AE37" s="0">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF37" s="0">
-        <v>8.98</v>
+        <v>18.7</v>
       </c>
       <c r="AG37" s="0">
         <v>0</v>
@@ -4962,13 +4962,13 @@
         <v>284.359</v>
       </c>
       <c r="O38" s="0">
-        <v>71.8</v>
+        <v>69.16</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>0.7353</v>
+        <v>0.68238</v>
       </c>
       <c r="R38" s="0">
         <v>0.73884</v>
@@ -4977,43 +4977,43 @@
         <v>1.63</v>
       </c>
       <c r="T38" s="0">
-        <v>757</v>
+        <v>801</v>
       </c>
       <c r="U38" s="0">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="V38" s="0">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="W38" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="X38" s="0">
-        <v>13.12</v>
+        <v>14.01</v>
       </c>
       <c r="Y38" s="0">
-        <v>24.95</v>
+        <v>27.86</v>
       </c>
       <c r="Z38" s="0">
-        <v>24.95</v>
+        <v>27.86</v>
       </c>
       <c r="AA38" s="0">
-        <v>-8.081</v>
+        <v>-11.386</v>
       </c>
       <c r="AB38" s="0">
-        <v>-9.027</v>
+        <v>-12.458</v>
       </c>
       <c r="AC38" s="0">
-        <v>-0.6</v>
+        <v>-0.88</v>
       </c>
       <c r="AD38" s="0">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AE38" s="0">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AF38" s="0">
-        <v>-0.44</v>
+        <v>-0.47</v>
       </c>
       <c r="AG38" s="0">
         <v>0.04</v>
@@ -5069,34 +5069,34 @@
         <v>910.974</v>
       </c>
       <c r="O39" s="0">
-        <v>77.16</v>
+        <v>80.6</v>
       </c>
       <c r="P39" s="0">
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>2.53146</v>
+        <v>2.54769</v>
       </c>
       <c r="R39" s="0">
         <v>2.49378</v>
       </c>
       <c r="S39" s="0">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="T39" s="0">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="U39" s="0">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="V39" s="0">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="W39" s="0">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="X39" s="0">
-        <v>6.99</v>
+        <v>6.9</v>
       </c>
       <c r="Y39" s="0">
         <v>7.31</v>
@@ -5105,22 +5105,22 @@
         <v>7.31</v>
       </c>
       <c r="AA39" s="0">
-        <v>-8.317</v>
+        <v>-2.599</v>
       </c>
       <c r="AB39" s="0">
-        <v>-9.102</v>
+        <v>-3.356</v>
       </c>
       <c r="AC39" s="0">
-        <v>4.5</v>
+        <v>4.59</v>
       </c>
       <c r="AD39" s="0">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AE39" s="0">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AF39" s="0">
-        <v>35.15</v>
+        <v>32.98</v>
       </c>
       <c r="AG39" s="0">
         <v>0</v>
@@ -5176,58 +5176,58 @@
         <v>828.158</v>
       </c>
       <c r="O40" s="0">
-        <v>95.2</v>
+        <v>98</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>2.83938</v>
+        <v>2.81608</v>
       </c>
       <c r="R40" s="0">
         <v>2.69915</v>
       </c>
       <c r="S40" s="0">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="T40" s="0">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="U40" s="0">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="V40" s="0">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="W40" s="0">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="X40" s="0">
-        <v>7.97</v>
+        <v>7.66</v>
       </c>
       <c r="Y40" s="0">
-        <v>7.57</v>
+        <v>6.83</v>
       </c>
       <c r="Z40" s="0">
-        <v>7.57</v>
+        <v>6.83</v>
       </c>
       <c r="AA40" s="0">
-        <v>-4.99</v>
+        <v>-0.736</v>
       </c>
       <c r="AB40" s="0">
-        <v>-7.095</v>
+        <v>-2.91</v>
       </c>
       <c r="AC40" s="0">
-        <v>3.09</v>
+        <v>3.42</v>
       </c>
       <c r="AD40" s="0">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="AE40" s="0">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="AF40" s="0">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AG40" s="0">
         <v>0.16</v>
@@ -5283,58 +5283,58 @@
         <v>828.158</v>
       </c>
       <c r="O41" s="0">
-        <v>99.68</v>
+        <v>98.8</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>2.973</v>
+        <v>2.83907</v>
       </c>
       <c r="R41" s="0">
         <v>2.73363</v>
       </c>
       <c r="S41" s="0">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T41" s="0">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="U41" s="0">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="V41" s="0">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="W41" s="0">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="X41" s="0">
-        <v>8.01</v>
+        <v>8.19</v>
       </c>
       <c r="Y41" s="0">
-        <v>7.36</v>
+        <v>8.23</v>
       </c>
       <c r="Z41" s="0">
-        <v>7.36</v>
+        <v>8.23</v>
       </c>
       <c r="AA41" s="0">
-        <v>-1.774</v>
+        <v>-1.07</v>
       </c>
       <c r="AB41" s="0">
-        <v>-2.895</v>
+        <v>-2.234</v>
       </c>
       <c r="AC41" s="0">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AD41" s="0">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AE41" s="0">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AF41" s="0">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="AG41" s="0">
         <v>0.03</v>
@@ -5390,13 +5390,13 @@
         <v>258.508</v>
       </c>
       <c r="O42" s="0">
-        <v>93.96</v>
+        <v>98.36</v>
       </c>
       <c r="P42" s="0">
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>0.87476</v>
+        <v>0.88226</v>
       </c>
       <c r="R42" s="0">
         <v>0.85094</v>
@@ -5405,43 +5405,43 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="U42" s="0">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="V42" s="0">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="W42" s="0">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="X42" s="0">
-        <v>8.1</v>
+        <v>7.36</v>
       </c>
       <c r="Y42" s="0">
-        <v>7.55</v>
+        <v>6.25</v>
       </c>
       <c r="Z42" s="0">
-        <v>7.55</v>
+        <v>6.25</v>
       </c>
       <c r="AA42" s="0">
-        <v>-7.154</v>
+        <v>-2.806</v>
       </c>
       <c r="AB42" s="0">
-        <v>-9.211</v>
+        <v>-4.913</v>
       </c>
       <c r="AC42" s="0">
-        <v>2.92</v>
+        <v>3.17</v>
       </c>
       <c r="AD42" s="0">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="AE42" s="0">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="AF42" s="0">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AG42" s="0">
         <v>0.14</v>
@@ -5497,13 +5497,13 @@
         <v>517.016</v>
       </c>
       <c r="O43" s="0">
-        <v>96.2</v>
+        <v>97</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>1.79123</v>
+        <v>1.74013</v>
       </c>
       <c r="R43" s="0">
         <v>1.68911</v>
@@ -5512,49 +5512,49 @@
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="U43" s="0">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="V43" s="0">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="W43" s="0">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="X43" s="0">
-        <v>7.14</v>
+        <v>7.05</v>
       </c>
       <c r="Y43" s="0">
-        <v>10.66</v>
+        <v>10.28</v>
       </c>
       <c r="Z43" s="0">
-        <v>10.66</v>
+        <v>10.28</v>
       </c>
       <c r="AA43" s="0">
-        <v>-4.221</v>
+        <v>-3.425</v>
       </c>
       <c r="AB43" s="0">
-        <v>-4.95</v>
+        <v>-4.227</v>
       </c>
       <c r="AC43" s="0">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="AD43" s="0">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="AE43" s="0">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="AF43" s="0">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="AG43" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH43" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI43" s="0" t="s">
         <v>47</v>
@@ -5604,13 +5604,13 @@
         <v>457.559</v>
       </c>
       <c r="O44" s="0">
-        <v>90.4</v>
+        <v>89.96</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>1.48967</v>
+        <v>1.42824</v>
       </c>
       <c r="R44" s="0">
         <v>1.45259</v>
@@ -5619,43 +5619,43 @@
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="U44" s="0">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="V44" s="0">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="W44" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="X44" s="0">
-        <v>9.53</v>
+        <v>9.92</v>
       </c>
       <c r="Y44" s="0">
-        <v>15.05</v>
+        <v>16.07</v>
       </c>
       <c r="Z44" s="0">
-        <v>15.05</v>
+        <v>16.07</v>
       </c>
       <c r="AA44" s="0">
-        <v>-7.377</v>
+        <v>-7.828</v>
       </c>
       <c r="AB44" s="0">
-        <v>-8.246</v>
+        <v>-8.765</v>
       </c>
       <c r="AC44" s="0">
-        <v>0.01</v>
+        <v>-0.08</v>
       </c>
       <c r="AD44" s="0">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AE44" s="0">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AF44" s="0">
-        <v>-0.25</v>
+        <v>-0.27</v>
       </c>
       <c r="AG44" s="0">
         <v>0.02</v>
@@ -5711,13 +5711,13 @@
         <v>744.503</v>
       </c>
       <c r="O45" s="0">
-        <v>94.4</v>
+        <v>96.57</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>2.53111</v>
+        <v>2.49458</v>
       </c>
       <c r="R45" s="0">
         <v>2.42553</v>
@@ -5747,10 +5747,10 @@
         <v>41.35</v>
       </c>
       <c r="AA45" s="0">
-        <v>-5.751</v>
+        <v>-3.588</v>
       </c>
       <c r="AB45" s="0">
-        <v>-5.746</v>
+        <v>-3.855</v>
       </c>
       <c r="AC45" s="0">
         <v>-0.7</v>
@@ -5818,64 +5818,64 @@
         <v>416.198</v>
       </c>
       <c r="O46" s="0">
-        <v>101.44</v>
+        <v>100.48</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>1.52049</v>
+        <v>1.45106</v>
       </c>
       <c r="R46" s="0">
         <v>1.40251</v>
       </c>
       <c r="S46" s="0">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="T46" s="0">
-        <v>-346</v>
+        <v>-176</v>
       </c>
       <c r="U46" s="0">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="V46" s="0">
-        <v>-501</v>
+        <v>-156</v>
       </c>
       <c r="W46" s="0">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="X46" s="0">
-        <v>1.66</v>
+        <v>3.63</v>
       </c>
       <c r="Y46" s="0">
-        <v>-0.6</v>
+        <v>0.01</v>
       </c>
       <c r="Z46" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AA46" s="0">
-        <v>-2.085</v>
+        <v>-0.221</v>
       </c>
       <c r="AB46" s="0">
-        <v>-2.438</v>
+        <v>-0.739</v>
       </c>
       <c r="AC46" s="0">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="AD46" s="0">
-        <v>0.09</v>
+        <v>19.22</v>
       </c>
       <c r="AE46" s="0">
-        <v>0.09</v>
+        <v>19.22</v>
       </c>
       <c r="AF46" s="0">
-        <v>-0.22</v>
+        <v>-0.06</v>
       </c>
       <c r="AG46" s="0">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="AH46" s="0">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="AI46" s="0" t="s">
         <v>84</v>
@@ -5925,13 +5925,13 @@
         <v>398.102</v>
       </c>
       <c r="O47" s="0">
-        <v>89.6</v>
+        <v>91.08</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>1.28462</v>
+        <v>1.25812</v>
       </c>
       <c r="R47" s="0">
         <v>1.25917</v>
@@ -5940,43 +5940,43 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>526</v>
+        <v>598</v>
       </c>
       <c r="U47" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="V47" s="0">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="W47" s="0">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="X47" s="0">
-        <v>10.47</v>
+        <v>11.8</v>
       </c>
       <c r="Y47" s="0">
-        <v>10.93</v>
+        <v>12.05</v>
       </c>
       <c r="Z47" s="0">
-        <v>10.93</v>
+        <v>12.05</v>
       </c>
       <c r="AA47" s="0">
-        <v>-7.857</v>
+        <v>-6.335</v>
       </c>
       <c r="AB47" s="0">
-        <v>-7.821</v>
+        <v>-6.571</v>
       </c>
       <c r="AC47" s="0">
-        <v>-0.69</v>
+        <v>-1.1</v>
       </c>
       <c r="AD47" s="0">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="AE47" s="0">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="AF47" s="0">
-        <v>-0.17</v>
+        <v>-0.26</v>
       </c>
       <c r="AG47" s="0">
         <v>0</v>
@@ -6032,13 +6032,13 @@
         <v>234.208</v>
       </c>
       <c r="O48" s="0">
-        <v>96.84</v>
+        <v>94.96</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0.81683</v>
+        <v>0.7717</v>
       </c>
       <c r="R48" s="0">
         <v>0.77126</v>
@@ -6047,49 +6047,49 @@
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="U48" s="0">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="V48" s="0">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="W48" s="0">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="X48" s="0">
-        <v>11.71</v>
+        <v>12.45</v>
       </c>
       <c r="Y48" s="0">
-        <v>12.19</v>
+        <v>12.77</v>
       </c>
       <c r="Z48" s="0">
-        <v>12.19</v>
+        <v>12.77</v>
       </c>
       <c r="AA48" s="0">
-        <v>-4.346</v>
+        <v>-6.203</v>
       </c>
       <c r="AB48" s="0">
-        <v>-4.545</v>
+        <v>-6.63</v>
       </c>
       <c r="AC48" s="0">
-        <v>-0.6</v>
+        <v>-0.64</v>
       </c>
       <c r="AD48" s="0">
-        <v>8.08</v>
+        <v>0.19</v>
       </c>
       <c r="AE48" s="0">
-        <v>8.08</v>
+        <v>0.19</v>
       </c>
       <c r="AF48" s="0">
-        <v>-0.14</v>
+        <v>-0.16</v>
       </c>
       <c r="AG48" s="0">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AI48" s="0" t="s">
         <v>47</v>
@@ -6139,13 +6139,13 @@
         <v>532.526</v>
       </c>
       <c r="O49" s="0">
-        <v>70.4</v>
+        <v>91.04</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>1.35016</v>
+        <v>1.68221</v>
       </c>
       <c r="R49" s="0">
         <v>1.71414</v>
@@ -6154,49 +6154,49 @@
         <v>1.59</v>
       </c>
       <c r="T49" s="0">
-        <v>597</v>
+        <v>363</v>
       </c>
       <c r="U49" s="0">
-        <v>350</v>
+        <v>116</v>
       </c>
       <c r="V49" s="0">
-        <v>475</v>
+        <v>392</v>
       </c>
       <c r="W49" s="0">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="X49" s="0">
-        <v>11.38</v>
+        <v>8.97</v>
       </c>
       <c r="Y49" s="0">
-        <v>16.96</v>
+        <v>9.28</v>
       </c>
       <c r="Z49" s="0">
-        <v>16.96</v>
+        <v>9.28</v>
       </c>
       <c r="AA49" s="0">
-        <v>-27.25</v>
+        <v>-6.393</v>
       </c>
       <c r="AB49" s="0">
-        <v>-29.264</v>
+        <v>-8.482</v>
       </c>
       <c r="AC49" s="0">
-        <v>0.59</v>
+        <v>2.54</v>
       </c>
       <c r="AD49" s="0">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AE49" s="0">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AF49" s="0">
-        <v>-0.57</v>
+        <v>-0.12</v>
       </c>
       <c r="AG49" s="0">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AH49" s="0">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AI49" s="0" t="s">
         <v>47</v>
@@ -6246,58 +6246,58 @@
         <v>158.297</v>
       </c>
       <c r="O50" s="0">
-        <v>74.4</v>
+        <v>76.66</v>
       </c>
       <c r="P50" s="0">
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>0.42415</v>
+        <v>0.42106</v>
       </c>
       <c r="R50" s="0">
         <v>0.41871</v>
       </c>
       <c r="S50" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T50" s="0">
-        <v>795</v>
+        <v>727</v>
       </c>
       <c r="U50" s="0">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="V50" s="0">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="W50" s="0">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="X50" s="0">
-        <v>12.79</v>
+        <v>12.55</v>
       </c>
       <c r="Y50" s="0">
-        <v>16.81</v>
+        <v>16.15</v>
       </c>
       <c r="Z50" s="0">
-        <v>16.81</v>
+        <v>16.15</v>
       </c>
       <c r="AA50" s="0">
-        <v>-8.51</v>
+        <v>-3.271</v>
       </c>
       <c r="AB50" s="0">
-        <v>-10.263</v>
+        <v>-5.211</v>
       </c>
       <c r="AC50" s="0">
-        <v>1.78</v>
+        <v>2.01</v>
       </c>
       <c r="AD50" s="0">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="AE50" s="0">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="AF50" s="0">
-        <v>-0.24</v>
+        <v>-0.22</v>
       </c>
       <c r="AG50" s="0">
         <v>0.16</v>
@@ -6353,64 +6353,64 @@
         <v>530.717</v>
       </c>
       <c r="O51" s="0">
-        <v>34.8</v>
+        <v>60</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>0.66514</v>
+        <v>1.10489</v>
       </c>
       <c r="R51" s="0">
         <v>1.75527</v>
       </c>
       <c r="S51" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T51" s="0">
-        <v>1942</v>
+        <v>974</v>
       </c>
       <c r="U51" s="0">
-        <v>1670</v>
+        <v>702</v>
       </c>
       <c r="V51" s="0">
-        <v>715</v>
+        <v>621</v>
       </c>
       <c r="W51" s="0">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="X51" s="0">
-        <v>23.5</v>
+        <v>13.75</v>
       </c>
       <c r="Y51" s="0">
-        <v>41.5</v>
+        <v>23.14</v>
       </c>
       <c r="Z51" s="0">
-        <v>41.5</v>
+        <v>23.14</v>
       </c>
       <c r="AA51" s="0">
-        <v>-65.775</v>
+        <v>-40.991</v>
       </c>
       <c r="AB51" s="0">
-        <v>-67.776</v>
+        <v>-43.071</v>
       </c>
       <c r="AC51" s="0">
-        <v>-0.37</v>
+        <v>0.58</v>
       </c>
       <c r="AD51" s="0">
-        <v>2.64</v>
+        <v>3.14</v>
       </c>
       <c r="AE51" s="0">
-        <v>2.64</v>
+        <v>3.14</v>
       </c>
       <c r="AF51" s="0">
-        <v>-0.4</v>
+        <v>-0.46</v>
       </c>
       <c r="AG51" s="0">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AH51" s="0">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AI51" s="0" t="s">
         <v>47</v>
@@ -6460,13 +6460,13 @@
         <v>517.016</v>
       </c>
       <c r="O52" s="0">
-        <v>77.28</v>
+        <v>84.4</v>
       </c>
       <c r="P52" s="0">
         <v>0</v>
       </c>
       <c r="Q52" s="0">
-        <v>1.43895</v>
+        <v>1.51409</v>
       </c>
       <c r="R52" s="0">
         <v>1.6548</v>
@@ -6475,43 +6475,43 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>418</v>
+        <v>347</v>
       </c>
       <c r="U52" s="0">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="V52" s="0">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="W52" s="0">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="X52" s="0">
-        <v>9.16</v>
+        <v>8.59</v>
       </c>
       <c r="Y52" s="0">
-        <v>10.89</v>
+        <v>9.21</v>
       </c>
       <c r="Z52" s="0">
-        <v>10.89</v>
+        <v>9.21</v>
       </c>
       <c r="AA52" s="0">
-        <v>-21.463</v>
+        <v>-14.228</v>
       </c>
       <c r="AB52" s="0">
-        <v>-24.003</v>
+        <v>-16.88</v>
       </c>
       <c r="AC52" s="0">
-        <v>3.14</v>
+        <v>3.76</v>
       </c>
       <c r="AD52" s="0">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="AE52" s="0">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="AF52" s="0">
-        <v>-0.3</v>
+        <v>-0.14</v>
       </c>
       <c r="AG52" s="0">
         <v>0.32</v>
@@ -6567,13 +6567,13 @@
         <v>517.016</v>
       </c>
       <c r="O53" s="0">
-        <v>78.4</v>
+        <v>93.92</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
       </c>
       <c r="Q53" s="0">
-        <v>1.4598</v>
+        <v>1.68488</v>
       </c>
       <c r="R53" s="0">
         <v>1.72207</v>
@@ -6582,43 +6582,43 @@
         <v>0</v>
       </c>
       <c r="T53" s="0">
-        <v>481</v>
+        <v>316</v>
       </c>
       <c r="U53" s="0">
-        <v>523</v>
+        <v>358</v>
       </c>
       <c r="V53" s="0">
-        <v>425</v>
+        <v>354</v>
       </c>
       <c r="W53" s="0">
-        <v>582</v>
+        <v>511</v>
       </c>
       <c r="X53" s="0">
-        <v>10.52</v>
+        <v>8.83</v>
       </c>
       <c r="Y53" s="0">
-        <v>24.6</v>
+        <v>11.33</v>
       </c>
       <c r="Z53" s="0">
-        <v>24.6</v>
+        <v>11.33</v>
       </c>
       <c r="AA53" s="0">
-        <v>-23.438</v>
+        <v>-8.281</v>
       </c>
       <c r="AB53" s="0">
-        <v>-24.512</v>
+        <v>-9.397</v>
       </c>
       <c r="AC53" s="0">
-        <v>-1.28</v>
+        <v>0.51</v>
       </c>
       <c r="AD53" s="0">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AE53" s="0">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AF53" s="0">
-        <v>-0.6</v>
+        <v>-0.22</v>
       </c>
       <c r="AG53" s="0">
         <v>0.03</v>
@@ -6674,13 +6674,13 @@
         <v>413.613</v>
       </c>
       <c r="O54" s="0">
-        <v>98.76</v>
+        <v>101.4</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
       </c>
       <c r="Q54" s="0">
-        <v>1.47112</v>
+        <v>1.45525</v>
       </c>
       <c r="R54" s="0">
         <v>1.3868</v>
@@ -6689,43 +6689,43 @@
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="U54" s="0">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="V54" s="0">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="W54" s="0">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="X54" s="0">
-        <v>7.03</v>
+        <v>6.41</v>
       </c>
       <c r="Y54" s="0">
-        <v>6.22</v>
+        <v>5.39</v>
       </c>
       <c r="Z54" s="0">
-        <v>6.22</v>
+        <v>5.39</v>
       </c>
       <c r="AA54" s="0">
-        <v>-4.191</v>
+        <v>-1.63</v>
       </c>
       <c r="AB54" s="0">
-        <v>-6.113</v>
+        <v>-3.583</v>
       </c>
       <c r="AC54" s="0">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AD54" s="0">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AE54" s="0">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AF54" s="0">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AG54" s="0">
         <v>0.11</v>
@@ -6781,13 +6781,13 @@
         <v>411.751</v>
       </c>
       <c r="O55" s="0">
-        <v>71.6</v>
+        <v>73.44</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>1.06175</v>
+        <v>1.04924</v>
       </c>
       <c r="R55" s="0">
         <v>1.0977</v>
@@ -6796,43 +6796,43 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>731</v>
+        <v>698</v>
       </c>
       <c r="U55" s="0">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="V55" s="0">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="W55" s="0">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="X55" s="0">
-        <v>12.78</v>
+        <v>12.76</v>
       </c>
       <c r="Y55" s="0">
-        <v>26.81</v>
+        <v>25.94</v>
       </c>
       <c r="Z55" s="0">
-        <v>26.81</v>
+        <v>25.94</v>
       </c>
       <c r="AA55" s="0">
-        <v>-12.64</v>
+        <v>-10.395</v>
       </c>
       <c r="AB55" s="0">
-        <v>-13.565</v>
+        <v>-11.447</v>
       </c>
       <c r="AC55" s="0">
-        <v>-0.96</v>
+        <v>-0.85</v>
       </c>
       <c r="AD55" s="0">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AE55" s="0">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AF55" s="0">
-        <v>-0.49</v>
+        <v>-0.47</v>
       </c>
       <c r="AG55" s="0">
         <v>0.04</v>
@@ -6888,13 +6888,13 @@
         <v>480.825</v>
       </c>
       <c r="O56" s="0">
-        <v>75</v>
+        <v>77.8</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>1.29874</v>
+        <v>1.29799</v>
       </c>
       <c r="R56" s="0">
         <v>1.35254</v>
@@ -6903,43 +6903,43 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>776</v>
+        <v>733</v>
       </c>
       <c r="U56" s="0">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="V56" s="0">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="W56" s="0">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="X56" s="0">
-        <v>11.65</v>
+        <v>11.21</v>
       </c>
       <c r="Y56" s="0">
-        <v>16.74</v>
+        <v>15.74</v>
       </c>
       <c r="Z56" s="0">
-        <v>16.74</v>
+        <v>15.74</v>
       </c>
       <c r="AA56" s="0">
-        <v>-13.275</v>
+        <v>-10.037</v>
       </c>
       <c r="AB56" s="0">
-        <v>-14.949</v>
+        <v>-11.656</v>
       </c>
       <c r="AC56" s="0">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="AD56" s="0">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AE56" s="0">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AF56" s="0">
-        <v>-0.2</v>
+        <v>-0.17</v>
       </c>
       <c r="AG56" s="0">
         <v>0.11</v>
@@ -6995,13 +6995,13 @@
         <v>292.114</v>
       </c>
       <c r="O57" s="0">
-        <v>84.16</v>
+        <v>82.2</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0.88538</v>
+        <v>0.83316</v>
       </c>
       <c r="R57" s="0">
         <v>0.86883</v>
@@ -7010,43 +7010,43 @@
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="U57" s="0">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="V57" s="0">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="W57" s="0">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X57" s="0">
-        <v>11.61</v>
+        <v>12.31</v>
       </c>
       <c r="Y57" s="0">
-        <v>21.3</v>
+        <v>24.14</v>
       </c>
       <c r="Z57" s="0">
-        <v>21.3</v>
+        <v>24.14</v>
       </c>
       <c r="AA57" s="0">
-        <v>-7.962</v>
+        <v>-10.105</v>
       </c>
       <c r="AB57" s="0">
-        <v>-8.711</v>
+        <v>-10.951</v>
       </c>
       <c r="AC57" s="0">
-        <v>-0.33</v>
+        <v>-0.54</v>
       </c>
       <c r="AD57" s="0">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AE57" s="0">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AF57" s="0">
-        <v>-0.31</v>
+        <v>-0.34</v>
       </c>
       <c r="AG57" s="0">
         <v>0.02</v>
@@ -7102,13 +7102,13 @@
         <v>160.533</v>
       </c>
       <c r="O58" s="0">
-        <v>85.54</v>
+        <v>84.64</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>0.49455</v>
+        <v>0.47146</v>
       </c>
       <c r="R58" s="0">
         <v>0.49522</v>
@@ -7117,40 +7117,40 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="U58" s="0">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="V58" s="0">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="W58" s="0">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X58" s="0">
-        <v>11.62</v>
+        <v>12.11</v>
       </c>
       <c r="Y58" s="0">
-        <v>20.43</v>
+        <v>22.12</v>
       </c>
       <c r="Z58" s="0">
-        <v>20.43</v>
+        <v>22.12</v>
       </c>
       <c r="AA58" s="0">
-        <v>-9.806</v>
+        <v>-10.755</v>
       </c>
       <c r="AB58" s="0">
-        <v>-10.645</v>
+        <v>-11.676</v>
       </c>
       <c r="AC58" s="0">
-        <v>-0.21</v>
+        <v>-0.33</v>
       </c>
       <c r="AD58" s="0">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AE58" s="0">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AF58" s="0">
         <v>-0.29</v>
@@ -7209,58 +7209,58 @@
         <v>361.911</v>
       </c>
       <c r="O59" s="0">
-        <v>65.56</v>
+        <v>83.44</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>0.8545</v>
+        <v>1.04781</v>
       </c>
       <c r="R59" s="0">
         <v>1.15836</v>
       </c>
       <c r="S59" s="0">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="T59" s="0">
-        <v>822</v>
+        <v>552</v>
       </c>
       <c r="U59" s="0">
-        <v>477</v>
+        <v>207</v>
       </c>
       <c r="V59" s="0">
-        <v>528</v>
+        <v>457</v>
       </c>
       <c r="W59" s="0">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="X59" s="0">
-        <v>11.82</v>
+        <v>9.28</v>
       </c>
       <c r="Y59" s="0">
-        <v>71.26</v>
+        <v>32.17</v>
       </c>
       <c r="Z59" s="0">
-        <v>71.26</v>
+        <v>32.17</v>
       </c>
       <c r="AA59" s="0">
-        <v>-33.374</v>
+        <v>-13.711</v>
       </c>
       <c r="AB59" s="0">
-        <v>-34.2</v>
+        <v>-14.611</v>
       </c>
       <c r="AC59" s="0">
-        <v>-3.26</v>
+        <v>-1.06</v>
       </c>
       <c r="AD59" s="0">
-        <v>0.64</v>
+        <v>0.79</v>
       </c>
       <c r="AE59" s="0">
-        <v>0.64</v>
+        <v>0.79</v>
       </c>
       <c r="AF59" s="0">
-        <v>-0.7</v>
+        <v>-0.36</v>
       </c>
       <c r="AG59" s="0">
         <v>0.01</v>
@@ -7316,13 +7316,13 @@
         <v>206.806</v>
       </c>
       <c r="O60" s="0">
-        <v>95.64</v>
+        <v>88.12</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0.71232</v>
+        <v>0.63233</v>
       </c>
       <c r="R60" s="0">
         <v>0.66165</v>
@@ -7331,49 +7331,49 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>594</v>
+        <v>758</v>
       </c>
       <c r="U60" s="0">
-        <v>184</v>
+        <v>348</v>
       </c>
       <c r="V60" s="0">
-        <v>684</v>
+        <v>736</v>
       </c>
       <c r="W60" s="0">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="X60" s="0">
-        <v>9.86</v>
+        <v>11.56</v>
       </c>
       <c r="Y60" s="0">
-        <v>10</v>
+        <v>13.54</v>
       </c>
       <c r="Z60" s="0">
-        <v>10</v>
+        <v>13.54</v>
       </c>
       <c r="AA60" s="0">
-        <v>-2.765</v>
+        <v>-10.411</v>
       </c>
       <c r="AB60" s="0">
-        <v>-4.507</v>
+        <v>-12.184</v>
       </c>
       <c r="AC60" s="0">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AD60" s="0">
-        <v>2.51</v>
+        <v>2.41</v>
       </c>
       <c r="AE60" s="0">
-        <v>2.51</v>
+        <v>2.41</v>
       </c>
       <c r="AF60" s="0">
+        <v>-0</v>
+      </c>
+      <c r="AG60" s="0">
         <v>0.08</v>
       </c>
-      <c r="AG60" s="0">
-        <v>0.09</v>
-      </c>
       <c r="AH60" s="0">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AI60" s="0" t="s">
         <v>47</v>
@@ -7423,13 +7423,13 @@
         <v>517.016</v>
       </c>
       <c r="O61" s="0">
-        <v>94.92</v>
+        <v>99.68</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>1.7674</v>
+        <v>1.78821</v>
       </c>
       <c r="R61" s="0">
         <v>1.69516</v>
@@ -7438,49 +7438,49 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>295</v>
+        <v>157</v>
       </c>
       <c r="U61" s="0">
-        <v>251</v>
+        <v>113</v>
       </c>
       <c r="V61" s="0">
-        <v>348</v>
+        <v>227</v>
       </c>
       <c r="W61" s="0">
-        <v>270</v>
+        <v>149</v>
       </c>
       <c r="X61" s="0">
-        <v>8.09</v>
+        <v>6.71</v>
       </c>
       <c r="Y61" s="0">
-        <v>7.31</v>
+        <v>5.59</v>
       </c>
       <c r="Z61" s="0">
-        <v>7.31</v>
+        <v>5.59</v>
       </c>
       <c r="AA61" s="0">
-        <v>-5.833</v>
+        <v>-1.111</v>
       </c>
       <c r="AB61" s="0">
-        <v>-7.683</v>
+        <v>-2.984</v>
       </c>
       <c r="AC61" s="0">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="AD61" s="0">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AE61" s="0">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AF61" s="0">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AG61" s="0">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH61" s="0">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AI61" s="0" t="s">
         <v>47</v>
@@ -7530,13 +7530,13 @@
         <v>775.524</v>
       </c>
       <c r="O62" s="0">
-        <v>94.4</v>
+        <v>92.76</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>2.63658</v>
+        <v>2.4961</v>
       </c>
       <c r="R62" s="0">
         <v>2.52458</v>
@@ -7545,49 +7545,49 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="U62" s="0">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="V62" s="0">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="W62" s="0">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="X62" s="0">
-        <v>8.27</v>
+        <v>8.76</v>
       </c>
       <c r="Y62" s="0">
-        <v>12.07</v>
+        <v>14.7</v>
       </c>
       <c r="Z62" s="0">
-        <v>12.07</v>
+        <v>14.7</v>
       </c>
       <c r="AA62" s="0">
-        <v>-5.675</v>
+        <v>-7.314</v>
       </c>
       <c r="AB62" s="0">
-        <v>-6.407</v>
+        <v>-8.118</v>
       </c>
       <c r="AC62" s="0">
-        <v>0.14</v>
+        <v>-0.1</v>
       </c>
       <c r="AD62" s="0">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="AE62" s="0">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="AF62" s="0">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="AG62" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH62" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI62" s="0" t="s">
         <v>47</v>
@@ -7637,13 +7637,13 @@
         <v>215.079</v>
       </c>
       <c r="O63" s="0">
-        <v>85.36</v>
+        <v>85.48</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
       </c>
       <c r="Q63" s="0">
-        <v>0.66119</v>
+        <v>0.63792</v>
       </c>
       <c r="R63" s="0">
         <v>0.61032</v>
@@ -7658,10 +7658,10 @@
         <v>0</v>
       </c>
       <c r="V63" s="0">
-        <v>1805</v>
+        <v>1844</v>
       </c>
       <c r="W63" s="0">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="X63" s="0">
         <v>100</v>
@@ -7670,22 +7670,22 @@
         <v>100</v>
       </c>
       <c r="Z63" s="0">
-        <v>7.55</v>
+        <v>7.6</v>
       </c>
       <c r="AA63" s="0">
-        <v>-2.155</v>
+        <v>-2.017</v>
       </c>
       <c r="AB63" s="0">
-        <v>-2.386</v>
+        <v>-2.464</v>
       </c>
       <c r="AC63" s="0">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
       <c r="AD63" s="0">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
       <c r="AE63" s="0">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="AF63" s="0">
         <v>0</v>
@@ -7744,13 +7744,13 @@
         <v>264.712</v>
       </c>
       <c r="O64" s="0">
-        <v>85.56</v>
+        <v>86.86</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>0.81568</v>
+        <v>0.79781</v>
       </c>
       <c r="R64" s="0">
         <v>0.73704</v>
@@ -7780,10 +7780,10 @@
         <v>8.15</v>
       </c>
       <c r="AA64" s="0">
-        <v>-0.047</v>
+        <v>1.471</v>
       </c>
       <c r="AB64" s="0">
-        <v>-0.315</v>
+        <v>1.003</v>
       </c>
       <c r="AC64" s="0">
         <v>-0.06</v>
@@ -7851,13 +7851,13 @@
         <v>305.039</v>
       </c>
       <c r="O65" s="0">
-        <v>81.16</v>
+        <v>79.32</v>
       </c>
       <c r="P65" s="0">
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>0.8916</v>
+        <v>0.83955</v>
       </c>
       <c r="R65" s="0">
         <v>0.86124</v>
@@ -7866,49 +7866,49 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="U65" s="0">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="V65" s="0">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="W65" s="0">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X65" s="0">
-        <v>11.35</v>
+        <v>12</v>
       </c>
       <c r="Y65" s="0">
-        <v>20.73</v>
+        <v>22.85</v>
       </c>
       <c r="Z65" s="0">
-        <v>20.73</v>
+        <v>22.85</v>
       </c>
       <c r="AA65" s="0">
-        <v>-6.498</v>
+        <v>-8.618</v>
       </c>
       <c r="AB65" s="0">
-        <v>-7.444</v>
+        <v>-9.681</v>
       </c>
       <c r="AC65" s="0">
-        <v>-0.33</v>
+        <v>-0.53</v>
       </c>
       <c r="AD65" s="0">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AE65" s="0">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AF65" s="0">
-        <v>-0.38</v>
+        <v>-0.4</v>
       </c>
       <c r="AG65" s="0">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AH65" s="0">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AI65" s="0" t="s">
         <v>47</v>
@@ -7958,13 +7958,13 @@
         <v>297.284</v>
       </c>
       <c r="O66" s="0">
-        <v>77.88</v>
+        <v>77.4</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>0.83382</v>
+        <v>0.7984</v>
       </c>
       <c r="R66" s="0">
         <v>0.83199</v>
@@ -7973,43 +7973,43 @@
         <v>0</v>
       </c>
       <c r="T66" s="0">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="U66" s="0">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="V66" s="0">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="W66" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="X66" s="0">
-        <v>11.72</v>
+        <v>12.06</v>
       </c>
       <c r="Y66" s="0">
-        <v>15.2</v>
+        <v>15.59</v>
       </c>
       <c r="Z66" s="0">
-        <v>15.2</v>
+        <v>15.59</v>
       </c>
       <c r="AA66" s="0">
-        <v>-9.484</v>
+        <v>-10.042</v>
       </c>
       <c r="AB66" s="0">
-        <v>-11.295</v>
+        <v>-12.012</v>
       </c>
       <c r="AC66" s="0">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AD66" s="0">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="AE66" s="0">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="AF66" s="0">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="AG66" s="0">
         <v>0.15</v>
@@ -8065,58 +8065,58 @@
         <v>1023.6</v>
       </c>
       <c r="O67" s="0">
-        <v>75.48</v>
+        <v>75.44</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>2.7825</v>
+        <v>2.6794</v>
       </c>
       <c r="R67" s="0">
         <v>2.77279</v>
       </c>
       <c r="S67" s="0">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T67" s="0">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="U67" s="0">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V67" s="0">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="W67" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X67" s="0">
-        <v>7.03</v>
+        <v>7.34</v>
       </c>
       <c r="Y67" s="0">
-        <v>7.34</v>
+        <v>7.66</v>
       </c>
       <c r="Z67" s="0">
-        <v>7.34</v>
+        <v>7.66</v>
       </c>
       <c r="AA67" s="0">
-        <v>-9.366</v>
+        <v>-7.784</v>
       </c>
       <c r="AB67" s="0">
-        <v>-10.082</v>
+        <v>-8.566</v>
       </c>
       <c r="AC67" s="0">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AD67" s="0">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="0">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="0">
-        <v>25.22</v>
+        <v>24.66</v>
       </c>
       <c r="AG67" s="0">
         <v>0</v>
@@ -8172,64 +8172,64 @@
         <v>1280.523</v>
       </c>
       <c r="O68" s="0">
-        <v>78.58</v>
+        <v>75.75</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>3.6238</v>
+        <v>3.36593</v>
       </c>
       <c r="R68" s="0">
         <v>3.44044</v>
       </c>
       <c r="S68" s="0">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="T68" s="0">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="U68" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="V68" s="0">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="W68" s="0">
-        <v>-102</v>
+        <v>36</v>
       </c>
       <c r="X68" s="0">
-        <v>6.22</v>
+        <v>6.77</v>
       </c>
       <c r="Y68" s="0">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="Z68" s="0">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="AA68" s="0">
-        <v>-4.869</v>
+        <v>-6.516</v>
       </c>
       <c r="AB68" s="0">
-        <v>-5.807</v>
+        <v>-7.196</v>
       </c>
       <c r="AC68" s="0">
-        <v>6.93</v>
+        <v>6.45</v>
       </c>
       <c r="AD68" s="0">
-        <v>58.33</v>
+        <v>58.25</v>
       </c>
       <c r="AE68" s="0">
-        <v>58.33</v>
+        <v>58.25</v>
       </c>
       <c r="AF68" s="0">
-        <v>44.5</v>
+        <v>44.63</v>
       </c>
       <c r="AG68" s="0">
-        <v>34.76</v>
+        <v>34.69</v>
       </c>
       <c r="AH68" s="0">
-        <v>34.76</v>
+        <v>34.69</v>
       </c>
       <c r="AI68" s="0" t="s">
         <v>47</v>
@@ -8279,13 +8279,13 @@
         <v>310.209</v>
       </c>
       <c r="O69" s="0">
-        <v>89.8</v>
+        <v>89.56</v>
       </c>
       <c r="P69" s="0">
         <v>0</v>
       </c>
       <c r="Q69" s="0">
-        <v>1.00324</v>
+        <v>0.96399</v>
       </c>
       <c r="R69" s="0">
         <v>0.97068</v>
@@ -8294,49 +8294,49 @@
         <v>0</v>
       </c>
       <c r="T69" s="0">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="U69" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="V69" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="W69" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X69" s="0">
-        <v>6.76</v>
+        <v>6.81</v>
       </c>
       <c r="Y69" s="0">
-        <v>7.4</v>
+        <v>7.52</v>
       </c>
       <c r="Z69" s="0">
-        <v>7.4</v>
+        <v>7.52</v>
       </c>
       <c r="AA69" s="0">
-        <v>-6.653</v>
+        <v>-6.902</v>
       </c>
       <c r="AB69" s="0">
-        <v>-9.284</v>
+        <v>-9.639</v>
       </c>
       <c r="AC69" s="0">
-        <v>4.8</v>
+        <v>4.72</v>
       </c>
       <c r="AD69" s="0">
-        <v>5.27</v>
+        <v>5.22</v>
       </c>
       <c r="AE69" s="0">
-        <v>5.27</v>
+        <v>5.22</v>
       </c>
       <c r="AF69" s="0">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AG69" s="0">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AH69" s="0">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AI69" s="0" t="s">
         <v>47</v>
@@ -8386,64 +8386,64 @@
         <v>310.209</v>
       </c>
       <c r="O70" s="0">
-        <v>32.04</v>
+        <v>53.6</v>
       </c>
       <c r="P70" s="0">
         <v>0</v>
       </c>
       <c r="Q70" s="0">
-        <v>0.35795</v>
+        <v>0.57693</v>
       </c>
       <c r="R70" s="0">
         <v>0.85565</v>
       </c>
       <c r="S70" s="0">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
       <c r="T70" s="0">
-        <v>1433</v>
+        <v>740</v>
       </c>
       <c r="U70" s="0">
-        <v>1094</v>
+        <v>401</v>
       </c>
       <c r="V70" s="0">
-        <v>565</v>
+        <v>478</v>
       </c>
       <c r="W70" s="0">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="X70" s="0">
-        <v>18.27</v>
+        <v>11.64</v>
       </c>
       <c r="Y70" s="0">
-        <v>45.18</v>
+        <v>25.05</v>
       </c>
       <c r="Z70" s="0">
-        <v>45.18</v>
+        <v>25.05</v>
       </c>
       <c r="AA70" s="0">
-        <v>-62.217</v>
+        <v>-35.54</v>
       </c>
       <c r="AB70" s="0">
-        <v>-63.857</v>
+        <v>-36.78</v>
       </c>
       <c r="AC70" s="0">
-        <v>-3.18</v>
+        <v>-1.32</v>
       </c>
       <c r="AD70" s="0">
-        <v>2.42</v>
+        <v>2.81</v>
       </c>
       <c r="AE70" s="0">
-        <v>2.42</v>
+        <v>2.81</v>
       </c>
       <c r="AF70" s="0">
-        <v>-0.93</v>
+        <v>-0.9</v>
       </c>
       <c r="AG70" s="0">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AH70" s="0">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AI70" s="0" t="s">
         <v>47</v>
@@ -8493,46 +8493,46 @@
         <v>558.687</v>
       </c>
       <c r="O71" s="0">
-        <v>109.32</v>
+        <v>106.32</v>
       </c>
       <c r="P71" s="0">
         <v>0</v>
       </c>
       <c r="Q71" s="0">
-        <v>2.19959</v>
+        <v>2.06105</v>
       </c>
       <c r="R71" s="0">
         <v>2.01133</v>
       </c>
       <c r="S71" s="0">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T71" s="0">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="U71" s="0">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="V71" s="0">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="W71" s="0">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="X71" s="0">
-        <v>6.43</v>
+        <v>6.87</v>
       </c>
       <c r="Y71" s="0">
-        <v>7.26</v>
+        <v>7.59</v>
       </c>
       <c r="Z71" s="0">
-        <v>7.26</v>
+        <v>7.59</v>
       </c>
       <c r="AA71" s="0">
-        <v>-1.229</v>
+        <v>-1.539</v>
       </c>
       <c r="AB71" s="0">
-        <v>-2.691</v>
+        <v>-3.041</v>
       </c>
       <c r="AC71" s="0">
         <v>1.91</v>
@@ -8600,13 +8600,13 @@
         <v>868.586</v>
       </c>
       <c r="O72" s="0">
-        <v>96.68</v>
+        <v>96.8</v>
       </c>
       <c r="P72" s="0">
         <v>0</v>
       </c>
       <c r="Q72" s="0">
-        <v>3.02428</v>
+        <v>2.91739</v>
       </c>
       <c r="R72" s="0">
         <v>2.85465</v>
@@ -8615,49 +8615,49 @@
         <v>0</v>
       </c>
       <c r="T72" s="0">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="U72" s="0">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="V72" s="0">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W72" s="0">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="X72" s="0">
-        <v>8.65</v>
+        <v>8.94</v>
       </c>
       <c r="Y72" s="0">
-        <v>10.26</v>
+        <v>10.65</v>
       </c>
       <c r="Z72" s="0">
-        <v>10.26</v>
+        <v>10.65</v>
       </c>
       <c r="AA72" s="0">
-        <v>-4.315</v>
+        <v>-4.196</v>
       </c>
       <c r="AB72" s="0">
-        <v>-5.046</v>
+        <v>-4.999</v>
       </c>
       <c r="AC72" s="0">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="AD72" s="0">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="AE72" s="0">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="AF72" s="0">
         <v>-0.14</v>
       </c>
       <c r="AG72" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH72" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI72" s="0" t="s">
         <v>47</v>
@@ -8707,58 +8707,58 @@
         <v>297.284</v>
       </c>
       <c r="O73" s="0">
-        <v>92.24</v>
+        <v>91.96</v>
       </c>
       <c r="P73" s="0">
         <v>0</v>
       </c>
       <c r="Q73" s="0">
-        <v>0.98756</v>
+        <v>0.94859</v>
       </c>
       <c r="R73" s="0">
         <v>0.9929</v>
       </c>
       <c r="S73" s="0">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T73" s="0">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="U73" s="0">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="V73" s="0">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="W73" s="0">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="X73" s="0">
-        <v>10.06</v>
+        <v>10.03</v>
       </c>
       <c r="Y73" s="0">
-        <v>11.41</v>
+        <v>11.83</v>
       </c>
       <c r="Z73" s="0">
-        <v>11.41</v>
+        <v>11.83</v>
       </c>
       <c r="AA73" s="0">
-        <v>-10.168</v>
+        <v>-8.766</v>
       </c>
       <c r="AB73" s="0">
-        <v>-11.715</v>
+        <v>-10.345</v>
       </c>
       <c r="AC73" s="0">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="AD73" s="0">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AE73" s="0">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AF73" s="0">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AG73" s="0">
         <v>0.06</v>
